--- a/examples/99_tower_gbf/15mw/40m/outputs_mono/monotow_output.xlsx
+++ b/examples/99_tower_gbf/15mw/40m/outputs_mono/monotow_output.xlsx
@@ -914,7 +914,8 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[[0.077 0.077 0.077 0.077 0.077 0.077 0.077]]</t>
+          <t>[[0.0846081  0.13       0.13       0.1125613  0.12625104 0.1231626
+  0.09344583]]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -937,8 +938,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.25511963 11.25511963
- 11.25511963]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[11.25511963]</t>
+          <t>[10.]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[11.25511963]</t>
+          <t>[12.]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[2.7427184]</t>
+          <t>[2.77192347]</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[[0.06752031 0.04994652 0.012665   0.01092216 0.01188653]]</t>
+          <t>[[0.04  0.04  0.04  0.015 0.015]]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 10.03048346  5.999     ]</t>
+          <t>[10.         10.         10.          9.40217948  5.999     ]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -4573,10 +4573,10 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          32553.58509118
-  33495.35980444  36380.37048799  41394.03792705  48861.90035993
-  59276.69160767  73360.44041837  85175.84772957  99487.4353026
- 116885.41960682      0.              0.              0.
+          <t>[     0.              0.              0.          36803.2377582
+  37864.58420966  41115.75313184  46764.63106935  55173.39670577
+  66895.10137592  82741.68351929  96169.34371611 112453.90228731
+ 132280.93189279      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -4827,10 +4827,8 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.27941854 11.27941854
- 11.27941854 11.27941854 11.27941854 11.27941854 11.2713189  11.26321926
- 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12.
+ 12.]</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -4971,10 +4969,10 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          32553.58509118
-  33495.35980444  36380.37048799  41394.03792705  48861.90035993
-  59276.69160767  73360.44041837  85175.84772957  99487.4353026
- 116885.41960682      0.              0.              0.
+          <t>[     0.              0.              0.          36803.2377582
+  37864.58420966  41115.75313184  46764.63106935  55173.39670577
+  66895.10137592  82741.68351929  96169.34371611 112453.90228731
+ 132280.93189279      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5117,10 +5115,10 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -32553.58509118
-  -33495.35980444  -36380.37048799  -41394.03792705  -48861.90035993
-  -59276.69160767  -73360.44041837  -85175.84772957  -99487.4353026
- -116885.41960682       0.               0.               0.
+          <t>[      0.               0.               0.          -36803.2377582
+  -37864.58420966  -41115.75313184  -46764.63106935  -55173.39670577
+  -66895.10137592  -82741.68351929  -96169.34371611 -112453.90228731
+ -132280.93189279       0.               0.               0.
        0.               0.               0.        ]</t>
         </is>
       </c>
@@ -5171,8 +5169,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.25511963 11.25511963
- 11.25511963]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -5195,7 +5192,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.10730405 0.13       0.12128065 0.11940617 0.12470682 0.10830422]</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -5261,8 +5258,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.25511963 11.25511963
- 11.25511963]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -5285,7 +5281,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.10730405 0.13       0.12128065 0.11940617 0.12470682 0.10830422]</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -5548,8 +5544,9 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077
- 0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.10730405 0.10730405 0.10730405 0.13       0.13       0.13
+ 0.12128065 0.12128065 0.12128065 0.11940617 0.11940617 0.11940617
+ 0.12470682 0.12470682 0.12470682 0.10830422 0.10830422 0.10830422]</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -5713,7 +5710,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[1921445.14539197]</t>
+          <t>[3106395.42644982]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5736,7 +5733,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[4679674.13822839]</t>
+          <t>[7306625.93005354]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5759,7 +5756,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[42.48351085]</t>
+          <t>[43.39158094]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5782,7 +5779,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[4.65443023e+09 4.65443023e+09 6.02240134e+07 0.00000000e+00
+          <t>[7.70469168e+09 7.70469168e+09 1.09653272e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -5806,7 +5803,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[1272399.81726785]</t>
+          <t>[1222783.92244969]</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -5829,7 +5826,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>[3479064.96048575]</t>
+          <t>[3308254.97274794]</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -5876,26 +5873,26 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[[2.26638786e+10 5.91509018e+12 2.26638786e+10 5.91509018e+12
-  1.53437287e+10 1.33935873e+11]
- [2.05889312e+10 4.26732936e+12 2.05889312e+10 4.26732936e+12
-  1.42237287e+10 1.33935873e+11]
- [1.85139838e+10 2.97354386e+12 1.85139838e+10 2.97354386e+12
-  1.31037287e+10 1.33935873e+11]
- [1.64390365e+10 1.98948675e+12 1.64390365e+10 1.98948675e+12
-  1.19837287e+10 1.33935873e+11]
- [1.43640891e+10 1.27091112e+12 1.43640891e+10 1.27091112e+12
-  1.08637287e+10 1.33935873e+11]
- [1.22891417e+10 7.73570061e+11 1.22891417e+10 7.73570061e+11
-  9.74372865e+09 1.33935873e+11]
- [1.02141943e+10 4.53216655e+11 1.02141943e+10 4.53216655e+11
-  8.62372865e+09 1.33935873e+11]
- [8.13924698e+09 2.65603990e+11 8.13924698e+09 2.65603990e+11
-  7.50372865e+09 1.33935873e+11]
- [6.06429961e+09 1.66485152e+11 6.06429961e+09 1.66485152e+11
-  6.38372865e+09 1.33935873e+11]
- [3.98935224e+09 1.11613227e+11 3.98935224e+09 1.11613227e+11
-  5.26372865e+09 1.33935873e+11]]</t>
+          <t>[[2.29187368e+10 5.99424000e+12 2.29187368e+10 5.99424000e+12
+  1.56800000e+10 1.61280000e+11]
+ [2.08437895e+10 4.34021663e+12 2.08437895e+10 4.34021663e+12
+  1.45600000e+10 1.61280000e+11]
+ [1.87688421e+10 3.04016856e+12 1.87688421e+10 3.04016856e+12
+  1.34400000e+10 1.61280000e+11]
+ [1.66938947e+10 2.04984889e+12 1.66938947e+10 2.04984889e+12
+  1.23200000e+10 1.61280000e+11]
+ [1.46189474e+10 1.32501070e+12 1.46189474e+10 1.32501070e+12
+  1.12000000e+10 1.61280000e+11]
+ [1.25440000e+10 8.21407078e+11 1.25440000e+10 8.21407078e+11
+  1.00800000e+10 1.61280000e+11]
+ [1.04690526e+10 4.94791111e+11 1.04690526e+10 4.94791111e+11
+  8.96000000e+09 1.61280000e+11]
+ [8.39410526e+09 3.00915885e+11 8.39410526e+09 3.00915885e+11
+  7.84000000e+09 1.61280000e+11]
+ [6.31915789e+09 1.95534486e+11 6.31915789e+09 1.95534486e+11
+  6.72000000e+09 1.61280000e+11]
+ [4.24421053e+09 1.34400000e+11 4.24421053e+09 1.34400000e+11
+  5.60000000e+09 1.61280000e+11]]</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -5918,9 +5915,9 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[2.89958717 2.89958717 2.89958717 2.89958717 2.89958717 2.89958717
- 2.89958717 2.89958717 2.89958717 2.89853894 2.89644246 2.89434598
- 2.89329775 2.89329775 2.89329775 2.89329775 2.89329775 2.89329775]</t>
+          <t>[4.28973121 4.28973121 4.28973121 5.18713704 5.18713704 5.18713704
+ 4.84278061 4.84278061 4.84278061 4.76868424 4.76868424 4.76868424
+ 4.97815248 4.97815248 4.97815248 4.32935116 4.32935116 4.32935116]</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -5943,9 +5940,9 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>[1.65049817 1.65049817 1.65049817 1.65049817 1.65049817 1.65049817
- 1.65049817 1.65049817 1.65049817 1.64990337 1.64871377 1.64752417
- 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937]</t>
+          <t>[2.44421374 2.44421374 2.44421374 2.95820274 2.95820274 2.95820274
+ 2.76085775 2.76085775 2.76085775 2.71841315 2.71841315 2.71841315
+ 2.83841993 2.83841993 2.83841993 2.46688566 2.46688566 2.46688566]</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -5968,9 +5965,9 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>[1.65049817 1.65049817 1.65049817 1.65049817 1.65049817 1.65049817
- 1.65049817 1.65049817 1.65049817 1.64990337 1.64871377 1.64752417
- 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937]</t>
+          <t>[2.44421374 2.44421374 2.44421374 2.95820274 2.95820274 2.95820274
+ 2.76085775 2.76085775 2.76085775 2.71841315 2.71841315 2.71841315
+ 2.83841993 2.83841993 2.83841993 2.46688566 2.46688566 2.46688566]</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -5993,9 +5990,9 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[45.48731369 45.48731369 45.48731369 45.48731369 45.48731369 45.48731369
- 45.48731369 45.48731369 45.48731369 45.43800033 45.33948055 45.24110328
- 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806]</t>
+          <t>[75.84659337 75.84659337 75.84659337 91.36739888 91.36739888 91.36739888
+ 85.42585225 85.42585225 85.42585225 84.14508307 84.14508307 84.14508307
+ 87.76367068 87.76367068 87.76367068 76.53435548 76.53435548 76.53435548]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -6018,9 +6015,9 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[45.48731369 45.48731369 45.48731369 45.48731369 45.48731369 45.48731369
- 45.48731369 45.48731369 45.48731369 45.43800033 45.33948055 45.24110328
- 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806]</t>
+          <t>[75.84659337 75.84659337 75.84659337 91.36739888 91.36739888 91.36739888
+ 85.42585225 85.42585225 85.42585225 84.14508307 84.14508307 84.14508307
+ 87.76367068 87.76367068 87.76367068 76.53435548 76.53435548 76.53435548]</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -6043,9 +6040,10 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[90.97462738 90.97462738 90.97462738 90.97462738 90.97462738 90.97462738
- 90.97462738 90.97462738 90.97462738 90.87600065 90.67896109 90.48220656
- 90.38393611 90.38393611 90.38393611 90.38393612 90.38393612 90.38393612]</t>
+          <t>[151.69318674 151.69318674 151.69318674 182.73479777 182.73479777
+ 182.73479777 170.8517045  170.8517045  170.8517045  168.29016614
+ 168.29016614 168.29016614 175.52734136 175.52734136 175.52734136
+ 153.06871096 153.06871096 153.06871096]</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -6240,8 +6238,8 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>[2.21053174 2.21053174 2.21053174 1.18113161 1.18113161 1.18113161
- 0.43764062 0.4214574  0.40527417 0.35833065 0.30681399 0.25529734]</t>
+          <t>[1.33922325 1.33922325 1.33922325 1.33922325 1.33922325 1.33922325
+ 0.91266094 0.89423983 0.87581871 0.44472614 0.38752713 0.33032812]</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -6264,8 +6262,8 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>[1.25734279 1.25734279 1.25734279 0.67108252 0.67108252 0.67108252
- 0.24846446 0.23928098 0.23009749 0.20345091 0.17421682 0.14498276]</t>
+          <t>[0.76132308 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308
+ 0.5185449  0.50809159 0.4976383  0.25255761 0.22009905 0.18764054]</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -6288,8 +6286,8 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[1.25734279 1.25734279 1.25734279 0.67108252 0.67108252 0.67108252
- 0.24846446 0.23928098 0.23009749 0.20345091 0.17421682 0.14498276]</t>
+          <t>[0.76132308 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308
+ 0.5185449  0.50809159 0.4976383  0.25255761 0.22009905 0.18764054]</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -6312,8 +6310,8 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[34.63972697 34.63972697 34.63972697 18.5991286  18.5991286  18.5991286
-  6.66660791  5.95405874  5.29418239  3.9134019   2.45656527  1.415279  ]</t>
+          <t>[16.60690398 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398
+ 11.1201102  10.4602692   9.82706085  4.32453491  2.86133146  1.77214435]</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -6336,8 +6334,8 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[34.63972697 34.63972697 34.63972697 18.5991286  18.5991286  18.5991286
-  6.66660791  5.95405874  5.29418239  3.9134019   2.45656527  1.415279  ]</t>
+          <t>[16.60690398 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398
+ 11.1201102  10.4602692   9.82706085  4.32453491  2.86133146  1.77214435]</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -6360,8 +6358,8 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[69.27945394 69.27945394 69.27945394 37.1982572  37.1982572  37.1982572
- 13.33321581 11.90811748 10.58836479  7.82680381  4.91313053  2.83055801]</t>
+          <t>[33.21380796 33.21380796 33.21380796 33.21380796 33.21380796 33.21380796
+ 22.24022039 20.9205384  19.6541217   8.64906983  5.72266293  3.54428869]</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -6455,8 +6453,8 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963 10.84690757 10.43869552 10.03048346  8.68665564  7.34282782
+          <t>[10.         10.         10.         10.         10.         10.
+ 10.          9.80072649  9.60145298  9.40217948  8.26778632  7.13339316
   5.999     ]</t>
         </is>
       </c>
@@ -6480,8 +6478,8 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[0.05873341 0.05873341 0.05873341 0.03130576 0.03130576 0.03130576
- 0.01179358 0.01179358 0.01179358 0.01140435 0.01140435 0.01140435]</t>
+          <t>[0.04   0.04   0.04   0.04   0.04   0.04   0.0275 0.0275 0.0275 0.015
+ 0.015  0.015 ]</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -6586,9 +6584,9 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>[[  2427925.55809669]
- [    29094.73368413]
- [-19627787.44576477]]</t>
+          <t>[[  2427925.55809688]
+ [    29094.73368412]
+ [-19134362.15263613]]</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -6611,8 +6609,8 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[[-4.66582509e+06]
- [ 3.52291370e+08]
+          <t>[[-4.70669516e+06]
+ [ 3.55415151e+08]
  [ 1.29946107e+06]]</t>
         </is>
       </c>
@@ -6636,7 +6634,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>[1583471.47229551 1583471.47229551 3166942.94459102       0.
+          <t>[1799999.99999952 1799999.99999952 3599999.99999904       0.
        0.               0.        ]</t>
         </is>
       </c>
@@ -6729,7 +6727,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>[2239474.70739141]</t>
+          <t>[2189858.81257325]</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -6752,7 +6750,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>[-2.85646681e+00 -4.21979895e-02  9.93869778e+01]</t>
+          <t>[-2.92118612e+00 -4.31540744e-02  1.07926329e+02]</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -6775,7 +6773,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>[3.06425330e+10 3.05050459e+10 2.96004138e+08 7.86163621e+02
+          <t>[3.23478376e+10 3.22103506e+10 2.86562094e+08 7.86163621e+02
  1.35359722e+07 1.70976373e+05]</t>
         </is>
       </c>
@@ -6884,16 +6882,16 @@
           <t>[[      0.        ]
  [      0.        ]
  [      0.        ]
- [ -32553.58509118]
- [ -33495.35980444]
- [ -36380.37048799]
- [ -41394.03792705]
- [ -48861.90035993]
- [ -59276.69160767]
- [ -73360.44041837]
- [ -85175.84772957]
- [ -99487.4353026 ]
- [-116885.41960682]
+ [ -36803.2377582 ]
+ [ -37864.58420966]
+ [ -41115.75313184]
+ [ -46764.63106935]
+ [ -55173.39670577]
+ [ -66895.10137592]
+ [ -82741.68351929]
+ [ -96169.34371611]
+ [-112453.90228731]
+ [-132280.93189279]
  [      0.        ]
  [      0.        ]
  [      0.        ]
@@ -6992,18 +6990,18 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[[-379.21578592]
- [-436.16264199]
- [-475.80589094]
- [-506.90660373]
- [-542.75370127]
- [-572.24288468]
- [-597.50857279]
- [-589.7700024 ]
- [-580.21343345]
- [-569.03550177]
- [-503.24014145]
- [-431.88297775]
+          <t>[[-336.9560439 ]
+ [-388.43785582]
+ [-424.16473764]
+ [-452.12457083]
+ [-484.27449749]
+ [-510.65946695]
+ [-533.22010636]
+ [-534.90944214]
+ [-535.3275796 ]
+ [-534.6296143 ]
+ [-479.32439573]
+ [-419.08646016]
  [-352.18249915]]</t>
         </is>
       </c>
@@ -7027,24 +7025,24 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[[-39855020.94656906]
- [-37637144.99505053]
- [-35258128.79935043]
- [-33985719.69024177]
- [-32703839.27856821]
- [-31402409.65475739]
- [-30070088.24229298]
- [-28693507.25731546]
- [-27256292.40983041]
- [-26255682.81373028]
- [-25212498.22814129]
- [-24117527.3354468 ]
- [-23186977.96027748]
- [-22449289.52841575]
- [-21711601.09655401]
- [-21342756.88062274]
- [-20973912.66469223]
- [-20605068.44876166]]</t>
+          <t>[[-50259018.61441711]
+ [-46977830.26419896]
+ [-43514465.89150829]
+ [-41345858.80025245]
+ [-39166578.23323569]
+ [-36965270.05105241]
+ [-34860867.26024969]
+ [-32706641.56121019]
+ [-30484184.36870564]
+ [-28973135.59130349]
+ [-27413061.65367224]
+ [-25793403.58721435]
+ [-24305887.63391743]
+ [-23036635.22434129]
+ [-21767382.8147653 ]
+ [-21215467.25533009]
+ [-20663551.69589502]
+ [-20111636.13645869]]</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -7067,24 +7065,24 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[[ -4014598.57567754]
- [ -9895873.96064119]
- [-10051319.54636409]
- [  2428397.02583291]
- [  2428560.84965742]
- [  2428728.50927815]
- [  2428904.34150816]
- [  2429093.65198574]
- [  2429303.27997094]
- [  2428977.10584345]
- [  2429094.77601835]
- [  2429227.616581  ]
- [  2429184.44206578]
- [  2428907.05434771]
- [  2428955.14290369]
- [  2428458.02971091]
- [  2428469.62806286]
- [  2428481.0851503 ]]</t>
+          <t>[[-4960965.24751493]
+ [-9948375.60473385]
+ [-8416483.49774286]
+ [ 2428452.11393152]
+ [ 2428590.42565697]
+ [ 2428730.32199327]
+ [ 2428823.38636952]
+ [ 2428975.68812739]
+ [ 2429139.71888602]
+ [ 2428825.55043598]
+ [ 2428913.78093093]
+ [ 2429011.31009446]
+ [ 2429032.62030743]
+ [ 2428868.96072763]
+ [ 2428911.63731962]
+ [ 2428369.1052766 ]
+ [ 2428379.37528822]
+ [ 2428389.52189506]]</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -7107,24 +7105,24 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[[ -51942.20567073]
- [-128267.38703009]
- [-131200.2827687 ]
- [  29100.81582132]
- [  29102.93998277]
- [  29105.11790474]
- [  29107.40608251]
- [  29109.87381373]
- [  29112.61061106]
- [  29108.39085162]
- [  29109.93051858]
- [  29111.66998019]
- [  29111.12102829]
- [  29107.52016893]
- [  29108.15728907]
- [  29101.6801542 ]
- [  29101.83434428]
- [  29101.98683764]]</t>
+          <t>[[ -64209.29717355]
+ [-129053.96150876]
+ [-110169.67755855]
+ [  29101.52654588]
+ [  29103.32014411]
+ [  29105.13770727]
+ [  29106.35251625]
+ [  29108.33841803]
+ [  29110.48078282]
+ [  29106.41680911]
+ [  29107.57185877]
+ [  29108.8496345 ]
+ [  29109.13794055]
+ [  29107.01773127]
+ [  29107.58321465]
+ [  29100.5165485 ]
+ [  29100.65309398]
+ [  29100.78815872]]</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -7147,24 +7145,24 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[[ -612235.79703572]
- [-2696772.73750006]
- [-5214063.16713036]
- [-5923409.27883216]
- [-5775758.85011999]
- [-5627671.35202831]
- [-5479202.14953898]
- [-5330407.20922177]
- [-5181343.95965368]
- [-5081871.30361532]
- [-4982327.30652493]
- [-4882730.97474724]
- [-4783103.42937343]
- [-4683441.55655093]
- [-4583735.73223653]
- [-4533881.36866549]
- [-4484020.57318124]
- [-4434154.54202114]]</t>
+          <t>[[ -949260.92967828]
+ [-3193448.69508434]
+ [-5355230.25343184]
+ [-5922462.29354208]
+ [-5775359.04489594]
+ [-5628032.18873845]
+ [-5480513.37062002]
+ [-5332831.39225603]
+ [-5185030.64327387]
+ [-5086471.83785245]
+ [-4987894.34229581]
+ [-4889312.45738756]
+ [-4790743.99109842]
+ [-4692193.26089436]
+ [-4593656.03904807]
+ [-4544404.43181448]
+ [-4495154.74106082]
+ [-4445907.92572987]]</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -7187,24 +7185,24 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[[4.74707605e+07]
- [2.08786696e+08]
- [4.02763498e+08]
- [4.56794564e+08]
- [4.44486422e+08]
- [4.32144682e+08]
- [4.19773686e+08]
- [4.07377815e+08]
- [3.94961549e+08]
- [3.86676728e+08]
- [3.78386561e+08]
- [3.70092521e+08]
- [3.61796238e+08]
- [3.53497479e+08]
- [3.45195511e+08]
- [3.41044480e+08]
- [3.36892997e+08]
- [3.32741156e+08]]</t>
+          <t>[[7.36152918e+07]
+ [2.47242454e+08]
+ [4.13626027e+08]
+ [4.56667511e+08]
+ [4.44401702e+08]
+ [4.32118727e+08]
+ [4.19821064e+08]
+ [4.07510979e+08]
+ [3.95191925e+08]
+ [3.86977407e+08]
+ [3.78761543e+08]
+ [3.70545434e+08]
+ [3.62330452e+08]
+ [3.54116925e+08]
+ [3.45904525e+08]
+ [3.41799661e+08]
+ [3.37694970e+08]
+ [3.33590525e+08]]</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -7227,24 +7225,24 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[[ 214113.64196416]
- [ 467981.01939775]
- [ 808740.09856534]
- [1299660.36120058]
- [1299653.16817708]
- [1299645.92169211]
- [1299638.56477789]
- [1299631.03332026]
- [1299623.25176012]
- [1299615.18326744]
- [1299609.63255466]
- [1299603.83273854]
- [1299597.6815942 ]
- [1299592.41019491]
- [1299588.23134949]
- [1299584.05253094]
- [1299581.96313175]
- [1299579.87373928]]</t>
+          <t>[[ 238417.20387204]
+ [ 508799.83417732]
+ [ 847402.97550448]
+ [1299598.5545965 ]
+ [1299591.70235262]
+ [1299584.81645607]
+ [1299586.16624245]
+ [1299579.04418661]
+ [1299571.75359298]
+ [1299565.83518042]
+ [1299560.64194199]
+ [1299555.2802553 ]
+ [1299545.98384716]
+ [1299541.08675091]
+ [1299536.90823585]
+ [1299543.46886301]
+ [1299541.37959438]
+ [1299539.29033246]]</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -7296,11 +7294,11 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.27941854 11.27941854
- 11.27941854 11.27941854 11.27941854 11.27941854 11.2713189  11.26321926
- 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963 10.84690757 10.43869552 10.03048346  8.68665564  7.34282782
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 10.         10.         10.         10.         10.         10.
+ 10.          9.80072649  9.60145298  9.40217948  8.26778632  7.13339316
   5.999     ]</t>
         </is>
       </c>
@@ -7324,11 +7322,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>[0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.05873341 0.05873341 0.05873341 0.03130576 0.03130576 0.03130576
- 0.01179358 0.01179358 0.01179358 0.01140435 0.01140435 0.01140435]</t>
+          <t>[0.10730405 0.10730405 0.10730405 0.13       0.13       0.13
+ 0.12128065 0.12128065 0.12128065 0.11940617 0.11940617 0.11940617
+ 0.12470682 0.12470682 0.12470682 0.10830422 0.10830422 0.10830422
+ 0.04       0.04       0.04       0.04       0.04       0.04
+ 0.0275     0.0275     0.0275     0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -7476,11 +7474,11 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>[2.89958717 2.89958717 2.89958717 2.89958717 2.89958717 2.89958717
- 2.89958717 2.89958717 2.89958717 2.89853894 2.89644246 2.89434598
- 2.89329775 2.89329775 2.89329775 2.89329775 2.89329775 2.89329775
- 2.21053174 2.21053174 2.21053174 1.18113161 1.18113161 1.18113161
- 0.43764062 0.4214574  0.40527417 0.35833065 0.30681399 0.25529734]</t>
+          <t>[4.28973121 4.28973121 4.28973121 5.18713704 5.18713704 5.18713704
+ 4.84278061 4.84278061 4.84278061 4.76868424 4.76868424 4.76868424
+ 4.97815248 4.97815248 4.97815248 4.32935116 4.32935116 4.32935116
+ 1.33922325 1.33922325 1.33922325 1.33922325 1.33922325 1.33922325
+ 0.91266094 0.89423983 0.87581871 0.44472614 0.38752713 0.33032812]</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -7503,11 +7501,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>[1.65049817 1.65049817 1.65049817 1.65049817 1.65049817 1.65049817
- 1.65049817 1.65049817 1.65049817 1.64990337 1.64871377 1.64752417
- 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937
- 1.25734279 1.25734279 1.25734279 0.67108252 0.67108252 0.67108252
- 0.24846446 0.23928098 0.23009749 0.20345091 0.17421682 0.14498276]</t>
+          <t>[2.44421374 2.44421374 2.44421374 2.95820274 2.95820274 2.95820274
+ 2.76085775 2.76085775 2.76085775 2.71841315 2.71841315 2.71841315
+ 2.83841993 2.83841993 2.83841993 2.46688566 2.46688566 2.46688566
+ 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308
+ 0.5185449  0.50809159 0.4976383  0.25255761 0.22009905 0.18764054]</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -7530,11 +7528,11 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>[1.65049817 1.65049817 1.65049817 1.65049817 1.65049817 1.65049817
- 1.65049817 1.65049817 1.65049817 1.64990337 1.64871377 1.64752417
- 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937
- 1.25734279 1.25734279 1.25734279 0.67108252 0.67108252 0.67108252
- 0.24846446 0.23928098 0.23009749 0.20345091 0.17421682 0.14498276]</t>
+          <t>[2.44421374 2.44421374 2.44421374 2.95820274 2.95820274 2.95820274
+ 2.76085775 2.76085775 2.76085775 2.71841315 2.71841315 2.71841315
+ 2.83841993 2.83841993 2.83841993 2.46688566 2.46688566 2.46688566
+ 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308
+ 0.5185449  0.50809159 0.4976383  0.25255761 0.22009905 0.18764054]</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -7557,11 +7555,11 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>[45.48731369 45.48731369 45.48731369 45.48731369 45.48731369 45.48731369
- 45.48731369 45.48731369 45.48731369 45.43800033 45.33948055 45.24110328
- 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806
- 34.63972697 34.63972697 34.63972697 18.5991286  18.5991286  18.5991286
-  6.66660791  5.95405874  5.29418239  3.9134019   2.45656527  1.415279  ]</t>
+          <t>[75.84659337 75.84659337 75.84659337 91.36739888 91.36739888 91.36739888
+ 85.42585225 85.42585225 85.42585225 84.14508307 84.14508307 84.14508307
+ 87.76367068 87.76367068 87.76367068 76.53435548 76.53435548 76.53435548
+ 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398
+ 11.1201102  10.4602692   9.82706085  4.32453491  2.86133146  1.77214435]</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -7584,11 +7582,11 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>[45.48731369 45.48731369 45.48731369 45.48731369 45.48731369 45.48731369
- 45.48731369 45.48731369 45.48731369 45.43800033 45.33948055 45.24110328
- 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806
- 34.63972697 34.63972697 34.63972697 18.5991286  18.5991286  18.5991286
-  6.66660791  5.95405874  5.29418239  3.9134019   2.45656527  1.415279  ]</t>
+          <t>[75.84659337 75.84659337 75.84659337 91.36739888 91.36739888 91.36739888
+ 85.42585225 85.42585225 85.42585225 84.14508307 84.14508307 84.14508307
+ 87.76367068 87.76367068 87.76367068 76.53435548 76.53435548 76.53435548
+ 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398
+ 11.1201102  10.4602692   9.82706085  4.32453491  2.86133146  1.77214435]</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -7611,11 +7609,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>[90.97462738 90.97462738 90.97462738 90.97462738 90.97462738 90.97462738
- 90.97462738 90.97462738 90.97462738 90.87600065 90.67896109 90.48220656
- 90.38393611 90.38393611 90.38393611 90.38393612 90.38393612 90.38393612
- 69.27945394 69.27945394 69.27945394 37.1982572  37.1982572  37.1982572
- 13.33321581 11.90811748 10.58836479  7.82680381  4.91313053  2.83055801]</t>
+          <t>[151.69318674 151.69318674 151.69318674 182.73479777 182.73479777
+ 182.73479777 170.8517045  170.8517045  170.8517045  168.29016614
+ 168.29016614 168.29016614 175.52734136 175.52734136 175.52734136
+ 153.06871096 153.06871096 153.06871096  33.21380796  33.21380796
+  33.21380796  33.21380796  33.21380796  33.21380796  22.24022039
+  20.9205384   19.6541217    8.64906983   5.72266293   3.54428869]</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -7638,36 +7637,36 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>[[-3.98550209e+07]
- [-3.76371450e+07]
- [-3.52581288e+07]
- [-3.39857197e+07]
- [-3.27038393e+07]
- [-3.14024097e+07]
- [-3.00700882e+07]
- [-2.86935073e+07]
- [-2.72562924e+07]
- [-2.62556828e+07]
- [-2.52124982e+07]
- [-2.41175273e+07]
- [-2.31869780e+07]
- [-2.24492895e+07]
- [-2.17116011e+07]
- [-2.13427569e+07]
- [-2.09739127e+07]
- [-2.06050684e+07]
- [-1.75811230e+07]
- [-1.55352044e+07]
- [-1.34887086e+07]
- [-1.19223597e+07]
- [-1.03554392e+07]
- [-8.78796111e+06]
- [-8.43561060e+06]
- [-8.09597810e+06]
- [-7.76924196e+06]
- [-7.49906280e+06]
- [-7.26730501e+06]
- [ 1.05792424e-08]]</t>
+          <t>[[-5.02590186e+07]
+ [-4.69778303e+07]
+ [-4.35144659e+07]
+ [-4.13458588e+07]
+ [-3.91665782e+07]
+ [-3.69652701e+07]
+ [-3.48608673e+07]
+ [-3.27066416e+07]
+ [-3.04841844e+07]
+ [-2.89731356e+07]
+ [-2.74130617e+07]
+ [-2.57934036e+07]
+ [-2.43058876e+07]
+ [-2.30366352e+07]
+ [-2.17673828e+07]
+ [-2.12154673e+07]
+ [-2.06635517e+07]
+ [-2.01116361e+07]
+ [-1.78924469e+07]
+ [-1.66515697e+07]
+ [-1.54101713e+07]
+ [-1.36362015e+07]
+ [-1.18617185e+07]
+ [-1.00867359e+07]
+ [-9.35908742e+06]
+ [-8.64589365e+06]
+ [-7.94726799e+06]
+ [-7.61365074e+06]
+ [-7.32255195e+06]
+ [ 3.76894604e-09]]</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -7690,36 +7689,36 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>[[-4.01459858e+06]
- [-9.89587396e+06]
- [-1.00513195e+07]
- [ 2.42839703e+06]
- [ 2.42856085e+06]
- [ 2.42872851e+06]
- [ 2.42890434e+06]
- [ 2.42909365e+06]
- [ 2.42930328e+06]
- [ 2.42897711e+06]
- [ 2.42909478e+06]
- [ 2.42922762e+06]
- [ 2.42918444e+06]
- [ 2.42890705e+06]
- [ 2.42895514e+06]
- [ 2.42845803e+06]
- [ 2.42846963e+06]
- [ 2.42848109e+06]
- [ 2.43132675e+06]
- [ 2.43187165e+06]
- [ 2.43235872e+06]
- [ 2.43192263e+06]
- [ 2.43264816e+06]
- [ 2.43321759e+06]
- [ 2.42925270e+06]
- [ 2.42932723e+06]
- [ 2.42936693e+06]
- [ 2.42917216e+06]
- [ 2.42901635e+06]
- [ 8.86816849e+02]]</t>
+          <t>[[-4.96096525e+06]
+ [-9.94837560e+06]
+ [-8.41648350e+06]
+ [ 2.42845211e+06]
+ [ 2.42859043e+06]
+ [ 2.42873032e+06]
+ [ 2.42882339e+06]
+ [ 2.42897569e+06]
+ [ 2.42913972e+06]
+ [ 2.42882555e+06]
+ [ 2.42891378e+06]
+ [ 2.42901131e+06]
+ [ 2.42903262e+06]
+ [ 2.42886896e+06]
+ [ 2.42891164e+06]
+ [ 2.42836911e+06]
+ [ 2.42837938e+06]
+ [ 2.42838952e+06]
+ [ 2.42935929e+06]
+ [ 2.43004771e+06]
+ [ 2.43066620e+06]
+ [ 2.43277916e+06]
+ [ 2.43370281e+06]
+ [ 2.43442701e+06]
+ [ 2.43080702e+06]
+ [ 2.43089962e+06]
+ [ 2.43094860e+06]
+ [ 2.42942472e+06]
+ [ 2.42925697e+06]
+ [ 1.11305881e+03]]</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -7742,36 +7741,36 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>[[-5.19422057e+04]
- [-1.28267387e+05]
- [-1.31200283e+05]
- [ 2.91008158e+04]
- [ 2.91029400e+04]
- [ 2.91051179e+04]
- [ 2.91074061e+04]
- [ 2.91098738e+04]
- [ 2.91126106e+04]
- [ 2.91083909e+04]
- [ 2.91099305e+04]
- [ 2.91116700e+04]
- [ 2.91111210e+04]
- [ 2.91075202e+04]
- [ 2.91081573e+04]
- [ 2.91016802e+04]
- [ 2.91018343e+04]
- [ 2.91019868e+04]
- [ 2.91392320e+04]
- [ 2.91465625e+04]
- [ 2.91531940e+04]
- [ 2.91478254e+04]
- [ 2.91581287e+04]
- [ 2.91665562e+04]
- [ 2.91130068e+04]
- [ 2.91144262e+04]
- [ 2.91154500e+04]
- [ 2.91131691e+04]
- [ 2.91116081e+04]
- [ 1.42027805e+01]]</t>
+          <t>[[-6.42092972e+04]
+ [-1.29053962e+05]
+ [-1.10169678e+05]
+ [ 2.91015265e+04]
+ [ 2.91033201e+04]
+ [ 2.91051377e+04]
+ [ 2.91063525e+04]
+ [ 2.91083384e+04]
+ [ 2.91104808e+04]
+ [ 2.91064168e+04]
+ [ 2.91075719e+04]
+ [ 2.91088496e+04]
+ [ 2.91091379e+04]
+ [ 2.91070177e+04]
+ [ 2.91075832e+04]
+ [ 2.91005165e+04]
+ [ 2.91006531e+04]
+ [ 2.91007882e+04]
+ [ 2.91135437e+04]
+ [ 2.91228069e+04]
+ [ 2.91312279e+04]
+ [ 2.91598593e+04]
+ [ 2.91729732e+04]
+ [ 2.91836874e+04]
+ [ 2.91345773e+04]
+ [ 2.91363299e+04]
+ [ 2.91375720e+04]
+ [ 2.91164515e+04]
+ [ 2.91148464e+04]
+ [ 1.73350512e+01]]</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -7794,36 +7793,36 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>[[-6.12235797e+05]
- [-2.69677274e+06]
- [-5.21406317e+06]
- [-5.92340928e+06]
- [-5.77575885e+06]
- [-5.62767135e+06]
- [-5.47920215e+06]
- [-5.33040721e+06]
- [-5.18134396e+06]
- [-5.08187130e+06]
- [-4.98232731e+06]
- [-4.88273097e+06]
- [-4.78310343e+06]
- [-4.68344156e+06]
- [-4.58373573e+06]
- [-4.53388137e+06]
- [-4.48402057e+06]
- [-4.43415454e+06]
- [-4.07262886e+06]
- [-3.71066350e+06]
- [-3.34873691e+06]
- [-2.83124880e+06]
- [-2.31288025e+06]
- [-1.79478303e+06]
- [-1.48430511e+06]
- [-1.17314706e+06]
- [-8.61488471e+05]
- [-5.70282815e+05]
- [-2.78775547e+05]
- [-3.46047967e-04]]</t>
+          <t>[[-9.49260930e+05]
+ [-3.19344870e+06]
+ [-5.35523025e+06]
+ [-5.92246229e+06]
+ [-5.77535904e+06]
+ [-5.62803219e+06]
+ [-5.48051337e+06]
+ [-5.33283139e+06]
+ [-5.18503064e+06]
+ [-5.08647184e+06]
+ [-4.98789434e+06]
+ [-4.88931246e+06]
+ [-4.79074399e+06]
+ [-4.69219326e+06]
+ [-4.59365604e+06]
+ [-4.54440443e+06]
+ [-4.49515474e+06]
+ [-4.44590793e+06]
+ [-4.08768821e+06]
+ [-3.72670294e+06]
+ [-3.36367238e+06]
+ [-2.84244499e+06]
+ [-2.31997667e+06]
+ [-1.79774225e+06]
+ [-1.48526330e+06]
+ [-1.17292935e+06]
+ [-8.60920492e+05]
+ [-5.69960272e+05]
+ [-2.78836140e+05]
+ [-4.33297010e-04]]</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -7846,36 +7845,36 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>[[ 4.74707605e+07]
- [ 2.08786696e+08]
- [ 4.02763498e+08]
- [ 4.56794564e+08]
- [ 4.44486422e+08]
- [ 4.32144682e+08]
- [ 4.19773686e+08]
- [ 4.07377815e+08]
- [ 3.94961549e+08]
- [ 3.86676728e+08]
- [ 3.78386561e+08]
- [ 3.70092521e+08]
- [ 3.61796238e+08]
- [ 3.53497479e+08]
- [ 3.45195511e+08]
- [ 3.41044480e+08]
- [ 3.36892997e+08]
- [ 3.32741156e+08]
- [ 3.02644545e+08]
- [ 2.72517534e+08]
- [ 2.42396743e+08]
- [ 1.99341481e+08]
- [ 1.56233125e+08]
- [ 1.13158280e+08]
- [ 8.73514143e+07]
- [ 6.15097695e+07]
- [ 3.56495000e+07]
- [ 1.15107156e+07]
- [-1.26170811e+07]
- [ 2.16073774e-02]]</t>
+          <t>[[ 7.36152918e+07]
+ [ 2.47242454e+08]
+ [ 4.13626027e+08]
+ [ 4.56667511e+08]
+ [ 4.44401702e+08]
+ [ 4.32118727e+08]
+ [ 4.19821064e+08]
+ [ 4.07510979e+08]
+ [ 3.95191925e+08]
+ [ 3.86977407e+08]
+ [ 3.78761543e+08]
+ [ 3.70545434e+08]
+ [ 3.62330452e+08]
+ [ 3.54116925e+08]
+ [ 3.45904525e+08]
+ [ 3.41799661e+08]
+ [ 3.37694970e+08]
+ [ 3.33590525e+08]
+ [ 3.03748095e+08]
+ [ 2.73701021e+08]
+ [ 2.43505190e+08]
+ [ 2.00183227e+08]
+ [ 1.56783031e+08]
+ [ 1.13415531e+08]
+ [ 8.74668789e+07]
+ [ 6.15379128e+07]
+ [ 3.56423872e+07]
+ [ 1.15061232e+07]
+ [-1.26127096e+07]
+ [ 2.78200863e-02]]</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -7898,35 +7897,35 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>[[ 214113.64196416]
- [ 467981.01939775]
- [ 808740.09856534]
- [1299660.36120058]
- [1299653.16817708]
- [1299645.92169211]
- [1299638.56477789]
- [1299631.03332026]
- [1299623.25176012]
- [1299615.18326744]
- [1299609.63255466]
- [1299603.83273854]
- [1299597.6815942 ]
- [1299592.41019491]
- [1299588.23134949]
- [1299584.05253094]
- [1299581.96313175]
- [1299579.87373928]
- [1299606.5658397 ]
- [1299591.41557219]
- [1299576.2463347 ]
- [1299648.23886967]
- [1299626.50194212]
- [1299604.75781143]
- [1299790.20619339]
- [1299789.14082146]
- [1299788.50489929]
- [1299816.46245798]
- [1299861.71519039]
+          <t>[[ 238417.20387204]
+ [ 508799.83417732]
+ [ 847402.97550448]
+ [1299598.5545965 ]
+ [1299591.70235262]
+ [1299584.81645607]
+ [1299586.16624245]
+ [1299579.04418661]
+ [1299571.75359298]
+ [1299565.83518042]
+ [1299560.64194199]
+ [1299555.2802553 ]
+ [1299545.98384716]
+ [1299541.08675091]
+ [1299536.90823585]
+ [1299543.46886301]
+ [1299541.37959438]
+ [1299539.29033246]
+ [1299695.20168161]
+ [1299680.041506  ]
+ [1299664.8532751 ]
+ [1299649.6590212 ]
+ [1299627.94690683]
+ [1299606.22923817]
+ [1299642.20442009]
+ [1299632.59861211]
+ [1299622.85940465]
+ [1299753.96963218]
+ [1299783.0980388 ]
  [      0.        ]]</t>
         </is>
       </c>
@@ -8072,7 +8071,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>[11.27941854]</t>
+          <t>[12.]</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -8624,7 +8623,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>[3479064.96048575]</t>
+          <t>[3308254.97274794]</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -8647,7 +8646,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>[1272399.81726785]</t>
+          <t>[1222783.92244969]</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -8670,7 +8669,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>[4424064.96048575]</t>
+          <t>[4253254.97274794]</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -8693,7 +8692,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>[294.93766403]</t>
+          <t>[283.55033152]</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -8716,7 +8715,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>[1272399.81726785]</t>
+          <t>[1222783.92244969]</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -8785,7 +8784,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>[3479064.96048575]</t>
+          <t>[3308254.97274794]</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
@@ -8808,7 +8807,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[3479064.96048575]</t>
+          <t>[3308254.97274794]</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -8831,9 +8830,9 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>[379.21578592 436.16264199 475.80589094 506.90660373 542.75370127
- 572.24288468 597.50857279 589.7700024  580.21343345 569.03550177
- 503.24014145 431.88297775 352.18249915]</t>
+          <t>[336.9560439  388.43785582 424.16473764 452.12457083 484.27449749
+ 510.65946695 533.22010636 534.90944214 535.3275796  534.6296143
+ 479.32439573 419.08646016 352.18249915]</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -9048,8 +9047,8 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963 10.84690757 10.43869552 10.03048346  8.68665564  7.34282782
+          <t>[10.         10.         10.         10.         10.         10.
+ 10.          9.80072649  9.60145298  9.40217948  8.26778632  7.13339316
   5.999     ]</t>
         </is>
       </c>
@@ -9144,9 +9143,9 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>[379.21578592 436.16264199 475.80589094 506.90660373 542.75370127
- 572.24288468 597.50857279 589.7700024  580.21343345 569.03550177
- 503.24014145 431.88297775 352.18249915]</t>
+          <t>[336.9560439  388.43785582 424.16473764 452.12457083 484.27449749
+ 510.65946695 533.22010636 534.90944214 535.3275796  534.6296143
+ 479.32439573 419.08646016 352.18249915]</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -9286,9 +9285,9 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>[-379.21578592 -436.16264199 -475.80589094 -506.90660373 -542.75370127
- -572.24288468 -597.50857279 -589.7700024  -580.21343345 -569.03550177
- -503.24014145 -431.88297775 -352.18249915]</t>
+          <t>[-336.9560439  -388.43785582 -424.16473764 -452.12457083 -484.27449749
+ -510.65946695 -533.22010636 -534.90944214 -535.3275796  -534.6296143
+ -479.32439573 -419.08646016 -352.18249915]</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -9336,7 +9335,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 10.03048346  5.999     ]</t>
+          <t>[10.         10.         10.          9.40217948  5.999     ]</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -9359,7 +9358,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>[0.05873341 0.03130576 0.01179358 0.01140435]</t>
+          <t>[0.04   0.04   0.0275 0.015 ]</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
@@ -9424,7 +9423,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 10.03048346  5.999     ]</t>
+          <t>[10.         10.         10.          9.40217948  5.999     ]</t>
         </is>
       </c>
       <c r="E364" t="inlineStr"/>
@@ -9447,7 +9446,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[0.05873341 0.03130576 0.01179358 0.01140435]</t>
+          <t>[0.04   0.04   0.0275 0.015 ]</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -9683,8 +9682,8 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>[0.05873341 0.05873341 0.05873341 0.03130576 0.03130576 0.03130576
- 0.01179358 0.01179358 0.01179358 0.01140435 0.01140435 0.01140435]</t>
+          <t>[0.04   0.04   0.04   0.04   0.04   0.04   0.0275 0.0275 0.0275 0.015
+ 0.015  0.015 ]</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -9867,8 +9866,8 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>[2.21053174 2.21053174 2.21053174 1.18113161 1.18113161 1.18113161
- 0.43764062 0.4214574  0.40527417 0.35833065 0.30681399 0.25529734]</t>
+          <t>[1.33922325 1.33922325 1.33922325 1.33922325 1.33922325 1.33922325
+ 0.91266094 0.89423983 0.87581871 0.44472614 0.38752713 0.33032812]</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -9891,8 +9890,8 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[1.25734279 1.25734279 1.25734279 0.67108252 0.67108252 0.67108252
- 0.24846446 0.23928098 0.23009749 0.20345091 0.17421682 0.14498276]</t>
+          <t>[0.76132308 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308
+ 0.5185449  0.50809159 0.4976383  0.25255761 0.22009905 0.18764054]</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -9915,8 +9914,8 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[1.25734279 1.25734279 1.25734279 0.67108252 0.67108252 0.67108252
- 0.24846446 0.23928098 0.23009749 0.20345091 0.17421682 0.14498276]</t>
+          <t>[0.76132308 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308
+ 0.5185449  0.50809159 0.4976383  0.25255761 0.22009905 0.18764054]</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -9939,8 +9938,8 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>[34.63972697 34.63972697 34.63972697 18.5991286  18.5991286  18.5991286
-  6.66660791  5.95405874  5.29418239  3.9134019   2.45656527  1.415279  ]</t>
+          <t>[16.60690398 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398
+ 11.1201102  10.4602692   9.82706085  4.32453491  2.86133146  1.77214435]</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -9963,8 +9962,8 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[34.63972697 34.63972697 34.63972697 18.5991286  18.5991286  18.5991286
-  6.66660791  5.95405874  5.29418239  3.9134019   2.45656527  1.415279  ]</t>
+          <t>[16.60690398 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398
+ 11.1201102  10.4602692   9.82706085  4.32453491  2.86133146  1.77214435]</t>
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
@@ -9987,8 +9986,8 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[69.27945394 69.27945394 69.27945394 37.1982572  37.1982572  37.1982572
- 13.33321581 11.90811748 10.58836479  7.82680381  4.91313053  2.83055801]</t>
+          <t>[33.21380796 33.21380796 33.21380796 33.21380796 33.21380796 33.21380796
+ 22.24022039 20.9205384  19.6541217   8.64906983  5.72266293  3.54428869]</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -10082,18 +10081,18 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>[[-17581868.81866707]
- [-15535373.03609618]
- [-13488454.53626316]
- [-11921534.11336181]
- [-10354055.9707657 ]
- [ -8786110.43206897]
- [ -8433670.15210593]
- [ -8094126.23481462]
- [ -7767496.2947648 ]
- [ -7497685.08182917]
- [ -7266582.91499614]
- [ -7074256.27587359]]</t>
+          <t>[[-17893484.9036034 ]
+ [-16652086.55589887]
+ [-15410307.66054134]
+ [-13635824.70379636]
+ [-11860842.08403933]
+ [-10085441.65748331]
+ [ -9357668.97912271]
+ [ -8644464.41172472]
+ [ -7945840.18245411]
+ [ -7612490.6424134 ]
+ [ -7321944.18411436]
+ [ -7074256.2758736 ]]</t>
         </is>
       </c>
       <c r="E392" t="inlineStr"/>
@@ -10116,18 +10115,18 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[[2428255.89818455]
- [2428831.78821668]
- [2429355.27536736]
- [2429677.84779049]
- [2430483.21924698]
- [2431134.32492581]
- [2428809.69941066]
- [2428932.21824535]
- [2429022.40079499]
- [2428922.00090582]
- [2428844.34191472]
- [2428717.89010267]]</t>
+          <t>[[2428340.49588803]
+ [2429076.15016301]
+ [2429745.150357  ]
+ [2431552.74336647]
+ [2432583.30649191]
+ [2433415.48350294]
+ [2430434.81124687]
+ [2430575.11856734]
+ [2430673.38284943]
+ [2429325.40790102]
+ [2429217.64005877]
+ [2429056.55177362]]</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -10150,18 +10149,18 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[[29099.08818721]
- [29106.7812989 ]
- [29113.8462937 ]
- [29118.35574401]
- [29129.61652312]
- [29139.02542606]
- [29107.12312413]
- [29109.13948122]
- [29110.79196311]
- [29109.73456757]
- [29109.17000649]
- [29108.20051138]]</t>
+          <t>[[29100.21082235]
+ [29110.03624615]
+ [29119.06229751]
+ [29143.55247813]
+ [29157.95209706]
+ [29169.96603069]
+ [29129.46422283]
+ [29131.80374907]
+ [29133.65301517]
+ [29114.96600434]
+ [29114.11634867]
+ [29112.79357358]]</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -10184,18 +10183,18 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[[-4313612.79648616]
- [-3959901.51749312]
- [-3605186.99257309]
- [-3096455.15703409]
- [-2585572.95708837]
- [-2073753.12757178]
- [-1766314.63846872]
- [-1457873.12285592]
- [-1148601.68407131]
- [ -859296.06771067]
- [ -569287.77243734]
- [ -278501.78866552]]</t>
+          <t>[[-4353455.09897782]
+ [-3996917.79067181]
+ [-3637829.27863067]
+ [-3121492.70759842]
+ [-2603010.98202662]
+ [-2083944.61032928]
+ [-1772934.3694098 ]
+ [-1461831.17164323]
+ [-1150827.53818356]
+ [ -860547.19776195]
+ [ -569774.79627189]
+ [ -278501.81987501]]</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -10218,18 +10217,18 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>[[ 3.22907203e+08]
- [ 2.93410923e+08]
- [ 2.63840633e+08]
- [ 2.21452363e+08]
- [ 1.78912437e+08]
- [ 1.36312590e+08]
- [ 1.10734548e+08]
- [ 8.50958754e+07]
- [ 5.94121751e+07]
- [ 3.54118292e+07]
- [ 1.13899515e+07]
- [-1.26341966e+07]]</t>
+          <t>[[ 3.25953229e+08]
+ [ 2.96244541e+08]
+ [ 2.66347158e+08]
+ [ 2.23393035e+08]
+ [ 1.80289949e+08]
+ [ 1.37155989e+08]
+ [ 1.11314234e+08]
+ [ 8.54735057e+07]
+ [ 5.96485756e+07]
+ [ 3.55577560e+07]
+ [ 1.14576593e+07]
+ [-1.26341967e+07]]</t>
         </is>
       </c>
       <c r="E396" t="inlineStr"/>
@@ -10252,18 +10251,18 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>[[1299606.59069358]
- [1299591.42110183]
- [1299576.24758501]
- [1299648.2353436 ]
- [1299626.49048566]
- [1299604.73861601]
- [1299790.13686318]
- [1299789.06533718]
- [1299788.4299843 ]
- [1299816.38258403]
- [1299861.64156251]
- [1299927.65794302]]</t>
+          <t>[[1299695.24279712]
+ [1299680.05421094]
+ [1299664.85960162]
+ [1299649.66068986]
+ [1299627.94229549]
+ [1299606.21851177]
+ [1299642.18117576]
+ [1299632.57261275]
+ [1299622.83265684]
+ [1299753.91699874]
+ [1299783.0489597 ]
+ [1299824.39641589]]</t>
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
@@ -10437,18 +10436,18 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>[[-379.21578592]
- [-436.16264199]
- [-475.80589094]
- [-506.90660373]
- [-542.75370127]
- [-572.24288468]
- [-597.50857279]
- [-589.7700024 ]
- [-580.21343345]
- [-569.03550177]
- [-503.24014145]
- [-431.88297775]
+          <t>[[-336.9560439 ]
+ [-388.43785582]
+ [-424.16473764]
+ [-452.12457083]
+ [-484.27449749]
+ [-510.65946695]
+ [-533.22010636]
+ [-534.90944214]
+ [-535.3275796 ]
+ [-534.6296143 ]
+ [-479.32439573]
+ [-419.08646016]
  [-352.18249915]]</t>
         </is>
       </c>
@@ -10472,7 +10471,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>[1272399.81726785]</t>
+          <t>[1222783.92244969]</t>
         </is>
       </c>
       <c r="E404" t="inlineStr"/>
@@ -10495,7 +10494,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>[47.62075789]</t>
+          <t>[60.81323312]</t>
         </is>
       </c>
       <c r="E405" t="inlineStr"/>
@@ -10518,7 +10517,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>[4.54737068e+09 4.54737068e+09 3.86532046e+07 0.00000000e+00
+          <t>[6.25267536e+09 6.25267536e+09 2.92111615e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -10573,10 +10572,10 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          32553.58509118
-  33495.35980444  36380.37048799  41394.03792705  48861.90035993
-  59276.69160767  73360.44041837  85175.84772957  99487.4353026
- 116885.41960682      0.              0.              0.
+          <t>[     0.              0.              0.          36803.2377582
+  37864.58420966  41115.75313184  46764.63106935  55173.39670577
+  66895.10137592  82741.68351929  96169.34371611 112453.90228731
+ 132280.93189279      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -10827,10 +10826,10 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          32553.58509118
-  33495.35980444  36380.37048799  41394.03792705  48861.90035993
-  59276.69160767  73360.44041837  85175.84772957  99487.4353026
- 116885.41960682      0.              0.              0.
+          <t>[     0.              0.              0.          36803.2377582
+  37864.58420966  41115.75313184  46764.63106935  55173.39670577
+  66895.10137592  82741.68351929  96169.34371611 112453.90228731
+ 132280.93189279      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -11212,10 +11211,10 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -32553.58509118
-  -33495.35980444  -36380.37048799  -41394.03792705  -48861.90035993
-  -59276.69160767  -73360.44041837  -85175.84772957  -99487.4353026
- -116885.41960682       0.               0.               0.
+          <t>[      0.               0.               0.          -36803.2377582
+  -37864.58420966  -41115.75313184  -46764.63106935  -55173.39670577
+  -66895.10137592  -82741.68351929  -96169.34371611 -112453.90228731
+ -132280.93189279       0.               0.               0.
        0.               0.               0.        ]</t>
         </is>
       </c>
@@ -11262,8 +11261,8 @@
       <c r="C436" t="inlineStr"/>
       <c r="D436" t="inlineStr">
         <is>
-          <t>[146.48595503 146.48595503 146.48595503 146.32816989 146.17038475
- 146.17038475]</t>
+          <t>[111.83175269  92.30769231  98.94405923 100.49731967  96.22569186
+ 110.79900834]</t>
         </is>
       </c>
       <c r="E436" t="inlineStr"/>
@@ -11282,7 +11281,7 @@
       <c r="C437" t="inlineStr"/>
       <c r="D437" t="inlineStr">
         <is>
-          <t>[1.         1.         1.         0.99784573 1.         1.        ]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E437" t="inlineStr"/>
@@ -11301,7 +11300,7 @@
       <c r="C438" t="inlineStr"/>
       <c r="D438" t="inlineStr">
         <is>
-          <t>[1.         1.         1.         0.99784573 1.         1.        ]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E438" t="inlineStr"/>
@@ -11320,7 +11319,7 @@
       <c r="C439" t="inlineStr"/>
       <c r="D439" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1.]</t>
+          <t>[1.21151065 0.93292809 0.98454426 1.04439176 0.8684707 ]</t>
         </is>
       </c>
       <c r="E439" t="inlineStr"/>
@@ -11364,10 +11363,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>[5.63970927 5.63970927 5.63970927 5.63970927 5.63970927 5.63970927
- 5.63970927 5.63970927 5.63970927 5.63970927 5.63565945 5.63160963
- 5.62755981 5.62755981 5.62755981 5.62755981 5.62755981 5.62755981
- 5.62755981]</t>
+          <t>[6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6.]</t>
         </is>
       </c>
       <c r="E441" t="inlineStr"/>
@@ -11390,7 +11386,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>[  0.           0.         -35.00974132]</t>
+          <t>[  0.   0. -35.]</t>
         </is>
       </c>
       <c r="E442" t="inlineStr"/>
@@ -11413,7 +11409,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>[6992.42417256]</t>
+          <t>[7916.81348705]</t>
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
@@ -11436,7 +11432,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>[70284269.40955062]</t>
+          <t>[79575757.74247621]</t>
         </is>
       </c>
       <c r="E444" t="inlineStr"/>
@@ -11478,7 +11474,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>[99.49244689]</t>
+          <t>[113.09733553]</t>
         </is>
       </c>
       <c r="E446" t="inlineStr"/>
@@ -11501,7 +11497,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>[787.7172568]</t>
+          <t>[1017.87601976]</t>
         </is>
       </c>
       <c r="E447" t="inlineStr"/>
@@ -11524,7 +11520,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>[787.7172568]</t>
+          <t>[1017.87601976]</t>
         </is>
       </c>
       <c r="E448" t="inlineStr"/>
@@ -11547,8 +11543,8 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>[7.16723478e+06 7.16723478e+06 2.45150482e+05 2.92544421e+09
- 2.92544421e+09 0.00000000e+00]</t>
+          <t>[8.11473382e+06 8.11473382e+06 2.95200000e+05 3.31368366e+09
+ 3.31368366e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E449" t="inlineStr"/>
@@ -11620,10 +11616,8 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.27941854 11.27941854
- 11.27941854 11.27941854 11.27941854 11.27941854 11.2713189  11.26321926
- 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12.
+ 12.]</t>
         </is>
       </c>
       <c r="E452" t="inlineStr"/>
@@ -11877,8 +11871,8 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>[22616.77995613 22616.77995626 22616.77995634 22592.25118409
- 22567.72241186 22567.72241188]</t>
+          <t>[33459.90344902 40459.66889185 37773.6887248  37195.73704108
+ 38829.58931374 33768.93903627]</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -11905,8 +11899,8 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>[354801.04678571 354801.04679182 354801.04679543 353647.94826156
- 352497.35084787 352497.35084861]</t>
+          <t>[591603.42827225 712665.71128649 666321.64753678 656331.64793397
+ 684556.63128534 596967.97276198]</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -11933,8 +11927,8 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>[354801.04678571 354801.04679182 354801.04679543 353647.94826156
- 352497.35084787 352497.35084861]</t>
+          <t>[591603.42827225 712665.71128649 666321.64753678 656331.64793397
+ 684556.63128534 596967.97276198]</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -11961,8 +11955,8 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>[8.50230162e+12 8.50230162e+12 8.50230162e+12 8.47466926e+12
- 8.44709683e+12 8.44709683e+12]</t>
+          <t>[1.41769333e+13 1.70780185e+13 1.59674490e+13 1.57280529e+13
+ 1.64044244e+13 1.43054870e+13]</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -11989,8 +11983,8 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>[8.50230162e+12 8.50230162e+12 8.50230162e+12 8.47466926e+12
- 8.44709683e+12 8.44709683e+12]</t>
+          <t>[1.41769333e+13 1.70780185e+13 1.59674490e+13 1.57280529e+13
+ 1.64044244e+13 1.43054870e+13]</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -12017,8 +12011,8 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>[6.74232519e+12 6.74232519e+12 6.74232519e+12 6.72041272e+12
- 6.69854779e+12 6.69854779e+12]</t>
+          <t>[1.12423081e+13 1.35428687e+13 1.26621871e+13 1.24723460e+13
+ 1.30087086e+13 1.13442512e+13]</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -12045,8 +12039,8 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>[5.41978911e+11 5.41978911e+11 5.41978911e+11 5.41391114e+11
- 5.40803317e+11 5.40803317e+11]</t>
+          <t>[8.01818918e+11 9.69558325e+11 9.05192637e+11 8.91342848e+11
+ 9.30495790e+11 8.09224516e+11]</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -12154,12 +12148,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.36901805 0.13266312 0.13266312 0.        ]
- [0.         0.         0.36901805 0.13266312 0.13266312 0.        ]
- [0.         0.         0.36901805 0.13266312 0.13266312 0.        ]
- [0.         0.         0.3694187  0.13295232 0.13295232 0.        ]
- [0.         0.         0.36982022 0.13324246 0.13324246 0.        ]
- [0.         0.         0.36982022 0.13324246 0.13324246 0.        ]]</t>
+          <t>[[0.         0.         0.24943288 0.08464454 0.08464454 0.        ]
+ [0.         0.         0.20627949 0.07026576 0.07026576 0.        ]
+ [0.         0.         0.22094744 0.07515289 0.07515289 0.        ]
+ [0.         0.         0.22438055 0.07629679 0.07629679 0.        ]
+ [0.         0.         0.21493918 0.073151   0.073151   0.        ]
+ [0.         0.         0.2471502  0.0838839  0.0838839  0.        ]]</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
@@ -12182,12 +12176,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>[[0.60587768 0.60587768 0.         0.         0.         0.06633156]
- [0.60587768 0.60587768 0.         0.         0.         0.06633156]
- [0.60587768 0.60587768 0.         0.         0.         0.06633156]
- [0.60653342 0.60653342 0.         0.         0.         0.06647616]
- [0.60719058 0.60719058 0.         0.         0.         0.06662123]
- [0.60719058 0.60719058 0.         0.         0.         0.06662123]]</t>
+          <t>[[0.40912952 0.40912952 0.         0.         0.         0.04232227]
+ [0.33804309 0.33804309 0.         0.         0.         0.03513288]
+ [0.36220628 0.36220628 0.         0.         0.         0.03757645]
+ [0.36786167 0.36786167 0.         0.         0.         0.0381484 ]
+ [0.35230869 0.35230869 0.         0.         0.         0.0365755 ]
+ [0.40536942 0.40536942 0.         0.         0.         0.04194195]]</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -12210,7 +12204,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>[1181.58160501]</t>
+          <t>[1418.46504766]</t>
         </is>
       </c>
       <c r="E475" t="inlineStr"/>
@@ -12233,7 +12227,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>[4679674.13822839]</t>
+          <t>[7306625.93005354]</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
@@ -12256,7 +12250,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>[1921445.14539197]</t>
+          <t>[3106395.42644982]</t>
         </is>
       </c>
       <c r="E477" t="inlineStr"/>
@@ -12279,7 +12273,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>[42.48351085]</t>
+          <t>[43.39158094]</t>
         </is>
       </c>
       <c r="E478" t="inlineStr"/>
@@ -12302,7 +12296,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>[4.65443023e+09 4.65443023e+09 6.02240134e+07 0.00000000e+00
+          <t>[7.70469168e+09 7.70469168e+09 1.09653272e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12326,9 +12320,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.27941854 11.27941854
- 11.27941854 11.27941854 11.27941854 11.27536872 11.26726908 11.25916944
- 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E480" t="inlineStr"/>
@@ -12351,8 +12343,9 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>[0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239
- 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239]</t>
+          <t>[0.11481533 0.11481533 0.11481533 0.1391     0.1391     0.1391
+ 0.1297703  0.1297703  0.1297703  0.1277646  0.1277646  0.1277646
+ 0.1334363  0.1334363  0.1334363  0.11588551 0.11588551 0.11588551]</t>
         </is>
       </c>
       <c r="E481" t="inlineStr"/>
@@ -12400,7 +12393,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>[2021445.14539197]</t>
+          <t>[3206395.42644982]</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -12423,7 +12416,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>[5179674.13822839]</t>
+          <t>[7806625.93005354]</t>
         </is>
       </c>
       <c r="E484" t="inlineStr"/>
@@ -12446,7 +12439,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>[44.58678282]</t>
+          <t>[44.68925055]</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -12469,7 +12462,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>[5.37851370e+09 5.37851370e+09 6.33909564e+07 0.00000000e+00
+          <t>[8.42899168e+09 8.42899168e+09 1.13253272e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12493,7 +12486,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>[3293844.96265982]</t>
+          <t>[4429179.34889951]</t>
         </is>
       </c>
       <c r="E487" t="inlineStr"/>
@@ -12516,7 +12509,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>[8658739.09871414]</t>
+          <t>[11114880.90280148]</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -12566,7 +12559,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>[0.22]</t>
+          <t>[0.2199999]</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
@@ -12589,7 +12582,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>[0.22118346]</t>
+          <t>[0.22114909]</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -12612,7 +12605,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>[0.22       0.22118346 0.93829475 0.94924751 1.0296831  1.76390509]</t>
+          <t>[0.2199999  0.22114909 1.01684818 1.07074452 1.17410086 1.88921025]</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -12635,7 +12628,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>[0.22118346 1.0296831  1.92925825]</t>
+          <t>[0.22114909 1.17410086 2.05178558]</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
@@ -12658,7 +12651,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>[0.22       0.93829475 1.76390509]</t>
+          <t>[0.2199999  1.07074452 1.88921025]</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
@@ -12681,7 +12674,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>[4.19678803 0.         0.        ]</t>
+          <t>[4.52058809 0.         0.        ]</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
@@ -12700,9 +12693,9 @@
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>[[ 0.9991995   0.74557423 -3.17958968  4.20925848 -1.77444254]
- [-3.29952173  0.94208792  8.45798298 -9.32332802  4.22277886]
- [-6.80293125  7.7761523  15.41466074 -6.62686197 -8.76101982]]</t>
+          <t>[[  0.41125158  -0.31641432   4.9036697   -6.5014477    2.50294074]
+ [ -2.63647191  -0.03392771   6.22529581  -3.74569668   1.19080049]
+ [ -6.36339438   5.01059701  27.51370289 -26.71602975   1.55512423]]</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -12721,9 +12714,9 @@
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>[[  0.99119034   0.74241471  -3.1482798    4.15887373  -1.74419896]
- [ -3.31406568   0.620938     9.21896804 -11.34092565   5.8150853 ]
- [ -5.62528161   5.70398218  11.04981937  -2.6966862   -7.43183374]]</t>
+          <t>[[  0.40788256  -0.31821808   4.90696575  -6.50943598   2.51280575]
+ [ -2.55575082  -0.31671821   6.08677341  -4.56966557   2.35536119]
+ [ -5.20131395   3.52488488  18.64250242 -14.0249631   -1.94111025]]</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
@@ -12742,9 +12735,9 @@
       <c r="C498" t="inlineStr"/>
       <c r="D498" t="inlineStr">
         <is>
-          <t>[[ -0.235441     4.10869202 -20.68625645  35.24501567 -17.43201024]
- [  0.           0.           0.           0.           0.        ]
- [  0.           0.           0.           0.           0.        ]]</t>
+          <t>[[-1.37272621  8.03623461 -7.86101422  0.14794618  2.04955963]
+ [ 0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
       </c>
       <c r="E498" t="inlineStr"/>
@@ -12763,9 +12756,9 @@
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
-          <t>[[ 0.66488341  1.90656239 -4.99815534  5.78099393 -2.35428439]
- [-0.33767785  3.67948228 -8.3605771   9.76847385 -3.74970118]
- [ 2.0641119  -1.79584778  8.59354547 -8.68076937  0.81895978]]</t>
+          <t>[[ 1.39540041  0.38312855 -2.52198812  2.74503968 -1.00158052]
+ [-0.56670642  2.85972024 -2.79844629  1.79341145 -0.28797898]
+ [ 2.0217085   2.58948603 -6.14424156  6.38266463 -3.8496176 ]]</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
@@ -12784,9 +12777,9 @@
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
-          <t>[[ 0.6527315   1.9310797  -5.05521273  5.83886882 -2.36746728]
- [-0.4490413   3.94832466 -9.14051509 10.4889816  -3.84774987]
- [ 1.30470418 -0.14833269  3.38654914 -2.56971323 -0.97320741]]</t>
+          <t>[[ 1.38575345  0.39018718 -2.51384118  2.72638072 -0.98848017]
+ [-0.72432684  2.81512539 -2.40665608  1.13993251  0.17592502]
+ [ 1.23497329  2.88145711 -5.60613241  5.89389062 -3.40418862]]</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
@@ -12805,9 +12798,12 @@
       <c r="C501" t="inlineStr"/>
       <c r="D501" t="inlineStr">
         <is>
-          <t>[[ -3.23188206  26.69386502 -74.12660029  89.45145605 -37.78683871]
- [  0.           0.           0.           0.           0.        ]
- [  0.           0.           0.           0.           0.        ]]</t>
+          <t>[[ -124.46143036   950.21586721 -2668.8573074   3061.42467791
+  -1217.32180736]
+ [    0.             0.             0.             0.
+      0.        ]
+ [    0.             0.             0.             0.
+      0.        ]]</t>
         </is>
       </c>
       <c r="E501" t="inlineStr"/>
@@ -12830,37 +12826,37 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>[[1.77150369e-04]
- [3.57796417e-04]
- [1.52533904e-05]
- [3.12848793e-03]
- [6.83157658e-03]
- [1.17903334e-02]
- [1.79709009e-02]
- [2.53393297e-02]
- [3.38615895e-02]
- [4.35035809e-02]
- [5.05370520e-02]
- [5.80439381e-02]
- [6.60150867e-02]
- [7.44410303e-02]
- [8.33117970e-02]
- [9.26171895e-02]
- [9.74296721e-02]
- [1.02346981e-01]
- [1.07367840e-01]
- [1.47570634e-01]
- [1.94139984e-01]
- [2.46441899e-01]
- [3.34446639e-01]
- [4.38390890e-01]
- [5.54827237e-01]
- [6.32770405e-01]
- [7.18158766e-01]
- [8.09429811e-01]
- [8.98524019e-01]
- [9.89363941e-01]
- [1.07802706e+00]]</t>
+          <t>[[2.16476476e-04]
+ [2.98786968e-04]
+ [1.46304678e-04]
+ [2.55541364e-03]
+ [4.98259336e-03]
+ [8.03467970e-03]
+ [1.16948766e-02]
+ [1.59704816e-02]
+ [2.08605015e-02]
+ [2.63469071e-02]
+ [3.03294482e-02]
+ [3.45675143e-02]
+ [3.90556753e-02]
+ [4.37818820e-02]
+ [4.87374627e-02]
+ [5.39172191e-02]
+ [5.65962815e-02]
+ [5.93373758e-02]
+ [6.21397568e-02]
+ [9.00999773e-02]
+ [1.31390323e-01]
+ [1.84691812e-01]
+ [2.79044159e-01]
+ [3.91323769e-01]
+ [5.17643746e-01]
+ [5.99593130e-01]
+ [6.85886000e-01]
+ [7.75428817e-01]
+ [8.62208890e-01]
+ [9.50503228e-01]
+ [1.03704677e+00]]</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
@@ -12883,7 +12879,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>[1.07802706]</t>
+          <t>[1.03704677]</t>
         </is>
       </c>
       <c r="E503" t="inlineStr"/>
@@ -12906,24 +12902,24 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>[[-39855020.94656906]
- [-37637144.99505053]
- [-35258128.79935043]
- [-33985719.69024177]
- [-32703839.27856821]
- [-31402409.65475739]
- [-30070088.24229298]
- [-28693507.25731546]
- [-27256292.40983041]
- [-26255682.81373028]
- [-25212498.22814129]
- [-24117527.3354468 ]
- [-23186977.96027748]
- [-22449289.52841575]
- [-21711601.09655401]
- [-21342756.88062274]
- [-20973912.66469223]
- [-20605068.44876166]]</t>
+          <t>[[-50259018.61441711]
+ [-46977830.26419896]
+ [-43514465.89150829]
+ [-41345858.80025245]
+ [-39166578.23323569]
+ [-36965270.05105241]
+ [-34860867.26024969]
+ [-32706641.56121019]
+ [-30484184.36870564]
+ [-28973135.59130349]
+ [-27413061.65367224]
+ [-25793403.58721435]
+ [-24305887.63391743]
+ [-23036635.22434129]
+ [-21767382.8147653 ]
+ [-21215467.25533009]
+ [-20663551.69589502]
+ [-20111636.13645869]]</t>
         </is>
       </c>
       <c r="E504" t="inlineStr"/>
@@ -12946,24 +12942,24 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>[[ -4014598.57567754]
- [ -9895873.96064119]
- [-10051319.54636409]
- [  2428397.02583291]
- [  2428560.84965742]
- [  2428728.50927815]
- [  2428904.34150816]
- [  2429093.65198574]
- [  2429303.27997094]
- [  2428977.10584345]
- [  2429094.77601835]
- [  2429227.616581  ]
- [  2429184.44206578]
- [  2428907.05434771]
- [  2428955.14290369]
- [  2428458.02971091]
- [  2428469.62806286]
- [  2428481.0851503 ]]</t>
+          <t>[[-4960965.24751493]
+ [-9948375.60473385]
+ [-8416483.49774286]
+ [ 2428452.11393152]
+ [ 2428590.42565697]
+ [ 2428730.32199327]
+ [ 2428823.38636952]
+ [ 2428975.68812739]
+ [ 2429139.71888602]
+ [ 2428825.55043598]
+ [ 2428913.78093093]
+ [ 2429011.31009446]
+ [ 2429032.62030743]
+ [ 2428868.96072763]
+ [ 2428911.63731962]
+ [ 2428369.1052766 ]
+ [ 2428379.37528822]
+ [ 2428389.52189506]]</t>
         </is>
       </c>
       <c r="E505" t="inlineStr"/>
@@ -12986,24 +12982,24 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>[[ -51942.20567073]
- [-128267.38703009]
- [-131200.2827687 ]
- [  29100.81582132]
- [  29102.93998277]
- [  29105.11790474]
- [  29107.40608251]
- [  29109.87381373]
- [  29112.61061106]
- [  29108.39085162]
- [  29109.93051858]
- [  29111.66998019]
- [  29111.12102829]
- [  29107.52016893]
- [  29108.15728907]
- [  29101.6801542 ]
- [  29101.83434428]
- [  29101.98683764]]</t>
+          <t>[[ -64209.29717355]
+ [-129053.96150876]
+ [-110169.67755855]
+ [  29101.52654588]
+ [  29103.32014411]
+ [  29105.13770727]
+ [  29106.35251625]
+ [  29108.33841803]
+ [  29110.48078282]
+ [  29106.41680911]
+ [  29107.57185877]
+ [  29108.8496345 ]
+ [  29109.13794055]
+ [  29107.01773127]
+ [  29107.58321465]
+ [  29100.5165485 ]
+ [  29100.65309398]
+ [  29100.78815872]]</t>
         </is>
       </c>
       <c r="E506" t="inlineStr"/>
@@ -13026,24 +13022,24 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>[[ -612235.79703572]
- [-2696772.73750006]
- [-5214063.16713036]
- [-5923409.27883216]
- [-5775758.85011999]
- [-5627671.35202831]
- [-5479202.14953898]
- [-5330407.20922177]
- [-5181343.95965368]
- [-5081871.30361532]
- [-4982327.30652493]
- [-4882730.97474724]
- [-4783103.42937343]
- [-4683441.55655093]
- [-4583735.73223653]
- [-4533881.36866549]
- [-4484020.57318124]
- [-4434154.54202114]]</t>
+          <t>[[ -949260.92967828]
+ [-3193448.69508434]
+ [-5355230.25343184]
+ [-5922462.29354208]
+ [-5775359.04489594]
+ [-5628032.18873845]
+ [-5480513.37062002]
+ [-5332831.39225603]
+ [-5185030.64327387]
+ [-5086471.83785245]
+ [-4987894.34229581]
+ [-4889312.45738756]
+ [-4790743.99109842]
+ [-4692193.26089436]
+ [-4593656.03904807]
+ [-4544404.43181448]
+ [-4495154.74106082]
+ [-4445907.92572987]]</t>
         </is>
       </c>
       <c r="E507" t="inlineStr"/>
@@ -13066,24 +13062,24 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>[[4.74707605e+07]
- [2.08786696e+08]
- [4.02763498e+08]
- [4.56794564e+08]
- [4.44486422e+08]
- [4.32144682e+08]
- [4.19773686e+08]
- [4.07377815e+08]
- [3.94961549e+08]
- [3.86676728e+08]
- [3.78386561e+08]
- [3.70092521e+08]
- [3.61796238e+08]
- [3.53497479e+08]
- [3.45195511e+08]
- [3.41044480e+08]
- [3.36892997e+08]
- [3.32741156e+08]]</t>
+          <t>[[7.36152918e+07]
+ [2.47242454e+08]
+ [4.13626027e+08]
+ [4.56667511e+08]
+ [4.44401702e+08]
+ [4.32118727e+08]
+ [4.19821064e+08]
+ [4.07510979e+08]
+ [3.95191925e+08]
+ [3.86977407e+08]
+ [3.78761543e+08]
+ [3.70545434e+08]
+ [3.62330452e+08]
+ [3.54116925e+08]
+ [3.45904525e+08]
+ [3.41799661e+08]
+ [3.37694970e+08]
+ [3.33590525e+08]]</t>
         </is>
       </c>
       <c r="E508" t="inlineStr"/>
@@ -13106,24 +13102,24 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>[[ 214113.64196416]
- [ 467981.01939775]
- [ 808740.09856534]
- [1299660.36120058]
- [1299653.16817708]
- [1299645.92169211]
- [1299638.56477789]
- [1299631.03332026]
- [1299623.25176012]
- [1299615.18326744]
- [1299609.63255466]
- [1299603.83273854]
- [1299597.6815942 ]
- [1299592.41019491]
- [1299588.23134949]
- [1299584.05253094]
- [1299581.96313175]
- [1299579.87373928]]</t>
+          <t>[[ 238417.20387204]
+ [ 508799.83417732]
+ [ 847402.97550448]
+ [1299598.5545965 ]
+ [1299591.70235262]
+ [1299584.81645607]
+ [1299586.16624245]
+ [1299579.04418661]
+ [1299571.75359298]
+ [1299565.83518042]
+ [1299560.64194199]
+ [1299555.2802553 ]
+ [1299545.98384716]
+ [1299541.08675091]
+ [1299536.90823585]
+ [1299543.46886301]
+ [1299541.37959438]
+ [1299539.29033246]]</t>
         </is>
       </c>
       <c r="E509" t="inlineStr"/>
@@ -13146,9 +13142,9 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>[[ 2.42839703e+06]
- [ 2.91008158e+04]
- [-3.52581288e+07]]</t>
+          <t>[[ 2.42845211e+06]
+ [ 2.91015265e+04]
+ [-4.35144659e+07]]</t>
         </is>
       </c>
       <c r="E510" t="inlineStr"/>
@@ -13171,9 +13167,9 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>[[-6.07056714e+06]
- [ 4.69064745e+08]
- [ 1.29966036e+06]]</t>
+          <t>[[-6.06929837e+06]
+ [ 4.68912748e+08]
+ [ 1.29959855e+06]]</t>
         </is>
       </c>
       <c r="E511" t="inlineStr"/>
@@ -13225,11 +13221,11 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.27941854 11.27941854
- 11.27941854 11.27941854 11.27941854 11.27941854 11.2713189  11.26321926
- 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963 10.84690757 10.43869552 10.03048346  8.68665564  7.34282782
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 10.         10.         10.         10.         10.         10.
+ 10.          9.80072649  9.60145298  9.40217948  8.26778632  7.13339316
   5.999     ]</t>
         </is>
       </c>
@@ -13253,11 +13249,11 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>[0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.05873341 0.05873341 0.05873341 0.03130576 0.03130576 0.03130576
- 0.01179358 0.01179358 0.01179358 0.01140435 0.01140435 0.01140435]</t>
+          <t>[0.10730405 0.10730405 0.10730405 0.13       0.13       0.13
+ 0.12128065 0.12128065 0.12128065 0.11940617 0.11940617 0.11940617
+ 0.12470682 0.12470682 0.12470682 0.10830422 0.10830422 0.10830422
+ 0.04       0.04       0.04       0.04       0.04       0.04
+ 0.0275     0.0275     0.0275     0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -13356,11 +13352,11 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>[2.89958717 2.89958717 2.89958717 2.89958717 2.89958717 2.89958717
- 2.89958717 2.89958717 2.89958717 2.89853894 2.89644246 2.89434598
- 2.89329775 2.89329775 2.89329775 2.89329775 2.89329775 2.89329775
- 2.21053174 2.21053174 2.21053174 1.18113161 1.18113161 1.18113161
- 0.43764062 0.4214574  0.40527417 0.35833065 0.30681399 0.25529734]</t>
+          <t>[4.28973121 4.28973121 4.28973121 5.18713704 5.18713704 5.18713704
+ 4.84278061 4.84278061 4.84278061 4.76868424 4.76868424 4.76868424
+ 4.97815248 4.97815248 4.97815248 4.32935116 4.32935116 4.32935116
+ 1.33922325 1.33922325 1.33922325 1.33922325 1.33922325 1.33922325
+ 0.91266094 0.89423983 0.87581871 0.44472614 0.38752713 0.33032812]</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
@@ -13383,11 +13379,11 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>[1.65049817 1.65049817 1.65049817 1.65049817 1.65049817 1.65049817
- 1.65049817 1.65049817 1.65049817 1.64990337 1.64871377 1.64752417
- 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937
- 1.25734279 1.25734279 1.25734279 0.67108252 0.67108252 0.67108252
- 0.24846446 0.23928098 0.23009749 0.20345091 0.17421682 0.14498276]</t>
+          <t>[2.44421374 2.44421374 2.44421374 2.95820274 2.95820274 2.95820274
+ 2.76085775 2.76085775 2.76085775 2.71841315 2.71841315 2.71841315
+ 2.83841993 2.83841993 2.83841993 2.46688566 2.46688566 2.46688566
+ 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308
+ 0.5185449  0.50809159 0.4976383  0.25255761 0.22009905 0.18764054]</t>
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
@@ -13410,11 +13406,11 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>[1.65049817 1.65049817 1.65049817 1.65049817 1.65049817 1.65049817
- 1.65049817 1.65049817 1.65049817 1.64990337 1.64871377 1.64752417
- 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937 1.64692937
- 1.25734279 1.25734279 1.25734279 0.67108252 0.67108252 0.67108252
- 0.24846446 0.23928098 0.23009749 0.20345091 0.17421682 0.14498276]</t>
+          <t>[2.44421374 2.44421374 2.44421374 2.95820274 2.95820274 2.95820274
+ 2.76085775 2.76085775 2.76085775 2.71841315 2.71841315 2.71841315
+ 2.83841993 2.83841993 2.83841993 2.46688566 2.46688566 2.46688566
+ 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308
+ 0.5185449  0.50809159 0.4976383  0.25255761 0.22009905 0.18764054]</t>
         </is>
       </c>
       <c r="E520" t="inlineStr"/>
@@ -13437,11 +13433,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>[90.97462738 90.97462738 90.97462738 90.97462738 90.97462738 90.97462738
- 90.97462738 90.97462738 90.97462738 90.87600065 90.67896109 90.48220656
- 90.38393611 90.38393611 90.38393611 90.38393612 90.38393612 90.38393612
- 69.27945394 69.27945394 69.27945394 37.1982572  37.1982572  37.1982572
- 13.33321581 11.90811748 10.58836479  7.82680381  4.91313053  2.83055801]</t>
+          <t>[151.69318674 151.69318674 151.69318674 182.73479777 182.73479777
+ 182.73479777 170.8517045  170.8517045  170.8517045  168.29016614
+ 168.29016614 168.29016614 175.52734136 175.52734136 175.52734136
+ 153.06871096 153.06871096 153.06871096  33.21380796  33.21380796
+  33.21380796  33.21380796  33.21380796  33.21380796  22.24022039
+  20.9205384   19.6541217    8.64906983   5.72266293   3.54428869]</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -13464,11 +13461,11 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>[45.48731369 45.48731369 45.48731369 45.48731369 45.48731369 45.48731369
- 45.48731369 45.48731369 45.48731369 45.43800033 45.33948055 45.24110328
- 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806
- 34.63972697 34.63972697 34.63972697 18.5991286  18.5991286  18.5991286
-  6.66660791  5.95405874  5.29418239  3.9134019   2.45656527  1.415279  ]</t>
+          <t>[75.84659337 75.84659337 75.84659337 91.36739888 91.36739888 91.36739888
+ 85.42585225 85.42585225 85.42585225 84.14508307 84.14508307 84.14508307
+ 87.76367068 87.76367068 87.76367068 76.53435548 76.53435548 76.53435548
+ 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398
+ 11.1201102  10.4602692   9.82706085  4.32453491  2.86133146  1.77214435]</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -13491,11 +13488,11 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>[45.48731369 45.48731369 45.48731369 45.48731369 45.48731369 45.48731369
- 45.48731369 45.48731369 45.48731369 45.43800033 45.33948055 45.24110328
- 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806 45.19196806
- 34.63972697 34.63972697 34.63972697 18.5991286  18.5991286  18.5991286
-  6.66660791  5.95405874  5.29418239  3.9134019   2.45656527  1.415279  ]</t>
+          <t>[75.84659337 75.84659337 75.84659337 91.36739888 91.36739888 91.36739888
+ 85.42585225 85.42585225 85.42585225 84.14508307 84.14508307 84.14508307
+ 87.76367068 87.76367068 87.76367068 76.53435548 76.53435548 76.53435548
+ 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398
+ 11.1201102  10.4602692   9.82706085  4.32453491  2.86133146  1.77214435]</t>
         </is>
       </c>
       <c r="E523" t="inlineStr"/>
@@ -13620,36 +13617,36 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[[-3.98550209e+07]
- [-3.76371450e+07]
- [-3.52581288e+07]
- [-3.39857197e+07]
- [-3.27038393e+07]
- [-3.14024097e+07]
- [-3.00700882e+07]
- [-2.86935073e+07]
- [-2.72562924e+07]
- [-2.62556828e+07]
- [-2.52124982e+07]
- [-2.41175273e+07]
- [-2.31869780e+07]
- [-2.24492895e+07]
- [-2.17116011e+07]
- [-2.13427569e+07]
- [-2.09739127e+07]
- [-2.06050684e+07]
- [-1.75811230e+07]
- [-1.55352044e+07]
- [-1.34887086e+07]
- [-1.19223597e+07]
- [-1.03554392e+07]
- [-8.78796111e+06]
- [-8.43561060e+06]
- [-8.09597810e+06]
- [-7.76924196e+06]
- [-7.49906280e+06]
- [-7.26730501e+06]
- [ 1.05792424e-08]]</t>
+          <t>[[-5.02590186e+07]
+ [-4.69778303e+07]
+ [-4.35144659e+07]
+ [-4.13458588e+07]
+ [-3.91665782e+07]
+ [-3.69652701e+07]
+ [-3.48608673e+07]
+ [-3.27066416e+07]
+ [-3.04841844e+07]
+ [-2.89731356e+07]
+ [-2.74130617e+07]
+ [-2.57934036e+07]
+ [-2.43058876e+07]
+ [-2.30366352e+07]
+ [-2.17673828e+07]
+ [-2.12154673e+07]
+ [-2.06635517e+07]
+ [-2.01116361e+07]
+ [-1.78924469e+07]
+ [-1.66515697e+07]
+ [-1.54101713e+07]
+ [-1.36362015e+07]
+ [-1.18617185e+07]
+ [-1.00867359e+07]
+ [-9.35908742e+06]
+ [-8.64589365e+06]
+ [-7.94726799e+06]
+ [-7.61365074e+06]
+ [-7.32255195e+06]
+ [ 3.76894604e-09]]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -13672,36 +13669,36 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>[[-4.01459858e+06]
- [-9.89587396e+06]
- [-1.00513195e+07]
- [ 2.42839703e+06]
- [ 2.42856085e+06]
- [ 2.42872851e+06]
- [ 2.42890434e+06]
- [ 2.42909365e+06]
- [ 2.42930328e+06]
- [ 2.42897711e+06]
- [ 2.42909478e+06]
- [ 2.42922762e+06]
- [ 2.42918444e+06]
- [ 2.42890705e+06]
- [ 2.42895514e+06]
- [ 2.42845803e+06]
- [ 2.42846963e+06]
- [ 2.42848109e+06]
- [ 2.43132675e+06]
- [ 2.43187165e+06]
- [ 2.43235872e+06]
- [ 2.43192263e+06]
- [ 2.43264816e+06]
- [ 2.43321759e+06]
- [ 2.42925270e+06]
- [ 2.42932723e+06]
- [ 2.42936693e+06]
- [ 2.42917216e+06]
- [ 2.42901635e+06]
- [ 8.86816849e+02]]</t>
+          <t>[[-4.96096525e+06]
+ [-9.94837560e+06]
+ [-8.41648350e+06]
+ [ 2.42845211e+06]
+ [ 2.42859043e+06]
+ [ 2.42873032e+06]
+ [ 2.42882339e+06]
+ [ 2.42897569e+06]
+ [ 2.42913972e+06]
+ [ 2.42882555e+06]
+ [ 2.42891378e+06]
+ [ 2.42901131e+06]
+ [ 2.42903262e+06]
+ [ 2.42886896e+06]
+ [ 2.42891164e+06]
+ [ 2.42836911e+06]
+ [ 2.42837938e+06]
+ [ 2.42838952e+06]
+ [ 2.42935929e+06]
+ [ 2.43004771e+06]
+ [ 2.43066620e+06]
+ [ 2.43277916e+06]
+ [ 2.43370281e+06]
+ [ 2.43442701e+06]
+ [ 2.43080702e+06]
+ [ 2.43089962e+06]
+ [ 2.43094860e+06]
+ [ 2.42942472e+06]
+ [ 2.42925697e+06]
+ [ 1.11305881e+03]]</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
@@ -13724,36 +13721,36 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>[[-5.19422057e+04]
- [-1.28267387e+05]
- [-1.31200283e+05]
- [ 2.91008158e+04]
- [ 2.91029400e+04]
- [ 2.91051179e+04]
- [ 2.91074061e+04]
- [ 2.91098738e+04]
- [ 2.91126106e+04]
- [ 2.91083909e+04]
- [ 2.91099305e+04]
- [ 2.91116700e+04]
- [ 2.91111210e+04]
- [ 2.91075202e+04]
- [ 2.91081573e+04]
- [ 2.91016802e+04]
- [ 2.91018343e+04]
- [ 2.91019868e+04]
- [ 2.91392320e+04]
- [ 2.91465625e+04]
- [ 2.91531940e+04]
- [ 2.91478254e+04]
- [ 2.91581287e+04]
- [ 2.91665562e+04]
- [ 2.91130068e+04]
- [ 2.91144262e+04]
- [ 2.91154500e+04]
- [ 2.91131691e+04]
- [ 2.91116081e+04]
- [ 1.42027805e+01]]</t>
+          <t>[[-6.42092972e+04]
+ [-1.29053962e+05]
+ [-1.10169678e+05]
+ [ 2.91015265e+04]
+ [ 2.91033201e+04]
+ [ 2.91051377e+04]
+ [ 2.91063525e+04]
+ [ 2.91083384e+04]
+ [ 2.91104808e+04]
+ [ 2.91064168e+04]
+ [ 2.91075719e+04]
+ [ 2.91088496e+04]
+ [ 2.91091379e+04]
+ [ 2.91070177e+04]
+ [ 2.91075832e+04]
+ [ 2.91005165e+04]
+ [ 2.91006531e+04]
+ [ 2.91007882e+04]
+ [ 2.91135437e+04]
+ [ 2.91228069e+04]
+ [ 2.91312279e+04]
+ [ 2.91598593e+04]
+ [ 2.91729732e+04]
+ [ 2.91836874e+04]
+ [ 2.91345773e+04]
+ [ 2.91363299e+04]
+ [ 2.91375720e+04]
+ [ 2.91164515e+04]
+ [ 2.91148464e+04]
+ [ 1.73350512e+01]]</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -13776,36 +13773,36 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>[[-6.12235797e+05]
- [-2.69677274e+06]
- [-5.21406317e+06]
- [-5.92340928e+06]
- [-5.77575885e+06]
- [-5.62767135e+06]
- [-5.47920215e+06]
- [-5.33040721e+06]
- [-5.18134396e+06]
- [-5.08187130e+06]
- [-4.98232731e+06]
- [-4.88273097e+06]
- [-4.78310343e+06]
- [-4.68344156e+06]
- [-4.58373573e+06]
- [-4.53388137e+06]
- [-4.48402057e+06]
- [-4.43415454e+06]
- [-4.07262886e+06]
- [-3.71066350e+06]
- [-3.34873691e+06]
- [-2.83124880e+06]
- [-2.31288025e+06]
- [-1.79478303e+06]
- [-1.48430511e+06]
- [-1.17314706e+06]
- [-8.61488471e+05]
- [-5.70282815e+05]
- [-2.78775547e+05]
- [-3.46047967e-04]]</t>
+          <t>[[-9.49260930e+05]
+ [-3.19344870e+06]
+ [-5.35523025e+06]
+ [-5.92246229e+06]
+ [-5.77535904e+06]
+ [-5.62803219e+06]
+ [-5.48051337e+06]
+ [-5.33283139e+06]
+ [-5.18503064e+06]
+ [-5.08647184e+06]
+ [-4.98789434e+06]
+ [-4.88931246e+06]
+ [-4.79074399e+06]
+ [-4.69219326e+06]
+ [-4.59365604e+06]
+ [-4.54440443e+06]
+ [-4.49515474e+06]
+ [-4.44590793e+06]
+ [-4.08768821e+06]
+ [-3.72670294e+06]
+ [-3.36367238e+06]
+ [-2.84244499e+06]
+ [-2.31997667e+06]
+ [-1.79774225e+06]
+ [-1.48526330e+06]
+ [-1.17292935e+06]
+ [-8.60920492e+05]
+ [-5.69960272e+05]
+ [-2.78836140e+05]
+ [-4.33297010e-04]]</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -13828,36 +13825,36 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[[ 4.74707605e+07]
- [ 2.08786696e+08]
- [ 4.02763498e+08]
- [ 4.56794564e+08]
- [ 4.44486422e+08]
- [ 4.32144682e+08]
- [ 4.19773686e+08]
- [ 4.07377815e+08]
- [ 3.94961549e+08]
- [ 3.86676728e+08]
- [ 3.78386561e+08]
- [ 3.70092521e+08]
- [ 3.61796238e+08]
- [ 3.53497479e+08]
- [ 3.45195511e+08]
- [ 3.41044480e+08]
- [ 3.36892997e+08]
- [ 3.32741156e+08]
- [ 3.02644545e+08]
- [ 2.72517534e+08]
- [ 2.42396743e+08]
- [ 1.99341481e+08]
- [ 1.56233125e+08]
- [ 1.13158280e+08]
- [ 8.73514143e+07]
- [ 6.15097695e+07]
- [ 3.56495000e+07]
- [ 1.15107156e+07]
- [-1.26170811e+07]
- [ 2.16073774e-02]]</t>
+          <t>[[ 7.36152918e+07]
+ [ 2.47242454e+08]
+ [ 4.13626027e+08]
+ [ 4.56667511e+08]
+ [ 4.44401702e+08]
+ [ 4.32118727e+08]
+ [ 4.19821064e+08]
+ [ 4.07510979e+08]
+ [ 3.95191925e+08]
+ [ 3.86977407e+08]
+ [ 3.78761543e+08]
+ [ 3.70545434e+08]
+ [ 3.62330452e+08]
+ [ 3.54116925e+08]
+ [ 3.45904525e+08]
+ [ 3.41799661e+08]
+ [ 3.37694970e+08]
+ [ 3.33590525e+08]
+ [ 3.03748095e+08]
+ [ 2.73701021e+08]
+ [ 2.43505190e+08]
+ [ 2.00183227e+08]
+ [ 1.56783031e+08]
+ [ 1.13415531e+08]
+ [ 8.74668789e+07]
+ [ 6.15379128e+07]
+ [ 3.56423872e+07]
+ [ 1.15061232e+07]
+ [-1.26127096e+07]
+ [ 2.78200863e-02]]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr"/>
@@ -13880,35 +13877,35 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[[ 214113.64196416]
- [ 467981.01939775]
- [ 808740.09856534]
- [1299660.36120058]
- [1299653.16817708]
- [1299645.92169211]
- [1299638.56477789]
- [1299631.03332026]
- [1299623.25176012]
- [1299615.18326744]
- [1299609.63255466]
- [1299603.83273854]
- [1299597.6815942 ]
- [1299592.41019491]
- [1299588.23134949]
- [1299584.05253094]
- [1299581.96313175]
- [1299579.87373928]
- [1299606.5658397 ]
- [1299591.41557219]
- [1299576.2463347 ]
- [1299648.23886967]
- [1299626.50194212]
- [1299604.75781143]
- [1299790.20619339]
- [1299789.14082146]
- [1299788.50489929]
- [1299816.46245798]
- [1299861.71519039]
+          <t>[[ 238417.20387204]
+ [ 508799.83417732]
+ [ 847402.97550448]
+ [1299598.5545965 ]
+ [1299591.70235262]
+ [1299584.81645607]
+ [1299586.16624245]
+ [1299579.04418661]
+ [1299571.75359298]
+ [1299565.83518042]
+ [1299560.64194199]
+ [1299555.2802553 ]
+ [1299545.98384716]
+ [1299541.08675091]
+ [1299536.90823585]
+ [1299543.46886301]
+ [1299541.37959438]
+ [1299539.29033246]
+ [1299695.20168161]
+ [1299680.041506  ]
+ [1299664.8532751 ]
+ [1299649.6590212 ]
+ [1299627.94690683]
+ [1299606.22923817]
+ [1299642.20442009]
+ [1299632.59861211]
+ [1299622.85940465]
+ [1299753.96963218]
+ [1299783.0980388 ]
  [      0.        ]]</t>
         </is>
       </c>
@@ -13932,24 +13929,24 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[[-7858952.48392705]
- [12908242.02701562]
- [37780797.39494366]
- [44919198.57126531]
- [43835164.740235  ]
- [42753707.03791508]
- [41679275.75324033]
- [40617024.11488158]
- [39573154.85007984]
- [38922508.36895136]
- [38315665.80413556]
- [37723901.86208136]
- [37042822.56828436]
- [36264304.909171  ]
- [35485387.76706431]
- [35095923.1836258 ]
- [34706402.49106048]
- [34316837.21423422]]</t>
+          <t>[[-5892150.55916875]
+ [ 8609022.39117726]
+ [22579608.03041118]
+ [22020548.31603738]
+ [21635139.77097387]
+ [21252850.56035487]
+ [22290688.35906024]
+ [21870843.66182778]
+ [21464458.21291805]
+ [21520259.29622939]
+ [21261531.65087827]
+ [21015281.49644778]
+ [19890526.17804123]
+ [19583929.47674436]
+ [19277409.94315597]
+ [21897770.72106403]
+ [21703438.05786259]
+ [21509124.72245763]]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -13972,24 +13969,24 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[[2445832.61005236]
- [6025203.92723488]
- [6140524.45868379]
- [1551985.88804468]
- [1552084.70762447]
- [1552185.84813684]
- [1552291.93385178]
- [1552406.17563487]
- [1552532.71290763]
- [1552923.63404753]
- [1554174.12451813]
- [1555435.69982507]
- [1556000.45021792]
- [1555831.68068883]
- [1555860.62195868]
- [1555558.49387032]
- [1555565.4068047 ]
- [1555572.23395885]]</t>
+          <t>[[2039277.58370932]
+ [4090641.44762091]
+ [3477244.64195734]
+ [ 863652.03201261]
+ [ 863698.56625464]
+ [ 863745.63511707]
+ [ 925437.33239749]
+ [ 925492.25159497]
+ [ 925551.41356547]
+ [ 939869.0172048 ]
+ [ 939901.29143024]
+ [ 939936.98056918]
+ [ 900252.74265265]
+ [ 900194.91175386]
+ [ 900209.8055628 ]
+ [1035396.85853076]
+ [1035400.94014842]
+ [1035404.97173822]]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -14014,17 +14011,17 @@
         <is>
           <t>[[       -0.        ]
  [       -0.        ]
- [-14872121.5897224 ]
- [-27923375.90055113]
- [-24296217.47481236]
- [-20699548.84552059]
- [-17137051.37130426]
- [-13614605.15213885]
- [-10140766.85593776]
- [ -7283839.68284319]
- [ -5037045.98577712]
- [ -2831899.36002414]
- [  -870466.91102722]
+ [-11329638.67009527]
+ [-17524846.39754569]
+ [-15248424.14480737]
+ [-12991137.43648216]
+ [-11537006.26442331]
+ [ -9165624.9097138 ]
+ [ -6826967.3824348 ]
+ [ -4983193.16428176]
+ [ -3448557.66786621]
+ [ -1940232.84945106]
+ [  -570989.83367221]
  [       -0.        ]
  [       -0.        ]
  [       -0.        ]
@@ -14088,24 +14085,24 @@
       <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[[0.04541642]
- [0.08443918]
- [0.24520858]
- [0.32409027]
- [0.30454192]
- [0.28543951]
- [0.2668752 ]
- [0.24896559]
- [0.23185603]
- [0.21931545]
- [0.20935198]
- [0.19996339]
- [0.19118001]
- [0.18498357]
- [0.1810324 ]
- [0.17905676]
- [0.17708117]
- [0.17510548]]</t>
+          <t>[[0.03494609]
+ [0.05671792]
+ [0.15515567]
+ [0.17475522]
+ [0.1634753 ]
+ [0.15250609]
+ [0.15173415]
+ [0.14073247]
+ [0.1303331 ]
+ [0.12438035]
+ [0.11820112]
+ [0.11247024]
+ [0.10297132]
+ [0.09993783]
+ [0.09838359]
+ [0.11176595]
+ [0.11078071]
+ [0.10979564]]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -14124,24 +14121,24 @@
       <c r="C538" t="inlineStr"/>
       <c r="D538" t="inlineStr">
         <is>
-          <t>[[0.07123645]
- [0.08858623]
- [0.27006889]
- [0.21511906]
- [0.18989041]
- [0.16504062]
- [0.14067169]
- [0.11695965]
- [0.09422226]
- [0.05971544]
- [0.05219031]
- [0.0451819 ]
- [0.03989708]
- [0.03765626]
- [0.03656608]
- [0.03309725]
- [0.03257856]
- [0.03206052]]</t>
+          <t>[[0.05262979]
+ [0.05818659]
+ [0.13275182]
+ [0.07930252]
+ [0.06994294]
+ [0.06075588]
+ [0.05982463]
+ [0.0498918 ]
+ [0.04043822]
+ [0.02798719]
+ [0.02463382]
+ [0.02211803]
+ [0.01952249]
+ [0.01880098]
+ [0.01786735]
+ [0.01947099]
+ [0.01901316]
+ [0.01855639]]</t>
         </is>
       </c>
       <c r="E538" t="inlineStr"/>
@@ -14160,24 +14157,24 @@
       <c r="C539" t="inlineStr"/>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[[0.10597048]
- [0.2014495 ]
- [0.31663504]
- [0.3474529 ]
- [0.33726565]
- [0.32702514]
- [0.31671141]
- [0.30630059]
- [0.29576297]
- [0.2888483 ]
- [0.28203087]
- [0.27509286]
- [0.26828593]
- [0.26167972]
- [0.25507418]
- [0.25177237]
- [0.24847095]
- [0.24516997]]</t>
+          <t>[[0.08025929]
+ [0.13473269]
+ [0.18649755]
+ [0.16432915]
+ [0.1588934 ]
+ [0.1534349 ]
+ [0.15848683]
+ [0.15268401]
+ [0.14681319]
+ [0.14506805]
+ [0.14101573]
+ [0.1369043 ]
+ [0.12739903]
+ [0.12380431]
+ [0.120211  ]
+ [0.13603531]
+ [0.13406347]
+ [0.13209201]]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -14200,36 +14197,36 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[[-7.85895248e+06]
- [ 1.29082420e+07]
- [ 3.77807974e+07]
- [ 4.49191986e+07]
- [ 4.38351647e+07]
- [ 4.27537070e+07]
- [ 4.16792758e+07]
- [ 4.06170241e+07]
- [ 3.95731549e+07]
- [ 3.89225084e+07]
- [ 3.83156658e+07]
- [ 3.77239019e+07]
- [ 3.70428226e+07]
- [ 3.62643049e+07]
- [ 3.54853878e+07]
- [ 3.50959232e+07]
- [ 3.47064025e+07]
- [ 3.43168372e+07]
- [ 4.12186494e+07]
- [ 3.72494088e+07]
- [ 3.32814411e+07]
- [ 5.02270506e+07]
- [ 3.85094286e+07]
- [ 2.68024482e+07]
- [ 5.31350145e+07]
- [ 3.57744675e+07]
- [ 1.52981136e+07]
- [-7.14744134e+06]
- [-3.09921028e+06]
- [ 5.09297302e-02]]</t>
+          <t>[[-5.89215056e+06]
+ [ 8.60902239e+06]
+ [ 2.25796080e+07]
+ [ 2.20205483e+07]
+ [ 2.16351398e+07]
+ [ 2.12528506e+07]
+ [ 2.22906884e+07]
+ [ 2.18708437e+07]
+ [ 2.14644582e+07]
+ [ 2.15202593e+07]
+ [ 2.12615317e+07]
+ [ 2.10152815e+07]
+ [ 1.98905262e+07]
+ [ 1.95839295e+07]
+ [ 1.92774099e+07]
+ [ 2.18977707e+07]
+ [ 2.17034381e+07]
+ [ 1.93295797e+07]
+ [ 7.81003188e+07]
+ [ 6.99796802e+07]
+ [ 6.18146417e+07]
+ [ 5.00949894e+07]
+ [ 3.83521771e+07]
+ [ 2.66196113e+07]
+ [ 2.86872768e+07]
+ [ 1.88725793e+07]
+ [ 8.16229283e+06]
+ [-5.35200320e+06]
+ [-1.91939185e+06]
+ [ 5.15461258e-02]]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
@@ -14252,36 +14249,36 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>[[2.44583261e+06]
- [6.02520393e+06]
- [6.14052446e+06]
- [1.55198589e+06]
- [1.55208471e+06]
- [1.55218585e+06]
- [1.55229193e+06]
- [1.55240618e+06]
- [1.55253271e+06]
- [1.55292363e+06]
- [1.55417412e+06]
- [1.55543570e+06]
- [1.55600045e+06]
- [1.55583168e+06]
- [1.55586062e+06]
- [1.55555849e+06]
- [1.55556541e+06]
- [1.55557223e+06]
- [2.03940811e+06]
- [2.03984029e+06]
- [2.04022647e+06]
- [3.82075846e+06]
- [3.82183640e+06]
- [3.82268173e+06]
- [1.03164200e+07]
- [1.07341814e+07]
- [1.11869279e+07]
- [1.27178021e+07]
- [1.50037180e+07]
- [6.11749001e+03]]</t>
+          <t>[[2.03927758e+06]
+ [4.09064145e+06]
+ [3.47724464e+06]
+ [8.63652032e+05]
+ [8.63698566e+05]
+ [8.63745635e+05]
+ [9.25437332e+05]
+ [9.25492252e+05]
+ [9.25551414e+05]
+ [9.39869017e+05]
+ [9.39901291e+05]
+ [9.39936981e+05]
+ [9.00252743e+05]
+ [9.00194912e+05]
+ [9.00209806e+05]
+ [1.03539686e+06]
+ [1.03540094e+06]
+ [1.03116002e+06]
+ [3.38685522e+06]
+ [3.38775725e+06]
+ [3.38856743e+06]
+ [3.39134077e+06]
+ [3.39255084e+06]
+ [3.39349891e+06]
+ [4.97735483e+06]
+ [5.08604362e+06]
+ [5.19947413e+06]
+ [1.02838263e+07]
+ [1.19124147e+07]
+ [5.93258669e+03]]</t>
         </is>
       </c>
       <c r="E541" t="inlineStr"/>
@@ -14306,34 +14303,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.48721216e+07]
- [-2.79233759e+07]
- [-2.42962175e+07]
- [-2.06995488e+07]
- [-1.71370514e+07]
- [-1.36146052e+07]
- [-1.01407669e+07]
- [-7.28383968e+06]
- [-5.03704599e+06]
- [-2.83189936e+06]
- [-8.70466911e+05]
+ [-1.13296387e+07]
+ [-1.75248464e+07]
+ [-1.52484241e+07]
+ [-1.29911374e+07]
+ [-1.15370063e+07]
+ [-9.16562491e+06]
+ [-6.82696738e+06]
+ [-4.98319316e+06]
+ [-3.44855767e+06]
+ [-1.94023285e+06]
+ [-5.70989834e+05]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
- [-1.72752555e+03]
- [-4.88234449e+03]
- [-5.46954736e+03]
- [-5.90170827e+03]
- [-1.18705879e+04]
- [-1.26240851e+04]
- [-1.32559240e+04]
- [-3.57812609e+04]
- [-3.52235015e+04]
- [-3.45594620e+04]
- [-3.32707525e+04]
- [-2.89514124e+04]
- [-2.44576008e+04]]</t>
+ [-1.19673111e+03]
+ [-6.37727477e+03]
+ [-7.14427391e+03]
+ [-7.70875864e+03]
+ [-8.24432885e+03]
+ [-8.76764569e+03]
+ [-9.20646874e+03]
+ [-1.37237647e+04]
+ [-1.37454398e+04]
+ [-1.37359294e+04]
+ [-2.38687445e+04]
+ [-2.11375650e+04]
+ [-1.82924284e+04]]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -14404,36 +14401,36 @@
       <c r="C544" t="inlineStr"/>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[[4.54164167e-02]
- [8.44391817e-02]
- [2.45208580e-01]
- [3.24090274e-01]
- [3.04541920e-01]
- [2.85439510e-01]
- [2.66875202e-01]
- [2.48965587e-01]
- [2.31856031e-01]
- [2.19315445e-01]
- [2.09351977e-01]
- [1.99963393e-01]
- [1.91180007e-01]
- [1.84983566e-01]
- [1.81032401e-01]
- [1.79056759e-01]
- [1.77081167e-01]
- [1.75109863e-01]
- [2.10458395e-01]
- [1.90350424e-01]
- [1.70267840e-01]
- [2.57740960e-01]
- [1.98800558e-01]
- [1.40474201e-01]
- [2.85256177e-01]
- [2.05171645e-01]
- [1.25638994e-01]
- [1.17779984e-01]
- [1.33123900e-01]
- [1.35588772e-04]]</t>
+          <t>[[3.49460945e-02]
+ [5.67179248e-02]
+ [1.55155668e-01]
+ [1.74755223e-01]
+ [1.63475300e-01]
+ [1.52506090e-01]
+ [1.51734151e-01]
+ [1.40732474e-01]
+ [1.30333102e-01]
+ [1.24380346e-01]
+ [1.18201118e-01]
+ [1.12470244e-01]
+ [1.02971324e-01]
+ [9.99378339e-02]
+ [9.83835891e-02]
+ [1.11765946e-01]
+ [1.10780715e-01]
+ [9.87506091e-02]
+ [3.98428227e-01]
+ [3.57250924e-01]
+ [3.15882128e-01]
+ [2.56597736e-01]
+ [1.97394498e-01]
+ [1.38697375e-01]
+ [1.52411527e-01]
+ [1.05979432e-01]
+ [6.18518111e-02]
+ [9.45938702e-02]
+ [1.05406945e-01]
+ [1.06729226e-04]]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr"/>
@@ -14452,36 +14449,36 @@
       <c r="C545" t="inlineStr"/>
       <c r="D545" t="inlineStr">
         <is>
-          <t>[[0.07123645]
- [0.08858623]
- [0.27006889]
- [0.21511906]
- [0.18989041]
- [0.16504062]
- [0.14067169]
- [0.11695965]
- [0.09422226]
- [0.05971544]
- [0.05219031]
- [0.0451819 ]
- [0.03989708]
- [0.03765626]
- [0.03656608]
- [0.03309725]
- [0.03257856]
- [0.03205943]
- [0.05548604]
- [0.05076805]
- [0.04611876]
- [0.15253718]
- [0.1423306 ]
- [0.13220453]
- [0.99570469]
- [0.97604221]
- [0.95788876]
- [0.99990741]
- [0.9935876 ]
- [0.00491274]]</t>
+          <t>[[0.05262979]
+ [0.05818659]
+ [0.13275182]
+ [0.07930252]
+ [0.06994294]
+ [0.06075588]
+ [0.05982463]
+ [0.0498918 ]
+ [0.04043822]
+ [0.02798719]
+ [0.02463382]
+ [0.02211803]
+ [0.01952249]
+ [0.01880098]
+ [0.01786735]
+ [0.01947099]
+ [0.01901316]
+ [0.01981816]
+ [0.11471291]
+ [0.10925452]
+ [0.10381947]
+ [0.1023413 ]
+ [0.0948013 ]
+ [0.08738155]
+ [0.16049779]
+ [0.15503894]
+ [0.1497814 ]
+ [0.54323741]
+ [0.54144315]
+ [0.00245073]]</t>
         </is>
       </c>
       <c r="E545" t="inlineStr"/>
@@ -14500,36 +14497,36 @@
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
-          <t>[[2.32854397e-01]
- [3.98292678e-01]
- [5.95976949e-01]
- [6.46929593e-01]
- [6.26113558e-01]
- [6.05255067e-01]
- [5.84295098e-01]
- [5.63165018e-01]
- [5.41781490e-01]
- [5.27762371e-01]
- [5.13934585e-01]
- [4.99818853e-01]
- [4.86248198e-01]
- [4.73403864e-01]
- [4.60594501e-01]
- [4.54204077e-01]
- [4.47822681e-01]
- [4.41450383e-01]
- [5.19945295e-01]
- [4.63696354e-01]
- [4.08089898e-01]
- [6.50951463e-01]
- [5.17174765e-01]
- [3.85910604e-01]
- [9.34735280e-01]
- [7.90465854e-01]
- [6.16382479e-01]
- [5.04075195e-01]
- [8.10624777e-01]
- [4.04397913e-10]]</t>
+          <t>[[1.56057621e-01]
+ [2.21777434e-01]
+ [2.83123216e-01]
+ [2.43137336e-01]
+ [2.33963185e-01]
+ [2.24760918e-01]
+ [2.31370075e-01]
+ [2.21637012e-01]
+ [2.11767365e-01]
+ [2.08357366e-01]
+ [2.01510111e-01]
+ [1.94533220e-01]
+ [1.79936566e-01]
+ [1.74104953e-01]
+ [1.68284552e-01]
+ [1.90528565e-01]
+ [1.87392358e-01]
+ [1.77862964e-01]
+ [7.26773923e-01]
+ [6.56217700e-01]
+ [5.86511920e-01]
+ [4.88486074e-01]
+ [3.92452480e-01]
+ [2.98511242e-01]
+ [3.75138850e-01]
+ [3.14268610e-01]
+ [2.48080753e-01]
+ [4.07382298e-01]
+ [6.05567796e-01]
+ [2.57699132e-10]]</t>
         </is>
       </c>
       <c r="E546" t="inlineStr"/>
@@ -14571,7 +14568,7 @@
       <c r="C548" t="inlineStr"/>
       <c r="D548" t="inlineStr">
         <is>
-          <t>[1.]</t>
+          <t>[0.83333333]</t>
         </is>
       </c>
       <c r="E548" t="inlineStr"/>
@@ -14618,26 +14615,26 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>[[2.26638786e+10 5.91509018e+12 2.26638786e+10 5.91509018e+12
-  1.53437287e+10 1.33935873e+11]
- [2.05889312e+10 4.26732936e+12 2.05889312e+10 4.26732936e+12
-  1.42237287e+10 1.33935873e+11]
- [1.85139838e+10 2.97354386e+12 1.85139838e+10 2.97354386e+12
-  1.31037287e+10 1.33935873e+11]
- [1.64390365e+10 1.98948675e+12 1.64390365e+10 1.98948675e+12
-  1.19837287e+10 1.33935873e+11]
- [1.43640891e+10 1.27091112e+12 1.43640891e+10 1.27091112e+12
-  1.08637287e+10 1.33935873e+11]
- [1.22891417e+10 7.73570061e+11 1.22891417e+10 7.73570061e+11
-  9.74372865e+09 1.33935873e+11]
- [1.02141943e+10 4.53216655e+11 1.02141943e+10 4.53216655e+11
-  8.62372865e+09 1.33935873e+11]
- [8.13924698e+09 2.65603990e+11 8.13924698e+09 2.65603990e+11
-  7.50372865e+09 1.33935873e+11]
- [6.06429961e+09 1.66485152e+11 6.06429961e+09 1.66485152e+11
-  6.38372865e+09 1.33935873e+11]
- [3.98935224e+09 1.11613227e+11 3.98935224e+09 1.11613227e+11
-  5.26372865e+09 1.33935873e+11]]</t>
+          <t>[[2.29187368e+10 5.99424000e+12 2.29187368e+10 5.99424000e+12
+  1.56800000e+10 1.61280000e+11]
+ [2.08437895e+10 4.34021663e+12 2.08437895e+10 4.34021663e+12
+  1.45600000e+10 1.61280000e+11]
+ [1.87688421e+10 3.04016856e+12 1.87688421e+10 3.04016856e+12
+  1.34400000e+10 1.61280000e+11]
+ [1.66938947e+10 2.04984889e+12 1.66938947e+10 2.04984889e+12
+  1.23200000e+10 1.61280000e+11]
+ [1.46189474e+10 1.32501070e+12 1.46189474e+10 1.32501070e+12
+  1.12000000e+10 1.61280000e+11]
+ [1.25440000e+10 8.21407078e+11 1.25440000e+10 8.21407078e+11
+  1.00800000e+10 1.61280000e+11]
+ [1.04690526e+10 4.94791111e+11 1.04690526e+10 4.94791111e+11
+  8.96000000e+09 1.61280000e+11]
+ [8.39410526e+09 3.00915885e+11 8.39410526e+09 3.00915885e+11
+  7.84000000e+09 1.61280000e+11]
+ [6.31915789e+09 1.95534486e+11 6.31915789e+09 1.95534486e+11
+  6.72000000e+09 1.61280000e+11]
+ [4.24421053e+09 1.34400000e+11 4.24421053e+09 1.34400000e+11
+  5.60000000e+09 1.61280000e+11]]</t>
         </is>
       </c>
       <c r="E550" t="inlineStr"/>
@@ -14660,9 +14657,9 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[379.21578592 436.16264199 475.80589094 506.90660373 542.75370127
- 572.24288468 597.50857279 589.7700024  580.21343345 569.03550177
- 503.24014145 431.88297775 352.18249915]</t>
+          <t>[336.9560439  388.43785582 424.16473764 452.12457083 484.27449749
+ 510.65946695 533.22010636 534.90944214 535.3275796  534.6296143
+ 479.32439573 419.08646016 352.18249915]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14781,9 +14778,9 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>[379.21578592 436.16264199 475.80589094 506.90660373 542.75370127
- 572.24288468 597.50857279 589.7700024  580.21343345 569.03550177
- 503.24014145 431.88297775 352.18249915]</t>
+          <t>[336.9560439  388.43785582 424.16473764 452.12457083 484.27449749
+ 510.65946695 533.22010636 534.90944214 535.3275796  534.6296143
+ 479.32439573 419.08646016 352.18249915]</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -14971,9 +14968,9 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>[-379.21578592 -436.16264199 -475.80589094 -506.90660373 -542.75370127
- -572.24288468 -597.50857279 -589.7700024  -580.21343345 -569.03550177
- -503.24014145 -431.88297775 -352.18249915]</t>
+          <t>[-336.9560439  -388.43785582 -424.16473764 -452.12457083 -484.27449749
+ -510.65946695 -533.22010636 -534.90944214 -535.3275796  -534.6296143
+ -479.32439573 -419.08646016 -352.18249915]</t>
         </is>
       </c>
       <c r="E564" t="inlineStr"/>
@@ -15017,7 +15014,7 @@
       <c r="C566" t="inlineStr"/>
       <c r="D566" t="inlineStr">
         <is>
-          <t>[191.63060975 359.5223783  902.42346153 702.77959912]</t>
+          <t>[250.         250.         352.76689959 513.37264925]</t>
         </is>
       </c>
       <c r="E566" t="inlineStr"/>
@@ -15036,7 +15033,7 @@
       <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
-          <t>[1.         1.         0.89119297 0.59807685]</t>
+          <t>[1.         1.         0.94021795 0.63804355]</t>
         </is>
       </c>
       <c r="E567" t="inlineStr"/>
@@ -15055,7 +15052,7 @@
       <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
-          <t>[1.         1.         0.89119297 0.59807685]</t>
+          <t>[1.         1.         0.94021795 0.63804355]</t>
         </is>
       </c>
       <c r="E568" t="inlineStr"/>
@@ -15074,7 +15071,7 @@
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
-          <t>[0.53301441 0.37672236 0.96699627]</t>
+          <t>[1.         0.6875     0.54545455]</t>
         </is>
       </c>
       <c r="E569" t="inlineStr"/>
@@ -15117,8 +15114,8 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[5.62755981 5.62755981 5.62755981 5.62755981 5.62755981 5.62755981
- 5.62755981 5.42345379 5.21934776 5.01524173 4.34332782 3.67141391
+          <t>[5.         5.         5.         5.         5.         5.
+ 5.         4.90036325 4.80072649 4.70108974 4.13389316 3.56669658
  2.9995    ]</t>
         </is>
       </c>
@@ -15370,8 +15367,8 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.25511963 10.84690757 10.43869552 10.03048346  8.68665564  7.34282782
+          <t>[10.         10.         10.         10.         10.         10.
+ 10.          9.80072649  9.60145298  9.40217948  8.26778632  7.13339316
   5.999     ]</t>
         </is>
       </c>
@@ -15625,7 +15622,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>[17242.14756644  9212.8265823   3287.36769359  2393.14913963]</t>
+          <t>[10445.94134309 10445.94134308  6975.07066306  3022.71158124]</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -15652,7 +15649,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[270189.87038027 145073.20306884  46441.65815749  19161.2090751 ]</t>
+          <t>[129533.85103079 129533.85103079  81590.09974992  22318.38540805]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -15679,7 +15676,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>[270189.87038027 145073.20306884  46441.65815749  19161.2090751 ]</t>
+          <t>[129533.85103079 129533.85103079  81590.09974992  22318.38540805]</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -15706,7 +15703,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>[6.47471532e+12 3.47647264e+12 1.11290818e+12 4.59171078e+11]</t>
+          <t>[3.10409420e+12 3.10409420e+12 1.95519050e+12 5.34828311e+11]</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -15733,7 +15730,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>[6.47471532e+12 3.47647264e+12 1.11290818e+12 4.59171078e+11]</t>
+          <t>[3.10409420e+12 3.10409420e+12 1.95519050e+12 5.34828311e+11]</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -15760,7 +15757,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>[5.13444925e+12 2.75684280e+12 8.82536183e+11 3.64122665e+11]</t>
+          <t>[2.46154670e+12 2.46154670e+12 1.55046607e+12 4.24118850e+11]</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -15787,7 +15784,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[4.13183503e+11 2.20772264e+11 7.87770835e+10 5.73484098e+10]</t>
+          <t>[2.50322103e+11 2.50322103e+11 1.67147632e+11 7.24349768e+10]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -15895,10 +15892,10 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.48404643 0.17383188 0.17383188 0.        ]
- [0.         0.         0.9059109  0.32375114 0.32375114 0.        ]
- [0.         0.         2.5388094  0.95630545 0.95630545 0.        ]
- [0.         0.         3.48745503 1.74548052 1.74548052 0.        ]]</t>
+          <t>[[0.         0.         0.7989706  0.32215517 0.32215517 0.        ]
+ [0.         0.         0.7989706  0.32215517 0.32215517 0.        ]
+ [0.         0.         1.19654702 0.49617107 0.49617107 0.        ]
+ [0.         0.         2.76109704 1.43982463 1.43982463 0.        ]]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15921,10 +15918,10 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[[0.79532806 0.79532806 0.         0.         0.         0.08691594]
- [1.4901297  1.4901297  0.         0.         0.         0.16187557]
- [4.17918724 4.17918724 0.         0.         0.         0.47815273]
- [5.73997406 5.73997406 0.         0.         0.         0.87274026]]</t>
+          <t>[[1.3135028  1.3135028  0.         0.         0.         0.16107759]
+ [1.3135028  1.3135028  0.         0.         0.         0.16107759]
+ [1.96814907 1.96814907 0.         0.         0.         0.24808554]
+ [4.54340907 4.54340907 0.         0.         0.         0.71991231]]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -15947,7 +15944,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>[599.81546769]</t>
+          <t>[614.59196173]</t>
         </is>
       </c>
       <c r="E605" t="inlineStr"/>
@@ -15970,7 +15967,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>[3479064.96048575]</t>
+          <t>[3308254.97274794]</t>
         </is>
       </c>
       <c r="E606" t="inlineStr"/>
@@ -15993,8 +15990,8 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 11.25511963 11.25511963 11.25511963
- 11.0510136  10.64280154 10.23458949  9.35856955  8.01474173  6.67091391]</t>
+          <t>[10.         10.         10.         10.         10.         10.
+  9.90036325  9.70108974  9.50181623  8.8349829   7.70058974  6.56619658]</t>
         </is>
       </c>
       <c r="E607" t="inlineStr"/>
@@ -16017,8 +16014,8 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>[0.06284475 0.06284475 0.06284475 0.03349716 0.03349716 0.03349716
- 0.01261913 0.01261913 0.01261913 0.01220265 0.01220265 0.01220265]</t>
+          <t>[0.0428   0.0428   0.0428   0.0428   0.0428   0.0428   0.029425 0.029425
+ 0.029425 0.01605  0.01605  0.01605 ]</t>
         </is>
       </c>
       <c r="E608" t="inlineStr"/>
@@ -16065,18 +16062,18 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>[[44510406.38296624]
- [40643903.20027754]
- [36765567.75286679]
- [56918331.34580661]
- [45373178.36340155]
- [33810307.69418503]
- [72521392.31708293]
- [56859950.81589282]
- [38271815.59549224]
- [21430731.91686315]
- [-5080490.80169492]
- [ 2072988.71208318]]</t>
+          <t>[[84785528.45430747]
+ [76767167.65663137]
+ [68692275.48310992]
+ [57083760.76750164]
+ [45430774.36210819]
+ [33768822.12537252]
+ [39305291.0582834 ]
+ [29973995.38354652]
+ [19770093.53625778]
+ [19215455.90324736]
+ [-3457189.51209306]
+ [ 1996120.93592525]]</t>
         </is>
       </c>
       <c r="E610" t="inlineStr"/>
@@ -16099,18 +16096,18 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>[[ 2036965.56333873]
- [ 2037422.39304889]
- [ 2037837.54196465]
- [ 3817413.15285623]
- [ 3818610.08601949]
- [ 3819577.12554371]
- [10314636.83138407]
- [10732530.42046368]
- [11185430.39015051]
- [12716572.37131005]
- [15002730.51193505]
- [18284774.9929488 ]]</t>
+          <t>[[ 3385516.91689541]
+ [ 3386480.99962908]
+ [ 3387357.52483876]
+ [ 3389729.73027715]
+ [ 3391080.23780544]
+ [ 3392170.1449675 ]
+ [ 4976636.97037427]
+ [ 5085404.89257048]
+ [ 5198921.0136402 ]
+ [10283433.04669582]
+ [11912235.95407424]
+ [14150230.74250109]]</t>
         </is>
       </c>
       <c r="E611" t="inlineStr"/>
@@ -16133,18 +16130,18 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>[[ -4882.34449039]
- [ -5469.54735579]
- [ -5901.70827369]
- [-11870.58790393]
- [-12624.08508531]
- [-13255.92397436]
- [-35781.26086842]
- [-35223.50145403]
- [-34559.46197971]
- [-33270.75252486]
- [-28951.41242615]
- [-24457.60082907]]</t>
+          <t>[[ -6377.27477098]
+ [ -7144.27390968]
+ [ -7708.75864117]
+ [ -8244.32885357]
+ [ -8767.64569381]
+ [ -9206.46874337]
+ [-13723.76474916]
+ [-13745.43977165]
+ [-13735.92943175]
+ [-23868.74448799]
+ [-21137.56498899]
+ [-18292.42841314]]</t>
         </is>
       </c>
       <c r="E612" t="inlineStr"/>
@@ -16197,18 +16194,18 @@
       <c r="C614" t="inlineStr"/>
       <c r="D614" t="inlineStr">
         <is>
-          <t>[[0.22714507]
- [0.20754549]
- [0.18789969]
- [0.29151813]
- [0.2332825 ]
- [0.17528627]
- [0.38003085]
- [0.30439473]
- [0.21828896]
- [0.15638764]
- [0.13467576]
- [0.16145359]]</t>
+          <t>[[0.43234677]
+ [0.39166762]
+ [0.35072641]
+ [0.29193534]
+ [0.2330499 ]
+ [0.17438431]
+ [0.20473001]
+ [0.15895715]
+ [0.11054212]
+ [0.13332679]
+ [0.1064115 ]
+ [0.12509243]]</t>
         </is>
       </c>
       <c r="E614" t="inlineStr"/>
@@ -16227,18 +16224,18 @@
       <c r="C615" t="inlineStr"/>
       <c r="D615" t="inlineStr">
         <is>
-          <t>[[0.05547043]
- [0.05075066]
- [0.04609993]
- [0.152468  ]
- [0.14225956]
- [0.13213236]
- [0.99550671]
- [0.97585939]
- [0.95772262]
- [0.99977359]
- [0.99350916]
- [0.99958916]]</t>
+          <t>[[0.11470367]
+ [0.10924344]
+ [0.10380723]
+ [0.10231916]
+ [0.0947785 ]
+ [0.08735857]
+ [0.16047418]
+ [0.15501669]
+ [0.14976069]
+ [0.54319038]
+ [0.54142047]
+ [0.54630661]]</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -16257,18 +16254,18 @@
       <c r="C616" t="inlineStr"/>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[[0.77866096]
- [0.70297502]
- [0.62748969]
- [0.99887051]
- [0.8128867 ]
- [0.62803088]
- [1.49061068]
- [1.30167003]
- [1.06907883]
- [0.93330427]
- [0.70184037]
- [1.11877101]]</t>
+          <t>[[1.16578828]
+ [1.05960671]
+ [0.95354575]
+ [0.80249423]
+ [0.65240012]
+ [0.50360623]
+ [0.62682431]
+ [0.52288543]
+ [0.4085355 ]
+ [0.62409947]
+ [0.46243931]
+ [0.68992817]]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16384,7 +16381,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[0.28716291]</t>
+          <t>[0.2445569]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16407,7 +16404,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[0.29114955]</t>
+          <t>[0.24656386]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16430,7 +16427,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[0.28716291 0.29114955 0.83527197 1.01351936 1.20054416 2.85486894]</t>
+          <t>[0.2445569  0.24656386 0.89565182 1.03481553 1.21091789 2.51109356]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16449,9 +16446,12 @@
       <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[[   0.73495861    0.93098605   -2.5691203     3.17918921   -1.27601357]
- [  15.77097769   26.17347529 -110.08553055  141.10338788  -71.96231031]
- [ -67.50561298  187.1399769  -371.80565477  462.90526229 -209.73397143]]</t>
+          <t>[[ 1.48987146e+00 -5.67988357e-01 -2.01324936e-01  3.51785568e-01
+  -7.23437313e-02]
+ [-3.71188552e+02  9.36427497e+00  1.49216466e+03 -2.19398460e+03
+   1.06464422e+03]
+ [-6.43193397e+01  1.87085366e+02 -2.85517227e+02  2.79315852e+02
+  -1.15564652e+02]]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16470,9 +16470,12 @@
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr">
         <is>
-          <t>[[   0.72745053    0.8883242    -2.42622623    2.99675372   -1.18630223]
- [   7.58922129   18.48173139  -69.45326244   88.79877028  -44.41646052]
- [ -66.00366987  179.75125482 -355.6859041   442.96726746 -200.02894831]]</t>
+          <t>[[ 1.48206657e+00 -5.89595456e-01 -1.02737831e-01  2.22422399e-01
+  -1.21556817e-02]
+ [ 4.77816560e+01  2.45657690e+01 -2.66490957e+02  3.72918534e+02
+  -1.77775002e+02]
+ [-6.05918334e+01  1.70921710e+02 -2.54676549e+02  2.46678699e+02
+  -1.01332027e+02]]</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
@@ -16491,7 +16494,7 @@
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[[  3.9091499  -15.46003061  28.39847446 -22.4429494    6.59535565]
+          <t>[[  8.06250893 -30.45867998  51.86256028 -41.49903082  13.0326416 ]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -16516,7 +16519,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>[0.29114955 1.20054416 2.90214752]</t>
+          <t>[0.24656386 1.21091789 2.59375561]</t>
         </is>
       </c>
       <c r="E627" t="inlineStr"/>
@@ -16539,7 +16542,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>[0.28716291 1.01351936 2.85486894]</t>
+          <t>[0.2445569  1.03481553 2.51109356]</t>
         </is>
       </c>
       <c r="E628" t="inlineStr"/>
@@ -16562,7 +16565,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>[4.58856713 0.         0.        ]</t>
+          <t>[5.05832763 0.         0.        ]</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
@@ -16586,18 +16589,18 @@
       <c r="D630" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00389707]
- [0.01458746]
- [0.03145044]
- [0.07000912]
- [0.12627577]
- [0.19684839]
- [0.24875141]
- [0.31009066]
- [0.37956647]
- [0.45085618]
- [0.52758613]
- [0.60706706]]</t>
+ [0.00807027]
+ [0.03044537]
+ [0.06582116]
+ [0.13630738]
+ [0.22679944]
+ [0.33343702]
+ [0.40478469]
+ [0.48166042]
+ [0.56305085]
+ [0.64412638]
+ [0.72997404]
+ [0.8181007 ]]</t>
         </is>
       </c>
       <c r="E630" t="inlineStr"/>
@@ -16620,7 +16623,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>[0.60706706]</t>
+          <t>[0.8181007]</t>
         </is>
       </c>
       <c r="E631" t="inlineStr"/>
@@ -16643,18 +16646,18 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[[-17581868.81866707]
- [-15535373.03609618]
- [-13488454.53626316]
- [-11921534.11336181]
- [-10354055.9707657 ]
- [ -8786110.43206897]
- [ -8433670.15210593]
- [ -8094126.23481462]
- [ -7767496.2947648 ]
- [ -7497685.08182917]
- [ -7266582.91499614]
- [ -7074256.27587359]]</t>
+          <t>[[-17893484.9036034 ]
+ [-16652086.55589887]
+ [-15410307.66054134]
+ [-13635824.70379636]
+ [-11860842.08403933]
+ [-10085441.65748331]
+ [ -9357668.97912271]
+ [ -8644464.41172472]
+ [ -7945840.18245411]
+ [ -7612490.6424134 ]
+ [ -7321944.18411436]
+ [ -7074256.2758736 ]]</t>
         </is>
       </c>
       <c r="E632" t="inlineStr"/>
@@ -16677,18 +16680,18 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[[2428255.89818455]
- [2428831.78821668]
- [2429355.27536736]
- [2429677.84779049]
- [2430483.21924698]
- [2431134.32492581]
- [2428809.69941066]
- [2428932.21824535]
- [2429022.40079499]
- [2428922.00090582]
- [2428844.34191472]
- [2428717.89010267]]</t>
+          <t>[[2428340.49588803]
+ [2429076.15016301]
+ [2429745.150357  ]
+ [2431552.74336647]
+ [2432583.30649191]
+ [2433415.48350294]
+ [2430434.81124687]
+ [2430575.11856734]
+ [2430673.38284943]
+ [2429325.40790102]
+ [2429217.64005877]
+ [2429056.55177362]]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
@@ -16711,18 +16714,18 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>[[29099.08818721]
- [29106.7812989 ]
- [29113.8462937 ]
- [29118.35574401]
- [29129.61652312]
- [29139.02542606]
- [29107.12312413]
- [29109.13948122]
- [29110.79196311]
- [29109.73456757]
- [29109.17000649]
- [29108.20051138]]</t>
+          <t>[[29100.21082235]
+ [29110.03624615]
+ [29119.06229751]
+ [29143.55247813]
+ [29157.95209706]
+ [29169.96603069]
+ [29129.46422283]
+ [29131.80374907]
+ [29133.65301517]
+ [29114.96600434]
+ [29114.11634867]
+ [29112.79357358]]</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
@@ -16745,18 +16748,18 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>[[-4313612.79648616]
- [-3959901.51749312]
- [-3605186.99257309]
- [-3096455.15703409]
- [-2585572.95708837]
- [-2073753.12757178]
- [-1766314.63846872]
- [-1457873.12285592]
- [-1148601.68407131]
- [ -859296.06771067]
- [ -569287.77243734]
- [ -278501.78866552]]</t>
+          <t>[[-4353455.09897782]
+ [-3996917.79067181]
+ [-3637829.27863067]
+ [-3121492.70759842]
+ [-2603010.98202662]
+ [-2083944.61032928]
+ [-1772934.3694098 ]
+ [-1461831.17164323]
+ [-1150827.53818356]
+ [ -860547.19776195]
+ [ -569774.79627189]
+ [ -278501.81987501]]</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
@@ -16779,18 +16782,18 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>[[ 3.22907203e+08]
- [ 2.93410923e+08]
- [ 2.63840633e+08]
- [ 2.21452363e+08]
- [ 1.78912437e+08]
- [ 1.36312590e+08]
- [ 1.10734548e+08]
- [ 8.50958754e+07]
- [ 5.94121751e+07]
- [ 3.54118292e+07]
- [ 1.13899515e+07]
- [-1.26341966e+07]]</t>
+          <t>[[ 3.25953229e+08]
+ [ 2.96244541e+08]
+ [ 2.66347158e+08]
+ [ 2.23393035e+08]
+ [ 1.80289949e+08]
+ [ 1.37155989e+08]
+ [ 1.11314234e+08]
+ [ 8.54735057e+07]
+ [ 5.96485756e+07]
+ [ 3.55577560e+07]
+ [ 1.14576593e+07]
+ [-1.26341967e+07]]</t>
         </is>
       </c>
       <c r="E636" t="inlineStr"/>
@@ -16813,18 +16816,18 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[[1299606.59069358]
- [1299591.42110183]
- [1299576.24758501]
- [1299648.2353436 ]
- [1299626.49048566]
- [1299604.73861601]
- [1299790.13686318]
- [1299789.06533718]
- [1299788.4299843 ]
- [1299816.38258403]
- [1299861.64156251]
- [1299927.65794302]]</t>
+          <t>[[1299695.24279712]
+ [1299680.05421094]
+ [1299664.85960162]
+ [1299649.66068986]
+ [1299627.94229549]
+ [1299606.21851177]
+ [1299642.18117576]
+ [1299632.57261275]
+ [1299622.83265684]
+ [1299753.91699874]
+ [1299783.0489597 ]
+ [1299824.39641589]]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
@@ -16847,9 +16850,9 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>[[  2427925.55809669]
- [    29094.73368413]
- [-19627787.44576477]]</t>
+          <t>[[  2427925.55809688]
+ [    29094.73368412]
+ [-19134362.15263613]]</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
@@ -16872,8 +16875,8 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>[[-4.66582509e+06]
- [ 3.52291370e+08]
+          <t>[[-4.70669516e+06]
+ [ 3.55415151e+08]
  [ 1.29946107e+06]]</t>
         </is>
       </c>
@@ -16897,7 +16900,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[2239474.70739141]</t>
+          <t>[2189858.81257325]</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
@@ -16920,7 +16923,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[-2.85646681e+00 -4.21979895e-02  9.93869778e+01]</t>
+          <t>[-2.92118612e+00 -4.31540744e-02  1.07926329e+02]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16943,7 +16946,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[3.06425330e+10 3.05050459e+10 2.96004138e+08 7.86163621e+02
+          <t>[3.23478376e+10 3.22103506e+10 2.86562094e+08 7.86163621e+02
  1.35359722e+07 1.70976373e+05]</t>
         </is>
       </c>
@@ -18452,7 +18455,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>[2.7427184]</t>
+          <t>[2.77192347]</t>
         </is>
       </c>
       <c r="E695" t="inlineStr"/>
@@ -19584,8 +19587,7 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>[11.27941854 11.27941854 11.27941854 11.27941854 11.25511963 11.25511963
- 11.25511963]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
@@ -19612,7 +19614,8 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[[0.077 0.077 0.077 0.077 0.077 0.077 0.077]]</t>
+          <t>[[0.0846081  0.13       0.13       0.1125613  0.12625104 0.1231626
+  0.09344583]]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -19828,7 +19831,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[11.25511963 11.25511963 11.25511963 10.03048346  5.999     ]</t>
+          <t>[10.         10.         10.          9.40217948  5.999     ]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
@@ -19878,7 +19881,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>[[0.06752031 0.04994652 0.012665   0.01092216 0.01188653]]</t>
+          <t>[[0.04  0.04  0.04  0.015 0.015]]</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">

--- a/examples/99_tower_gbf/15mw/40m/outputs_mono/monotow_output.xlsx
+++ b/examples/99_tower_gbf/15mw/40m/outputs_mono/monotow_output.xlsx
@@ -914,8 +914,8 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[[0.0846081  0.13       0.13       0.1125613  0.12625104 0.1231626
-  0.09344583]]</t>
+          <t>[[0.077      0.077      0.10899189 0.10222288 0.09395748 0.0937197
+  0.08567434]]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[10.]</t>
+          <t>[12.]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[[0.04  0.04  0.04  0.015 0.015]]</t>
+          <t>[[0.03816988 0.01965148 0.01849356 0.015      0.015     ]]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[10.         10.         10.          9.40217948  5.999     ]</t>
+          <t>[12.         12.         12.          9.26443906  5.99905101]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -4573,10 +4573,10 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          36803.2377582
-  37864.58420966  41115.75313184  46764.63106935  55173.39670577
-  66895.10137592  82741.68351929  96169.34371611 112453.90228731
- 132280.93189279      0.              0.              0.
+          <t>[     0.              0.              0.          36803.23775821
+  37864.58420967  41115.75313185  46764.63106935  55173.39670578
+  66895.10137593  82741.6835193   96169.34371612 112453.90228733
+ 132280.93189281      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -4969,10 +4969,10 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          36803.2377582
-  37864.58420966  41115.75313184  46764.63106935  55173.39670577
-  66895.10137592  82741.68351929  96169.34371611 112453.90228731
- 132280.93189279      0.              0.              0.
+          <t>[     0.              0.              0.          36803.23775821
+  37864.58420967  41115.75313185  46764.63106935  55173.39670578
+  66895.10137593  82741.6835193   96169.34371612 112453.90228733
+ 132280.93189281      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5115,10 +5115,10 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -36803.2377582
-  -37864.58420966  -41115.75313184  -46764.63106935  -55173.39670577
-  -66895.10137592  -82741.68351929  -96169.34371611 -112453.90228731
- -132280.93189279       0.               0.               0.
+          <t>[      0.               0.               0.          -36803.23775821
+  -37864.58420967  -41115.75313185  -46764.63106935  -55173.39670578
+  -66895.10137593  -82741.6835193   -96169.34371612 -112453.90228733
+ -132280.93189281       0.               0.               0.
        0.               0.               0.        ]</t>
         </is>
       </c>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[0.10730405 0.13       0.12128065 0.11940617 0.12470682 0.10830422]</t>
+          <t>[0.077      0.09299594 0.10560738 0.09809018 0.09383859 0.08969702]</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[0.10730405 0.13       0.12128065 0.11940617 0.12470682 0.10830422]</t>
+          <t>[0.077      0.09299594 0.10560738 0.09809018 0.09383859 0.08969702]</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -5544,9 +5544,9 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[0.10730405 0.10730405 0.10730405 0.13       0.13       0.13
- 0.12128065 0.12128065 0.12128065 0.11940617 0.11940617 0.11940617
- 0.12470682 0.12470682 0.12470682 0.10830422 0.10830422 0.10830422]</t>
+          <t>[0.077      0.077      0.077      0.09299594 0.09299594 0.09299594
+ 0.10560738 0.10560738 0.10560738 0.09809018 0.09809018 0.09809018
+ 0.09383859 0.09383859 0.09383859 0.08969702 0.08969702 0.08969702]</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[3106395.42644982]</t>
+          <t>[2390780.30517852]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[7306625.93005354]</t>
+          <t>[5737480.24378664]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[43.39158094]</t>
+          <t>[44.5553843]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[7.70469168e+09 7.70469168e+09 1.09653272e+08 0.00000000e+00
+          <t>[6.15018061e+09 6.15018061e+09 8.47680591e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[1222783.92244969]</t>
+          <t>[870055.29974067]</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>[3308254.97274794]</t>
+          <t>[2620539.13736922]</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -5915,9 +5915,9 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[4.28973121 4.28973121 4.28973121 5.18713704 5.18713704 5.18713704
- 4.84278061 4.84278061 4.84278061 4.76868424 4.76868424 4.76868424
- 4.97815248 4.97815248 4.97815248 4.32935116 4.32935116 4.32935116]</t>
+          <t>[3.08609947 3.08609947 3.08609947 3.7222039  3.7222039  3.7222039
+ 4.22250525 4.22250525 4.22250525 3.92442313 3.92442313 3.92442313
+ 3.7556654  3.7556654  3.7556654  3.59115776 3.59115776 3.59115776]</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -5940,9 +5940,9 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>[2.44421374 2.44421374 2.44421374 2.95820274 2.95820274 2.95820274
- 2.76085775 2.76085775 2.76085775 2.71841315 2.71841315 2.71841315
- 2.83841993 2.83841993 2.83841993 2.46688566 2.46688566 2.46688566]</t>
+          <t>[1.75633078 1.75633078 1.75633078 2.11965815 2.11965815 2.11965815
+ 2.40574895 2.40574895 2.40574895 2.23525917 2.23525917 2.23525917
+ 2.13878351 2.13878351 2.13878351 2.04476954 2.04476954 2.04476954]</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -5965,9 +5965,9 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>[2.44421374 2.44421374 2.44421374 2.95820274 2.95820274 2.95820274
- 2.76085775 2.76085775 2.76085775 2.71841315 2.71841315 2.71841315
- 2.83841993 2.83841993 2.83841993 2.46688566 2.46688566 2.46688566]</t>
+          <t>[1.75633078 1.75633078 1.75633078 2.11965815 2.11965815 2.11965815
+ 2.40574895 2.40574895 2.40574895 2.23525917 2.23525917 2.23525917
+ 2.13878351 2.13878351 2.13878351 2.04476954 2.04476954 2.04476954]</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -5990,9 +5990,9 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[75.84659337 75.84659337 75.84659337 91.36739888 91.36739888 91.36739888
- 85.42585225 85.42585225 85.42585225 84.14508307 84.14508307 84.14508307
- 87.76367068 87.76367068 87.76367068 76.53435548 76.53435548 76.53435548]</t>
+          <t>[54.84147579 54.84147579 54.84147579 65.96926831 65.96926831 65.96926831
+ 74.67908466 74.67908466 74.67908466 69.49421421 69.49421421 69.49421421
+ 66.55296603 66.55296603 66.55296603 63.68171449 63.68171449 63.68171449]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -6015,9 +6015,9 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[75.84659337 75.84659337 75.84659337 91.36739888 91.36739888 91.36739888
- 85.42585225 85.42585225 85.42585225 84.14508307 84.14508307 84.14508307
- 87.76367068 87.76367068 87.76367068 76.53435548 76.53435548 76.53435548]</t>
+          <t>[54.84147579 54.84147579 54.84147579 65.96926831 65.96926831 65.96926831
+ 74.67908466 74.67908466 74.67908466 69.49421421 69.49421421 69.49421421
+ 66.55296603 66.55296603 66.55296603 63.68171449 63.68171449 63.68171449]</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -6040,10 +6040,10 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[151.69318674 151.69318674 151.69318674 182.73479777 182.73479777
- 182.73479777 170.8517045  170.8517045  170.8517045  168.29016614
- 168.29016614 168.29016614 175.52734136 175.52734136 175.52734136
- 153.06871096 153.06871096 153.06871096]</t>
+          <t>[109.68295159 109.68295159 109.68295159 131.93853662 131.93853662
+ 131.93853662 149.35816931 149.35816931 149.35816931 138.98842842
+ 138.98842842 138.98842842 133.10593207 133.10593207 133.10593207
+ 127.36342897 127.36342897 127.36342897]</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -6238,8 +6238,8 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>[1.33922325 1.33922325 1.33922325 1.33922325 1.33922325 1.33922325
- 0.91266094 0.89423983 0.87581871 0.44472614 0.38752713 0.33032812]</t>
+          <t>[1.16339087 1.16339087 1.16339087 0.76812547 0.76812547 0.76812547
+ 0.6489236  0.59759137 0.54625914 0.43893888 0.3840558  0.32917272]</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -6262,8 +6262,8 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>[0.76132308 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308
- 0.5185449  0.50809159 0.4976383  0.25255761 0.22009905 0.18764054]</t>
+          <t>[0.66089274 0.66089274 0.66089274 0.4361934  0.4361934  0.4361934
+ 0.36847991 0.3393505  0.31022111 0.24927353 0.21812918 0.1869849 ]</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -6286,8 +6286,8 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[0.76132308 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308
- 0.5185449  0.50809159 0.4976383  0.25255761 0.22009905 0.18764054]</t>
+          <t>[0.66089274 0.66089274 0.66089274 0.4361934  0.4361934  0.4361934
+ 0.36847991 0.3393505  0.31022111 0.24927353 0.21812918 0.1869849 ]</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -6310,8 +6310,8 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[16.60690398 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398
- 11.1201102  10.4602692   9.82706085  4.32453491  2.86133146  1.77214435]</t>
+          <t>[20.84037544 20.84037544 20.84037544 13.78237805 13.78237805 13.78237805
+ 10.77858316  8.41771251  6.4295045   4.15789604  2.78512608  1.753614  ]</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -6334,8 +6334,8 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[16.60690398 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398
- 11.1201102  10.4602692   9.82706085  4.32453491  2.86133146  1.77214435]</t>
+          <t>[20.84037544 20.84037544 20.84037544 13.78237805 13.78237805 13.78237805
+ 10.77858316  8.41771251  6.4295045   4.15789604  2.78512608  1.753614  ]</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -6358,8 +6358,8 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[33.21380796 33.21380796 33.21380796 33.21380796 33.21380796 33.21380796
- 22.24022039 20.9205384  19.6541217   8.64906983  5.72266293  3.54428869]</t>
+          <t>[41.68075089 41.68075089 41.68075089 27.5647561  27.5647561  27.5647561
+ 21.55716632 16.83542502 12.859009    8.31579208  5.57025217  3.507228  ]</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -6453,9 +6453,9 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>[10.         10.         10.         10.         10.         10.
- 10.          9.80072649  9.60145298  9.40217948  8.26778632  7.13339316
-  5.999     ]</t>
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         11.08814635 10.1762927   9.26443906  8.17597637  7.08751369
+  5.99905101]</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
@@ -6478,8 +6478,8 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[0.04   0.04   0.04   0.04   0.04   0.04   0.0275 0.0275 0.0275 0.015
- 0.015  0.015 ]</t>
+          <t>[0.02891068 0.02891068 0.02891068 0.01907252 0.01907252 0.01907252
+ 0.01674678 0.01674678 0.01674678 0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -6584,9 +6584,9 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>[[  2427925.55809688]
- [    29094.73368412]
- [-19134362.15263613]]</t>
+          <t>[[  2427925.55809672]
+ [    29094.73368413]
+ [-15684451.76406306]]</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -6609,8 +6609,8 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[[-4.70669516e+06]
- [ 3.55415151e+08]
+          <t>[[-4.69153409e+06]
+ [ 3.54236071e+08]
  [ 1.29946107e+06]]</t>
         </is>
       </c>
@@ -6634,8 +6634,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>[1799999.99999952 1799999.99999952 3599999.99999904       0.
-       0.               0.        ]</t>
+          <t>[1800000. 1800000. 3600000.       0.       0.       0.]</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -6727,7 +6726,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>[2189858.81257325]</t>
+          <t>[1837130.18986423]</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -6750,7 +6749,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>[-2.92118612e+00 -4.31540744e-02  1.07926329e+02]</t>
+          <t>[-3.48205326e+00 -5.14396479e-02  1.16237311e+02]</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -6773,7 +6772,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>[3.23478376e+10 3.22103506e+10 2.86562094e+08 7.86163621e+02
+          <t>[3.05856128e+10 3.04481258e+10 2.85707966e+08 7.86163621e+02
  1.35359722e+07 1.70976373e+05]</t>
         </is>
       </c>
@@ -6882,16 +6881,16 @@
           <t>[[      0.        ]
  [      0.        ]
  [      0.        ]
- [ -36803.2377582 ]
- [ -37864.58420966]
- [ -41115.75313184]
+ [ -36803.23775821]
+ [ -37864.58420967]
+ [ -41115.75313185]
  [ -46764.63106935]
- [ -55173.39670577]
- [ -66895.10137592]
- [ -82741.68351929]
- [ -96169.34371611]
- [-112453.90228731]
- [-132280.93189279]
+ [ -55173.39670578]
+ [ -66895.10137593]
+ [ -82741.6835193 ]
+ [ -96169.34371612]
+ [-112453.90228733]
+ [-132280.93189281]
  [      0.        ]
  [      0.        ]
  [      0.        ]
@@ -6990,19 +6989,19 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[[-336.9560439 ]
- [-388.43785582]
- [-424.16473764]
- [-452.12457083]
- [-484.27449749]
- [-510.65946695]
- [-533.22010636]
- [-534.90944214]
- [-535.3275796 ]
- [-534.6296143 ]
- [-479.32439573]
- [-419.08646016]
- [-352.18249915]]</t>
+          <t>[[-403.67324327]
+ [-463.99223289]
+ [-506.07689928]
+ [-539.14849713]
+ [-577.32846487]
+ [-608.78594237]
+ [-635.77318933]
+ [-602.40449388]
+ [-566.17637828]
+ [-527.04601147]
+ [-474.03639761]
+ [-416.26233144]
+ [-352.18591523]]</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -7025,24 +7024,24 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[[-50259018.61441711]
- [-46977830.26419896]
- [-43514465.89150829]
- [-41345858.80025245]
- [-39166578.23323569]
- [-36965270.05105241]
- [-34860867.26024969]
- [-32706641.56121019]
- [-30484184.36870564]
- [-28973135.59130349]
- [-27413061.65367224]
- [-25793403.58721435]
- [-24305887.63391743]
- [-23036635.22434129]
- [-21767382.8147653 ]
- [-21215467.25533009]
- [-20663551.69589502]
- [-20111636.13645869]]</t>
+          <t>[[-40712353.11316478]
+ [-38351814.98322316]
+ [-35809100.83080901]
+ [-34200752.72351147]
+ [-32581731.14045326]
+ [-30940681.94222826]
+ [-29073501.54566068]
+ [-27156498.24085671]
+ [-25171263.44258812]
+ [-23875471.32773583]
+ [-22530654.05265409]
+ [-21126252.64874621]
+ [-19950427.50213276]
+ [-18992865.8992408 ]
+ [-18035304.29634847]
+ [-17577495.3142112 ]
+ [-17119686.33207373]
+ [-16661877.34993597]]</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -7065,24 +7064,24 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[[-4960965.24751493]
- [-9948375.60473385]
- [-8416483.49774286]
- [ 2428452.11393152]
- [ 2428590.42565697]
- [ 2428730.32199327]
- [ 2428823.38636952]
- [ 2428975.68812739]
- [ 2429139.71888602]
- [ 2428825.55043598]
- [ 2428913.78093093]
- [ 2429011.31009446]
- [ 2429032.62030743]
- [ 2428868.96072763]
- [ 2428911.63731962]
- [ 2428369.1052766 ]
- [ 2428379.37528822]
- [ 2428389.52189506]]</t>
+          <t>[[-4050221.48588416]
+ [-9455987.2593373 ]
+ [-9262196.08402229]
+ [ 2428416.98058016]
+ [ 2428559.53067922]
+ [ 2428705.22208622]
+ [ 2428953.74091511]
+ [ 2429114.00725635]
+ [ 2429289.28491073]
+ [ 2428890.8551603 ]
+ [ 2428988.71651703]
+ [ 2429098.28521498]
+ [ 2429031.44722835]
+ [ 2428816.03626743]
+ [ 2428858.38770188]
+ [ 2428386.80856958]
+ [ 2428397.01984373]
+ [ 2428407.10803034]]</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -7105,24 +7104,24 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[[ -64209.29717355]
- [-129053.96150876]
- [-110169.67755855]
- [  29101.52654588]
- [  29103.32014411]
- [  29105.13770727]
- [  29106.35251625]
- [  29108.33841803]
- [  29110.48078282]
- [  29106.41680911]
- [  29107.57185877]
- [  29108.8496345 ]
- [  29109.13794055]
- [  29107.01773127]
- [  29107.58321465]
- [  29100.5165485 ]
- [  29100.65309398]
- [  29100.78815872]]</t>
+          <t>[[ -52414.36363723]
+ [-122612.41563136]
+ [-121017.141398  ]
+ [  29101.07380143]
+ [  29102.92230658]
+ [  29104.81503557]
+ [  29108.04336625]
+ [  29110.13266794]
+ [  29112.42115604]
+ [  29107.26370641]
+ [  29108.54415401]
+ [  29109.97880452]
+ [  29109.1206207 ]
+ [  29106.32749067]
+ [  29106.88868614]
+ [  29100.74744643]
+ [  29100.88321736]
+ [  29101.01751132]]</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -7145,24 +7144,24 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[[ -949260.92967828]
- [-3193448.69508434]
- [-5355230.25343184]
- [-5922462.29354208]
- [-5775359.04489594]
- [-5628032.18873845]
- [-5480513.37062002]
- [-5332831.39225603]
- [-5185030.64327387]
- [-5086471.83785245]
- [-4987894.34229581]
- [-4889312.45738756]
- [-4790743.99109842]
- [-4692193.26089436]
- [-4593656.03904807]
- [-4544404.43181448]
- [-4495154.74106082]
- [-4445907.92572987]]</t>
+          <t>[[ -692713.09384914]
+ [-2781054.42111057]
+ [-5176155.77902887]
+ [-5911696.36111177]
+ [-5764492.14143563]
+ [-5617013.91596312]
+ [-5469329.56918711]
+ [-5321512.46419361]
+ [-5173607.97876291]
+ [-5074996.88318915]
+ [-4976373.2427324 ]
+ [-4877752.41401612]
+ [-4779148.97006022]
+ [-4680556.12238019]
+ [-4581966.40853969]
+ [-4532685.34676678]
+ [-4483407.08960671]
+ [-4434132.5912298 ]]</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -7185,24 +7184,24 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[[7.36152918e+07]
- [2.47242454e+08]
- [4.13626027e+08]
- [4.56667511e+08]
- [4.44401702e+08]
- [4.32118727e+08]
- [4.19821064e+08]
- [4.07510979e+08]
- [3.95191925e+08]
- [3.86977407e+08]
- [3.78761543e+08]
- [3.70545434e+08]
- [3.62330452e+08]
- [3.54116925e+08]
- [3.45904525e+08]
- [3.41799661e+08]
- [3.37694970e+08]
- [3.33590525e+08]]</t>
+          <t>[[5.37074831e+07]
+ [2.15290000e+08]
+ [3.99788129e+08]
+ [4.55843476e+08]
+ [4.43569866e+08]
+ [4.31275212e+08]
+ [4.18964807e+08]
+ [4.06644320e+08]
+ [3.94317273e+08]
+ [3.86098719e+08]
+ [3.77879291e+08]
+ [3.69660173e+08]
+ [3.61442486e+08]
+ [3.53225712e+08]
+ [3.45009277e+08]
+ [3.40902155e+08]
+ [3.36795273e+08]
+ [3.32688706e+08]]</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -7225,24 +7224,24 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[[ 238417.20387204]
- [ 508799.83417732]
- [ 847402.97550448]
- [1299598.5545965 ]
- [1299591.70235262]
- [1299584.81645607]
- [1299586.16624245]
- [1299579.04418661]
- [1299571.75359298]
- [1299565.83518042]
- [1299560.64194199]
- [1299555.2802553 ]
- [1299545.98384716]
- [1299541.08675091]
- [1299536.90823585]
- [1299543.46886301]
- [1299541.37959438]
- [1299539.29033246]]</t>
+          <t>[[ 214212.23088701]
+ [ 468147.23156491]
+ [ 808897.11942993]
+ [1299618.73909802]
+ [1299611.6568197 ]
+ [1299604.52761924]
+ [1299581.15914771]
+ [1299573.91171797]
+ [1299566.47098552]
+ [1299566.1863401 ]
+ [1299560.7748354 ]
+ [1299555.15863883]
+ [1299553.25802483]
+ [1299548.12697978]
+ [1299543.94841926]
+ [1299543.37511208]
+ [1299541.28584367]
+ [1299539.19658199]]</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -7297,9 +7296,9 @@
           <t>[12.         12.         12.         12.         12.         12.
  12.         12.         12.         12.         12.         12.
  12.         12.         12.         12.         12.         12.
- 10.         10.         10.         10.         10.         10.
- 10.          9.80072649  9.60145298  9.40217948  8.26778632  7.13339316
-  5.999     ]</t>
+ 12.         12.         12.         12.         12.         12.
+ 12.         11.08814635 10.1762927   9.26443906  8.17597637  7.08751369
+  5.99905101]</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -7322,11 +7321,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>[0.10730405 0.10730405 0.10730405 0.13       0.13       0.13
- 0.12128065 0.12128065 0.12128065 0.11940617 0.11940617 0.11940617
- 0.12470682 0.12470682 0.12470682 0.10830422 0.10830422 0.10830422
- 0.04       0.04       0.04       0.04       0.04       0.04
- 0.0275     0.0275     0.0275     0.015      0.015      0.015     ]</t>
+          <t>[0.077      0.077      0.077      0.09299594 0.09299594 0.09299594
+ 0.10560738 0.10560738 0.10560738 0.09809018 0.09809018 0.09809018
+ 0.09383859 0.09383859 0.09383859 0.08969702 0.08969702 0.08969702
+ 0.02891068 0.02891068 0.02891068 0.01907252 0.01907252 0.01907252
+ 0.01674678 0.01674678 0.01674678 0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -7474,11 +7473,11 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>[4.28973121 4.28973121 4.28973121 5.18713704 5.18713704 5.18713704
- 4.84278061 4.84278061 4.84278061 4.76868424 4.76868424 4.76868424
- 4.97815248 4.97815248 4.97815248 4.32935116 4.32935116 4.32935116
- 1.33922325 1.33922325 1.33922325 1.33922325 1.33922325 1.33922325
- 0.91266094 0.89423983 0.87581871 0.44472614 0.38752713 0.33032812]</t>
+          <t>[3.08609947 3.08609947 3.08609947 3.7222039  3.7222039  3.7222039
+ 4.22250525 4.22250525 4.22250525 3.92442313 3.92442313 3.92442313
+ 3.7556654  3.7556654  3.7556654  3.59115776 3.59115776 3.59115776
+ 1.16339087 1.16339087 1.16339087 0.76812547 0.76812547 0.76812547
+ 0.6489236  0.59759137 0.54625914 0.43893888 0.3840558  0.32917272]</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -7501,11 +7500,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>[2.44421374 2.44421374 2.44421374 2.95820274 2.95820274 2.95820274
- 2.76085775 2.76085775 2.76085775 2.71841315 2.71841315 2.71841315
- 2.83841993 2.83841993 2.83841993 2.46688566 2.46688566 2.46688566
- 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308
- 0.5185449  0.50809159 0.4976383  0.25255761 0.22009905 0.18764054]</t>
+          <t>[1.75633078 1.75633078 1.75633078 2.11965815 2.11965815 2.11965815
+ 2.40574895 2.40574895 2.40574895 2.23525917 2.23525917 2.23525917
+ 2.13878351 2.13878351 2.13878351 2.04476954 2.04476954 2.04476954
+ 0.66089274 0.66089274 0.66089274 0.4361934  0.4361934  0.4361934
+ 0.36847991 0.3393505  0.31022111 0.24927353 0.21812918 0.1869849 ]</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -7528,11 +7527,11 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>[2.44421374 2.44421374 2.44421374 2.95820274 2.95820274 2.95820274
- 2.76085775 2.76085775 2.76085775 2.71841315 2.71841315 2.71841315
- 2.83841993 2.83841993 2.83841993 2.46688566 2.46688566 2.46688566
- 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308
- 0.5185449  0.50809159 0.4976383  0.25255761 0.22009905 0.18764054]</t>
+          <t>[1.75633078 1.75633078 1.75633078 2.11965815 2.11965815 2.11965815
+ 2.40574895 2.40574895 2.40574895 2.23525917 2.23525917 2.23525917
+ 2.13878351 2.13878351 2.13878351 2.04476954 2.04476954 2.04476954
+ 0.66089274 0.66089274 0.66089274 0.4361934  0.4361934  0.4361934
+ 0.36847991 0.3393505  0.31022111 0.24927353 0.21812918 0.1869849 ]</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -7555,11 +7554,11 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>[75.84659337 75.84659337 75.84659337 91.36739888 91.36739888 91.36739888
- 85.42585225 85.42585225 85.42585225 84.14508307 84.14508307 84.14508307
- 87.76367068 87.76367068 87.76367068 76.53435548 76.53435548 76.53435548
- 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398
- 11.1201102  10.4602692   9.82706085  4.32453491  2.86133146  1.77214435]</t>
+          <t>[54.84147579 54.84147579 54.84147579 65.96926831 65.96926831 65.96926831
+ 74.67908466 74.67908466 74.67908466 69.49421421 69.49421421 69.49421421
+ 66.55296603 66.55296603 66.55296603 63.68171449 63.68171449 63.68171449
+ 20.84037544 20.84037544 20.84037544 13.78237805 13.78237805 13.78237805
+ 10.77858316  8.41771251  6.4295045   4.15789604  2.78512608  1.753614  ]</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -7582,11 +7581,11 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>[75.84659337 75.84659337 75.84659337 91.36739888 91.36739888 91.36739888
- 85.42585225 85.42585225 85.42585225 84.14508307 84.14508307 84.14508307
- 87.76367068 87.76367068 87.76367068 76.53435548 76.53435548 76.53435548
- 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398
- 11.1201102  10.4602692   9.82706085  4.32453491  2.86133146  1.77214435]</t>
+          <t>[54.84147579 54.84147579 54.84147579 65.96926831 65.96926831 65.96926831
+ 74.67908466 74.67908466 74.67908466 69.49421421 69.49421421 69.49421421
+ 66.55296603 66.55296603 66.55296603 63.68171449 63.68171449 63.68171449
+ 20.84037544 20.84037544 20.84037544 13.78237805 13.78237805 13.78237805
+ 10.77858316  8.41771251  6.4295045   4.15789604  2.78512608  1.753614  ]</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -7609,12 +7608,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>[151.69318674 151.69318674 151.69318674 182.73479777 182.73479777
- 182.73479777 170.8517045  170.8517045  170.8517045  168.29016614
- 168.29016614 168.29016614 175.52734136 175.52734136 175.52734136
- 153.06871096 153.06871096 153.06871096  33.21380796  33.21380796
-  33.21380796  33.21380796  33.21380796  33.21380796  22.24022039
-  20.9205384   19.6541217    8.64906983   5.72266293   3.54428869]</t>
+          <t>[109.68295159 109.68295159 109.68295159 131.93853662 131.93853662
+ 131.93853662 149.35816931 149.35816931 149.35816931 138.98842842
+ 138.98842842 138.98842842 133.10593207 133.10593207 133.10593207
+ 127.36342897 127.36342897 127.36342897  41.68075089  41.68075089
+  41.68075089  27.5647561   27.5647561   27.5647561   21.55716632
+  16.83542502  12.859009     8.31579208   5.57025217   3.507228  ]</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -7637,36 +7636,36 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>[[-5.02590186e+07]
- [-4.69778303e+07]
- [-4.35144659e+07]
- [-4.13458588e+07]
- [-3.91665782e+07]
- [-3.69652701e+07]
- [-3.48608673e+07]
- [-3.27066416e+07]
- [-3.04841844e+07]
- [-2.89731356e+07]
- [-2.74130617e+07]
- [-2.57934036e+07]
- [-2.43058876e+07]
- [-2.30366352e+07]
- [-2.17673828e+07]
- [-2.12154673e+07]
- [-2.06635517e+07]
- [-2.01116361e+07]
- [-1.78924469e+07]
- [-1.66515697e+07]
- [-1.54101713e+07]
- [-1.36362015e+07]
- [-1.18617185e+07]
- [-1.00867359e+07]
- [-9.35908742e+06]
- [-8.64589365e+06]
- [-7.94726799e+06]
- [-7.61365074e+06]
- [-7.32255195e+06]
- [ 3.76894604e-09]]</t>
+          <t>[[-4.07123531e+07]
+ [-3.83518150e+07]
+ [-3.58091008e+07]
+ [-3.42007527e+07]
+ [-3.25817311e+07]
+ [-3.09406819e+07]
+ [-2.90735015e+07]
+ [-2.71564982e+07]
+ [-2.51712634e+07]
+ [-2.38754713e+07]
+ [-2.25306541e+07]
+ [-2.11262526e+07]
+ [-1.99504275e+07]
+ [-1.89928659e+07]
+ [-1.80353043e+07]
+ [-1.75774953e+07]
+ [-1.71196863e+07]
+ [-1.66618773e+07]
+ [-1.46046405e+07]
+ [-1.35252641e+07]
+ [-1.24452758e+07]
+ [-1.14231649e+07]
+ [-1.04004459e+07]
+ [-9.37713238e+06]
+ [-8.85718423e+06]
+ [-8.37789437e+06]
+ [-7.93958650e+06]
+ [-7.61013285e+06]
+ [-7.32165974e+06]
+ [ 1.14232535e-08]]</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -7689,36 +7688,36 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>[[-4.96096525e+06]
- [-9.94837560e+06]
- [-8.41648350e+06]
- [ 2.42845211e+06]
- [ 2.42859043e+06]
- [ 2.42873032e+06]
- [ 2.42882339e+06]
- [ 2.42897569e+06]
- [ 2.42913972e+06]
- [ 2.42882555e+06]
- [ 2.42891378e+06]
- [ 2.42901131e+06]
- [ 2.42903262e+06]
- [ 2.42886896e+06]
- [ 2.42891164e+06]
- [ 2.42836911e+06]
- [ 2.42837938e+06]
- [ 2.42838952e+06]
- [ 2.42935929e+06]
- [ 2.43004771e+06]
- [ 2.43066620e+06]
- [ 2.43277916e+06]
- [ 2.43370281e+06]
- [ 2.43442701e+06]
- [ 2.43080702e+06]
- [ 2.43089962e+06]
- [ 2.43094860e+06]
- [ 2.42942472e+06]
- [ 2.42925697e+06]
- [ 1.11305881e+03]]</t>
+          <t>[[-4.05022149e+06]
+ [-9.45598726e+06]
+ [-9.26219608e+06]
+ [ 2.42841698e+06]
+ [ 2.42855953e+06]
+ [ 2.42870522e+06]
+ [ 2.42895374e+06]
+ [ 2.42911401e+06]
+ [ 2.42928928e+06]
+ [ 2.42889086e+06]
+ [ 2.42898872e+06]
+ [ 2.42909829e+06]
+ [ 2.42903145e+06]
+ [ 2.42881604e+06]
+ [ 2.42885839e+06]
+ [ 2.42838681e+06]
+ [ 2.42839702e+06]
+ [ 2.42840711e+06]
+ [ 2.42933763e+06]
+ [ 2.42981566e+06]
+ [ 2.43024374e+06]
+ [ 2.43068531e+06]
+ [ 2.43132661e+06]
+ [ 2.43183048e+06]
+ [ 2.43008240e+06]
+ [ 2.43002946e+06]
+ [ 2.42994567e+06]
+ [ 2.42950411e+06]
+ [ 2.42933140e+06]
+ [ 1.18287928e+03]]</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -7741,36 +7740,36 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>[[-6.42092972e+04]
- [-1.29053962e+05]
- [-1.10169678e+05]
- [ 2.91015265e+04]
- [ 2.91033201e+04]
- [ 2.91051377e+04]
- [ 2.91063525e+04]
- [ 2.91083384e+04]
- [ 2.91104808e+04]
- [ 2.91064168e+04]
- [ 2.91075719e+04]
- [ 2.91088496e+04]
- [ 2.91091379e+04]
- [ 2.91070177e+04]
- [ 2.91075832e+04]
- [ 2.91005165e+04]
- [ 2.91006531e+04]
- [ 2.91007882e+04]
- [ 2.91135437e+04]
- [ 2.91228069e+04]
- [ 2.91312279e+04]
- [ 2.91598593e+04]
- [ 2.91729732e+04]
- [ 2.91836874e+04]
- [ 2.91345773e+04]
- [ 2.91363299e+04]
- [ 2.91375720e+04]
- [ 2.91164515e+04]
- [ 2.91148464e+04]
- [ 1.73350512e+01]]</t>
+          <t>[[-5.24143636e+04]
+ [-1.22612416e+05]
+ [-1.21017141e+05]
+ [ 2.91010738e+04]
+ [ 2.91029223e+04]
+ [ 2.91048150e+04]
+ [ 2.91080434e+04]
+ [ 2.91101327e+04]
+ [ 2.91124212e+04]
+ [ 2.91072637e+04]
+ [ 2.91085442e+04]
+ [ 2.91099788e+04]
+ [ 2.91091206e+04]
+ [ 2.91063275e+04]
+ [ 2.91068887e+04]
+ [ 2.91007474e+04]
+ [ 2.91008832e+04]
+ [ 2.91010175e+04]
+ [ 2.91132256e+04]
+ [ 2.91196577e+04]
+ [ 2.91254867e+04]
+ [ 2.91316602e+04]
+ [ 2.91407667e+04]
+ [ 2.91482216e+04]
+ [ 2.91246129e+04]
+ [ 2.91242383e+04]
+ [ 2.91235458e+04]
+ [ 2.91178148e+04]
+ [ 2.91161307e+04]
+ [ 1.85383327e+01]]</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -7793,36 +7792,36 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>[[-9.49260930e+05]
- [-3.19344870e+06]
- [-5.35523025e+06]
- [-5.92246229e+06]
- [-5.77535904e+06]
- [-5.62803219e+06]
- [-5.48051337e+06]
- [-5.33283139e+06]
- [-5.18503064e+06]
- [-5.08647184e+06]
- [-4.98789434e+06]
- [-4.88931246e+06]
- [-4.79074399e+06]
- [-4.69219326e+06]
- [-4.59365604e+06]
- [-4.54440443e+06]
- [-4.49515474e+06]
- [-4.44590793e+06]
- [-4.08768821e+06]
- [-3.72670294e+06]
- [-3.36367238e+06]
- [-2.84244499e+06]
- [-2.31997667e+06]
- [-1.79774225e+06]
- [-1.48526330e+06]
- [-1.17292935e+06]
- [-8.60920492e+05]
- [-5.69960272e+05]
- [-2.78836140e+05]
- [-4.33297010e-04]]</t>
+          <t>[[-6.92713094e+05]
+ [-2.78105442e+06]
+ [-5.17615578e+06]
+ [-5.91169636e+06]
+ [-5.76449214e+06]
+ [-5.61701392e+06]
+ [-5.46932957e+06]
+ [-5.32151246e+06]
+ [-5.17360798e+06]
+ [-5.07499688e+06]
+ [-4.97637324e+06]
+ [-4.87775241e+06]
+ [-4.77914897e+06]
+ [-4.68055612e+06]
+ [-4.58196641e+06]
+ [-4.53268535e+06]
+ [-4.48340709e+06]
+ [-4.43413259e+06]
+ [-4.07642026e+06]
+ [-3.71706572e+06]
+ [-3.35655502e+06]
+ [-2.83932763e+06]
+ [-2.31986282e+06]
+ [-1.79938209e+06]
+ [-1.48718504e+06]
+ [-1.17486619e+06]
+ [-8.62434347e+05]
+ [-5.70725365e+05]
+ [-2.78859389e+05]
+ [-4.66447587e-04]]</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -7845,36 +7844,36 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>[[ 7.36152918e+07]
- [ 2.47242454e+08]
- [ 4.13626027e+08]
- [ 4.56667511e+08]
- [ 4.44401702e+08]
- [ 4.32118727e+08]
- [ 4.19821064e+08]
- [ 4.07510979e+08]
- [ 3.95191925e+08]
- [ 3.86977407e+08]
- [ 3.78761543e+08]
- [ 3.70545434e+08]
- [ 3.62330452e+08]
- [ 3.54116925e+08]
- [ 3.45904525e+08]
- [ 3.41799661e+08]
- [ 3.37694970e+08]
- [ 3.33590525e+08]
- [ 3.03748095e+08]
- [ 2.73701021e+08]
- [ 2.43505190e+08]
- [ 2.00183227e+08]
- [ 1.56783031e+08]
- [ 1.13415531e+08]
- [ 8.74668789e+07]
- [ 6.15379128e+07]
- [ 3.56423872e+07]
- [ 1.15061232e+07]
- [-1.26127096e+07]
- [ 2.78200863e-02]]</t>
+          <t>[[ 5.37074831e+07]
+ [ 2.15290000e+08]
+ [ 3.99788129e+08]
+ [ 4.55843476e+08]
+ [ 4.43569866e+08]
+ [ 4.31275212e+08]
+ [ 4.18964807e+08]
+ [ 4.06644320e+08]
+ [ 3.94317273e+08]
+ [ 3.86098719e+08]
+ [ 3.77879291e+08]
+ [ 3.69660173e+08]
+ [ 3.61442486e+08]
+ [ 3.53225712e+08]
+ [ 3.45009277e+08]
+ [ 3.40902155e+08]
+ [ 3.36795273e+08]
+ [ 3.32688706e+08]
+ [ 3.02884042e+08]
+ [ 2.72958272e+08]
+ [ 2.42949047e+08]
+ [ 1.99921948e+08]
+ [ 1.56742783e+08]
+ [ 1.13505004e+08]
+ [ 8.75782113e+07]
+ [ 6.16524763e+07]
+ [ 3.57322880e+07]
+ [ 1.15511847e+07]
+ [-1.26113615e+07]
+ [ 2.97631882e-02]]</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -7897,35 +7896,35 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>[[ 238417.20387204]
- [ 508799.83417732]
- [ 847402.97550448]
- [1299598.5545965 ]
- [1299591.70235262]
- [1299584.81645607]
- [1299586.16624245]
- [1299579.04418661]
- [1299571.75359298]
- [1299565.83518042]
- [1299560.64194199]
- [1299555.2802553 ]
- [1299545.98384716]
- [1299541.08675091]
- [1299536.90823585]
- [1299543.46886301]
- [1299541.37959438]
- [1299539.29033246]
- [1299695.20168161]
- [1299680.041506  ]
- [1299664.8532751 ]
- [1299649.6590212 ]
- [1299627.94690683]
- [1299606.22923817]
- [1299642.20442009]
- [1299632.59861211]
- [1299622.85940465]
- [1299753.96963218]
- [1299783.0980388 ]
+          <t>[[ 214212.23088701]
+ [ 468147.23156491]
+ [ 808897.11942993]
+ [1299618.73909802]
+ [1299611.6568197 ]
+ [1299604.52761924]
+ [1299581.15914771]
+ [1299573.91171797]
+ [1299566.47098552]
+ [1299566.1863401 ]
+ [1299560.7748354 ]
+ [1299555.15863883]
+ [1299553.25802483]
+ [1299548.12697978]
+ [1299543.94841926]
+ [1299543.37511208]
+ [1299541.28584367]
+ [1299539.19658199]
+ [1299681.98555276]
+ [1299666.81634361]
+ [1299651.6084258 ]
+ [1299726.62680633]
+ [1299704.81326907]
+ [1299682.98748433]
+ [1299697.90874421]
+ [1299703.99347618]
+ [1299712.44195894]
+ [1299757.5453607 ]
+ [1299785.85924873]
  [      0.        ]]</t>
         </is>
       </c>
@@ -8623,7 +8622,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>[3308254.97274794]</t>
+          <t>[2620539.13736922]</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -8646,7 +8645,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>[1222783.92244969]</t>
+          <t>[870055.29974067]</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -8669,7 +8668,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>[4253254.97274794]</t>
+          <t>[3565539.13736922]</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -8692,7 +8691,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>[283.55033152]</t>
+          <t>[237.70260916]</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -8715,7 +8714,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>[1222783.92244969]</t>
+          <t>[870055.29974067]</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -8784,7 +8783,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>[3308254.97274794]</t>
+          <t>[2620539.13736922]</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
@@ -8807,7 +8806,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[3308254.97274794]</t>
+          <t>[2620539.13736922]</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -8830,9 +8829,9 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>[336.9560439  388.43785582 424.16473764 452.12457083 484.27449749
- 510.65946695 533.22010636 534.90944214 535.3275796  534.6296143
- 479.32439573 419.08646016 352.18249915]</t>
+          <t>[403.67324327 463.99223289 506.07689928 539.14849713 577.32846487
+ 608.78594237 635.77318933 602.40449388 566.17637828 527.04601147
+ 474.03639761 416.26233144 352.18591523]</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -9047,9 +9046,9 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>[10.         10.         10.         10.         10.         10.
- 10.          9.80072649  9.60145298  9.40217948  8.26778632  7.13339316
-  5.999     ]</t>
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         11.08814635 10.1762927   9.26443906  8.17597637  7.08751369
+  5.99905101]</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -9143,9 +9142,9 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>[336.9560439  388.43785582 424.16473764 452.12457083 484.27449749
- 510.65946695 533.22010636 534.90944214 535.3275796  534.6296143
- 479.32439573 419.08646016 352.18249915]</t>
+          <t>[403.67324327 463.99223289 506.07689928 539.14849713 577.32846487
+ 608.78594237 635.77318933 602.40449388 566.17637828 527.04601147
+ 474.03639761 416.26233144 352.18591523]</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -9285,9 +9284,9 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>[-336.9560439  -388.43785582 -424.16473764 -452.12457083 -484.27449749
- -510.65946695 -533.22010636 -534.90944214 -535.3275796  -534.6296143
- -479.32439573 -419.08646016 -352.18249915]</t>
+          <t>[-403.67324327 -463.99223289 -506.07689928 -539.14849713 -577.32846487
+ -608.78594237 -635.77318933 -602.40449388 -566.17637828 -527.04601147
+ -474.03639761 -416.26233144 -352.18591523]</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -9335,7 +9334,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>[10.         10.         10.          9.40217948  5.999     ]</t>
+          <t>[12.         12.         12.          9.26443906  5.99905101]</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -9358,7 +9357,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>[0.04   0.04   0.0275 0.015 ]</t>
+          <t>[0.02891068 0.01907252 0.01674678 0.015     ]</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
@@ -9423,7 +9422,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[10.         10.         10.          9.40217948  5.999     ]</t>
+          <t>[12.         12.         12.          9.26443906  5.99905101]</t>
         </is>
       </c>
       <c r="E364" t="inlineStr"/>
@@ -9446,7 +9445,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[0.04   0.04   0.0275 0.015 ]</t>
+          <t>[0.02891068 0.01907252 0.01674678 0.015     ]</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -9682,8 +9681,8 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>[0.04   0.04   0.04   0.04   0.04   0.04   0.0275 0.0275 0.0275 0.015
- 0.015  0.015 ]</t>
+          <t>[0.02891068 0.02891068 0.02891068 0.01907252 0.01907252 0.01907252
+ 0.01674678 0.01674678 0.01674678 0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -9866,8 +9865,8 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>[1.33922325 1.33922325 1.33922325 1.33922325 1.33922325 1.33922325
- 0.91266094 0.89423983 0.87581871 0.44472614 0.38752713 0.33032812]</t>
+          <t>[1.16339087 1.16339087 1.16339087 0.76812547 0.76812547 0.76812547
+ 0.6489236  0.59759137 0.54625914 0.43893888 0.3840558  0.32917272]</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -9890,8 +9889,8 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[0.76132308 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308
- 0.5185449  0.50809159 0.4976383  0.25255761 0.22009905 0.18764054]</t>
+          <t>[0.66089274 0.66089274 0.66089274 0.4361934  0.4361934  0.4361934
+ 0.36847991 0.3393505  0.31022111 0.24927353 0.21812918 0.1869849 ]</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -9914,8 +9913,8 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[0.76132308 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308
- 0.5185449  0.50809159 0.4976383  0.25255761 0.22009905 0.18764054]</t>
+          <t>[0.66089274 0.66089274 0.66089274 0.4361934  0.4361934  0.4361934
+ 0.36847991 0.3393505  0.31022111 0.24927353 0.21812918 0.1869849 ]</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -9938,8 +9937,8 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>[16.60690398 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398
- 11.1201102  10.4602692   9.82706085  4.32453491  2.86133146  1.77214435]</t>
+          <t>[20.84037544 20.84037544 20.84037544 13.78237805 13.78237805 13.78237805
+ 10.77858316  8.41771251  6.4295045   4.15789604  2.78512608  1.753614  ]</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -9962,8 +9961,8 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[16.60690398 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398
- 11.1201102  10.4602692   9.82706085  4.32453491  2.86133146  1.77214435]</t>
+          <t>[20.84037544 20.84037544 20.84037544 13.78237805 13.78237805 13.78237805
+ 10.77858316  8.41771251  6.4295045   4.15789604  2.78512608  1.753614  ]</t>
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
@@ -9986,8 +9985,8 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[33.21380796 33.21380796 33.21380796 33.21380796 33.21380796 33.21380796
- 22.24022039 20.9205384  19.6541217   8.64906983  5.72266293  3.54428869]</t>
+          <t>[41.68075089 41.68075089 41.68075089 27.5647561  27.5647561  27.5647561
+ 21.55716632 16.83542502 12.859009    8.31579208  5.57025217  3.507228  ]</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -10081,17 +10080,17 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>[[-17893484.9036034 ]
- [-16652086.55589887]
- [-15410307.66054134]
- [-13635824.70379636]
- [-11860842.08403933]
- [-10085441.65748331]
- [ -9357668.97912271]
- [ -8644464.41172472]
- [ -7945840.18245411]
- [ -7612490.6424134 ]
- [ -7321944.18411436]
+          <t>[[-14605075.37513749]
+ [-13525087.09306413]
+ [-12444649.72928914]
+ [-11421930.66732845]
+ [-10398617.16937478]
+ [ -9374804.77949715]
+ [ -8854889.31737686]
+ [ -8375955.90443268]
+ [ -7938033.99962081]
+ [ -7609020.79877034]
+ [ -7321077.26459546]
  [ -7074256.2758736 ]]</t>
         </is>
       </c>
@@ -10115,18 +10114,18 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[[2428340.49588803]
- [2429076.15016301]
- [2429745.150357  ]
- [2431552.74336647]
- [2432583.30649191]
- [2433415.48350294]
- [2430434.81124687]
- [2430575.11856734]
- [2430673.38284943]
- [2429325.40790102]
- [2429217.64005877]
- [2429056.55177362]]</t>
+          <t>[[2428219.91942317]
+ [2428728.19579798]
+ [2429190.57531753]
+ [2429742.04748937]
+ [2430456.90503978]
+ [2431035.03674099]
+ [2429711.57771473]
+ [2429717.20280247]
+ [2429696.937491  ]
+ [2429355.3195223 ]
+ [2429250.54170299]
+ [2429091.30244741]]</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -10149,18 +10148,18 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[[29100.21082235]
- [29110.03624615]
- [29119.06229751]
- [29143.55247813]
- [29157.95209706]
- [29169.96603069]
- [29129.46422283]
- [29131.80374907]
- [29133.65301517]
- [29114.96600434]
- [29114.11634867]
- [29112.79357358]]</t>
+          <t>[[29098.61020667]
+ [29105.3996609 ]
+ [29111.639109  ]
+ [29119.19718559]
+ [29129.18827378]
+ [29137.53696334]
+ [29119.58509734]
+ [29119.9571933 ]
+ [29120.07425233]
+ [29115.66448096]
+ [29114.84187689]
+ [29113.52864605]]</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -10183,18 +10182,18 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[[-4353455.09897782]
- [-3996917.79067181]
- [-3637829.27863067]
- [-3121492.70759842]
- [-2603010.98202662]
- [-2083944.61032928]
- [-1772934.3694098 ]
- [-1461831.17164323]
- [-1150827.53818356]
- [ -860547.19776195]
- [ -569774.79627189]
- [ -278501.81987501]]</t>
+          <t>[[-4338969.4760101 ]
+ [-3984274.81581647]
+ [-3627953.34000302]
+ [-3115967.11199083]
+ [-2600972.16263724]
+ [-2084246.90629691]
+ [-1773928.74163685]
+ [-1463242.04144086]
+ [-1152176.55718597]
+ [ -861457.5135865 ]
+ [ -570230.80330738]
+ [ -278501.82831311]]</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -10217,17 +10216,17 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>[[ 3.25953229e+08]
- [ 2.96244541e+08]
- [ 2.66347158e+08]
- [ 2.23393035e+08]
- [ 1.80289949e+08]
- [ 1.37155989e+08]
- [ 1.11314234e+08]
- [ 8.54735057e+07]
- [ 5.96485756e+07]
- [ 3.55577560e+07]
- [ 1.14576593e+07]
+          <t>[[ 3.24825079e+08]
+ [ 2.95254720e+08]
+ [ 2.65564101e+08]
+ [ 2.22933678e+08]
+ [ 1.80090248e+08]
+ [ 1.37132036e+08]
+ [ 1.11343801e+08]
+ [ 8.55371210e+07]
+ [ 5.97148440e+07]
+ [ 3.56022473e+07]
+ [ 1.14797549e+07]
  [-1.26341967e+07]]</t>
         </is>
       </c>
@@ -10251,18 +10250,18 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>[[1299695.24279712]
- [1299680.05421094]
- [1299664.85960162]
- [1299649.66068986]
- [1299627.94229549]
- [1299606.21851177]
- [1299642.18117576]
- [1299632.57261275]
- [1299622.83265684]
- [1299753.91699874]
- [1299783.0489597 ]
- [1299824.39641589]]</t>
+          <t>[[1299682.03074534]
+ [1299666.82247147]
+ [1299651.60593233]
+ [1299726.61344501]
+ [1299704.7869281 ]
+ [1299682.94845864]
+ [1299697.84994612]
+ [1299703.93052337]
+ [1299712.38378656]
+ [1299757.48737567]
+ [1299785.81177684]
+ [1299825.62880721]]</t>
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
@@ -10436,19 +10435,19 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>[[-336.9560439 ]
- [-388.43785582]
- [-424.16473764]
- [-452.12457083]
- [-484.27449749]
- [-510.65946695]
- [-533.22010636]
- [-534.90944214]
- [-535.3275796 ]
- [-534.6296143 ]
- [-479.32439573]
- [-419.08646016]
- [-352.18249915]]</t>
+          <t>[[-403.67324327]
+ [-463.99223289]
+ [-506.07689928]
+ [-539.14849713]
+ [-577.32846487]
+ [-608.78594237]
+ [-635.77318933]
+ [-602.40449388]
+ [-566.17637828]
+ [-527.04601147]
+ [-474.03639761]
+ [-416.26233144]
+ [-352.18591523]]</t>
         </is>
       </c>
       <c r="E403" t="inlineStr"/>
@@ -10471,7 +10470,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>[1222783.92244969]</t>
+          <t>[870055.29974067]</t>
         </is>
       </c>
       <c r="E404" t="inlineStr"/>
@@ -10494,7 +10493,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>[60.81323312]</t>
+          <t>[59.26185811]</t>
         </is>
       </c>
       <c r="E405" t="inlineStr"/>
@@ -10517,7 +10516,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>[6.25267536e+09 6.25267536e+09 2.92111615e+07 0.00000000e+00
+          <t>[4.49045055e+09 4.49045055e+09 2.83570335e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -10572,10 +10571,10 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          36803.2377582
-  37864.58420966  41115.75313184  46764.63106935  55173.39670577
-  66895.10137592  82741.68351929  96169.34371611 112453.90228731
- 132280.93189279      0.              0.              0.
+          <t>[     0.              0.              0.          36803.23775821
+  37864.58420967  41115.75313185  46764.63106935  55173.39670578
+  66895.10137593  82741.6835193   96169.34371612 112453.90228733
+ 132280.93189281      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -10826,10 +10825,10 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          36803.2377582
-  37864.58420966  41115.75313184  46764.63106935  55173.39670577
-  66895.10137592  82741.68351929  96169.34371611 112453.90228731
- 132280.93189279      0.              0.              0.
+          <t>[     0.              0.              0.          36803.23775821
+  37864.58420967  41115.75313185  46764.63106935  55173.39670578
+  66895.10137593  82741.6835193   96169.34371612 112453.90228733
+ 132280.93189281      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -11211,10 +11210,10 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -36803.2377582
-  -37864.58420966  -41115.75313184  -46764.63106935  -55173.39670577
-  -66895.10137592  -82741.68351929  -96169.34371611 -112453.90228731
- -132280.93189279       0.               0.               0.
+          <t>[      0.               0.               0.          -36803.23775821
+  -37864.58420967  -41115.75313185  -46764.63106935  -55173.39670578
+  -66895.10137593  -82741.6835193   -96169.34371612 -112453.90228733
+ -132280.93189281       0.               0.               0.
        0.               0.               0.        ]</t>
         </is>
       </c>
@@ -11261,8 +11260,8 @@
       <c r="C436" t="inlineStr"/>
       <c r="D436" t="inlineStr">
         <is>
-          <t>[111.83175269  92.30769231  98.94405923 100.49731967  96.22569186
- 110.79900834]</t>
+          <t>[155.84415584 129.03788546 113.62842002 122.33640798 127.87915817
+ 133.78370564]</t>
         </is>
       </c>
       <c r="E436" t="inlineStr"/>
@@ -11319,7 +11318,7 @@
       <c r="C439" t="inlineStr"/>
       <c r="D439" t="inlineStr">
         <is>
-          <t>[1.21151065 0.93292809 0.98454426 1.04439176 0.8684707 ]</t>
+          <t>[1.20773954 1.13561278 0.92881933 0.95665634 0.95586497]</t>
         </is>
       </c>
       <c r="E439" t="inlineStr"/>
@@ -11432,7 +11431,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>[79575757.74247621]</t>
+          <t>[79575757.74248725]</t>
         </is>
       </c>
       <c r="E444" t="inlineStr"/>
@@ -11871,8 +11870,8 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>[33459.90344902 40459.66889185 37773.6887248  37195.73704108
- 38829.58931374 33768.93903627]</t>
+          <t>[24071.57584033 29033.19045294 32935.54095923 30610.50044483
+ 29294.19015639 28011.03055479]</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -11899,8 +11898,8 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>[591603.42827225 712665.71128649 666321.64753678 656331.64793397
- 684556.63128534 596967.97276198]</t>
+          <t>[427763.51120012 514560.29281287 582496.86032128 542054.8708537
+ 519113.13506761 496717.37298412]</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -11927,8 +11926,8 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>[591603.42827225 712665.71128649 666321.64753678 656331.64793397
- 684556.63128534 596967.97276198]</t>
+          <t>[427763.51120012 514560.29281287 582496.86032128 542054.8708537
+ 519113.13506761 496717.37298412]</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -11955,8 +11954,8 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>[1.41769333e+13 1.70780185e+13 1.59674490e+13 1.57280529e+13
- 1.64044244e+13 1.43054870e+13]</t>
+          <t>[1.02507431e+13 1.23307044e+13 1.39587074e+13 1.29895727e+13
+ 1.24398067e+13 1.19031242e+13]</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -11983,8 +11982,8 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>[1.41769333e+13 1.70780185e+13 1.59674490e+13 1.57280529e+13
- 1.64044244e+13 1.43054870e+13]</t>
+          <t>[1.02507431e+13 1.23307044e+13 1.39587074e+13 1.29895727e+13
+ 1.24398067e+13 1.19031242e+13]</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -12011,8 +12010,8 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>[1.12423081e+13 1.35428687e+13 1.26621871e+13 1.24723460e+13
- 1.30087086e+13 1.13442512e+13]</t>
+          <t>[8.12883931e+12 9.77824856e+12 1.10692550e+13 1.03007312e+13
+ 9.86476674e+12 9.43917749e+12]</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -12039,8 +12038,8 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>[8.01818918e+11 9.69558325e+11 9.05192637e+11 8.91342848e+11
- 9.30495790e+11 8.09224516e+11]</t>
+          <t>[5.76841022e+11 6.95739048e+11 7.89253318e+11 7.33537034e+11
+ 7.01993534e+11 6.71244442e+11]</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -12148,12 +12147,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.24943288 0.08464454 0.08464454 0.        ]
- [0.         0.         0.20627949 0.07026576 0.07026576 0.        ]
- [0.         0.         0.22094744 0.07515289 0.07515289 0.        ]
- [0.         0.         0.22438055 0.07629679 0.07629679 0.        ]
- [0.         0.         0.21493918 0.073151   0.073151   0.        ]
- [0.         0.         0.2471502  0.0838839  0.0838839  0.        ]]</t>
+          <t>[[0.         0.         0.34671598 0.11706468 0.11706468 0.        ]
+ [0.         0.         0.2874641  0.09731804 0.09731804 0.        ]
+ [0.         0.         0.25340407 0.08596785 0.08596785 0.        ]
+ [0.         0.         0.27265154 0.09238179 0.09238179 0.        ]
+ [0.         0.         0.28490291 0.09646452 0.09646452 0.        ]
+ [0.         0.         0.29795405 0.10081387 0.10081387 0.        ]]</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
@@ -12176,12 +12175,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>[[0.40912952 0.40912952 0.         0.         0.         0.04232227]
- [0.33804309 0.33804309 0.         0.         0.         0.03513288]
- [0.36220628 0.36220628 0.         0.         0.         0.03757645]
- [0.36786167 0.36786167 0.         0.         0.         0.0381484 ]
- [0.35230869 0.35230869 0.         0.         0.         0.0365755 ]
- [0.40536942 0.40536942 0.         0.         0.         0.04194195]]</t>
+          <t>[[0.56936883 0.56936883 0.         0.         0.         0.05853234]
+ [0.47177419 0.47177419 0.         0.         0.         0.04865902]
+ [0.41567097 0.41567097 0.         0.         0.         0.04298392]
+ [0.44737542 0.44737542 0.         0.         0.         0.0461909 ]
+ [0.4675555  0.4675555  0.         0.         0.         0.04823226]
+ [0.48905267 0.48905267 0.         0.         0.         0.05040693]]</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -12204,7 +12203,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>[1418.46504766]</t>
+          <t>[1296.21198124]</t>
         </is>
       </c>
       <c r="E475" t="inlineStr"/>
@@ -12227,7 +12226,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>[7306625.93005354]</t>
+          <t>[5737480.24378664]</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
@@ -12250,7 +12249,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>[3106395.42644982]</t>
+          <t>[2390780.30517852]</t>
         </is>
       </c>
       <c r="E477" t="inlineStr"/>
@@ -12273,7 +12272,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>[43.39158094]</t>
+          <t>[44.5553843]</t>
         </is>
       </c>
       <c r="E478" t="inlineStr"/>
@@ -12296,7 +12295,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>[7.70469168e+09 7.70469168e+09 1.09653272e+08 0.00000000e+00
+          <t>[6.15018061e+09 6.15018061e+09 8.47680591e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12343,9 +12342,9 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>[0.11481533 0.11481533 0.11481533 0.1391     0.1391     0.1391
- 0.1297703  0.1297703  0.1297703  0.1277646  0.1277646  0.1277646
- 0.1334363  0.1334363  0.1334363  0.11588551 0.11588551 0.11588551]</t>
+          <t>[0.08239    0.08239    0.08239    0.09950566 0.09950566 0.09950566
+ 0.1129999  0.1129999  0.1129999  0.10495649 0.10495649 0.10495649
+ 0.10040729 0.10040729 0.10040729 0.09597581 0.09597581 0.09597581]</t>
         </is>
       </c>
       <c r="E481" t="inlineStr"/>
@@ -12393,7 +12392,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>[3206395.42644982]</t>
+          <t>[2490780.30517852]</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -12416,7 +12415,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>[7806625.93005354]</t>
+          <t>[6237480.24378664]</t>
         </is>
       </c>
       <c r="E484" t="inlineStr"/>
@@ -12439,7 +12438,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>[44.68925055]</t>
+          <t>[46.1791572]</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -12462,7 +12461,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>[8.42899168e+09 8.42899168e+09 1.13253272e+08 0.00000000e+00
+          <t>[6.87448061e+09 6.87448061e+09 8.83680591e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12486,7 +12485,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>[4429179.34889951]</t>
+          <t>[3360835.60491919]</t>
         </is>
       </c>
       <c r="E487" t="inlineStr"/>
@@ -12509,7 +12508,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>[11114880.90280148]</t>
+          <t>[8858019.38115585]</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -12559,7 +12558,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>[0.2199999]</t>
+          <t>[0.21994775]</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
@@ -12582,7 +12581,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>[0.22114909]</t>
+          <t>[0.22122052]</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -12605,7 +12604,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>[0.2199999  0.22114909 1.01684818 1.07074452 1.17410086 1.88921025]</t>
+          <t>[0.21994775 0.22122052 0.97358171 1.07476083 1.20134851 1.94725836]</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -12628,7 +12627,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>[0.22114909 1.17410086 2.05178558]</t>
+          <t>[0.22122052 1.20134851 2.08443112]</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
@@ -12651,7 +12650,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>[0.2199999  1.07074452 1.88921025]</t>
+          <t>[0.21994775 1.07476083 1.94725836]</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
@@ -12674,7 +12673,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>[4.52058809 0.         0.        ]</t>
+          <t>[4.15321973 0.         0.        ]</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
@@ -12693,9 +12692,9 @@
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>[[  0.41125158  -0.31641432   4.9036697   -6.5014477    2.50294074]
- [ -2.63647191  -0.03392771   6.22529581  -3.74569668   1.19080049]
- [ -6.36339438   5.01059701  27.51370289 -26.71602975   1.55512423]]</t>
+          <t>[[  0.60069221  -0.29668598   2.75022873  -2.97412068   0.91988572]
+ [ -3.05710055   0.78008761   6.31024759  -5.73248388   2.69924923]
+ [ -6.00412087   5.58043526  20.2611402  -18.02619352  -0.81126107]]</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -12714,9 +12713,9 @@
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>[[  0.40788256  -0.31821808   4.90696575  -6.50943598   2.51280575]
- [ -2.55575082  -0.31671821   6.08677341  -4.56966557   2.35536119]
- [ -5.20131395   3.52488488  18.64250242 -14.0249631   -1.94111025]]</t>
+          <t>[[  0.59575915  -0.29729738   2.75724058  -2.99033144   0.93462909]
+ [ -3.02017021   0.48299005   6.3002946   -6.85592677   4.09281232]
+ [ -5.21696981   4.36435407  15.29876485 -11.49121171  -1.95493739]]</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
@@ -12735,7 +12734,7 @@
       <c r="C498" t="inlineStr"/>
       <c r="D498" t="inlineStr">
         <is>
-          <t>[[-1.37272621  8.03623461 -7.86101422  0.14794618  2.04955963]
+          <t>[[-1.24769177  4.19634567  2.65704266 -8.60298078  3.99728422]
  [ 0.          0.          0.          0.          0.        ]
  [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
@@ -12756,9 +12755,9 @@
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
-          <t>[[ 1.39540041  0.38312855 -2.52198812  2.74503968 -1.00158052]
- [-0.56670642  2.85972024 -2.79844629  1.79341145 -0.28797898]
- [ 2.0217085   2.58948603 -6.14424156  6.38266463 -3.8496176 ]]</t>
+          <t>[[ 0.98608065  0.94462289 -2.16651157  1.8591003  -0.62329227]
+ [-0.50101265  2.71763844 -3.37909821  2.90705261 -0.74458019]
+ [ 1.69136788  0.47776468  1.96539105 -3.11551069 -0.01901293]]</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
@@ -12777,9 +12776,9 @@
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
-          <t>[[ 1.38575345  0.39018718 -2.51384118  2.72638072 -0.98848017]
- [-0.72432684  2.81512539 -2.40665608  1.13993251  0.17592502]
- [ 1.23497329  2.88145711 -5.60613241  5.89389062 -3.40418862]]</t>
+          <t>[[ 0.97625959  0.95594834 -2.18002064  1.86889362 -0.6210809 ]
+ [-0.6678445   2.89849034 -3.79479592  3.22756038 -0.66341029]
+ [ 1.13383351  1.02124106  0.74001294 -1.47733231 -0.4177552 ]]</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
@@ -12798,12 +12797,9 @@
       <c r="C501" t="inlineStr"/>
       <c r="D501" t="inlineStr">
         <is>
-          <t>[[ -124.46143036   950.21586721 -2668.8573074   3061.42467791
-  -1217.32180736]
- [    0.             0.             0.             0.
-      0.        ]
- [    0.             0.             0.             0.
-      0.        ]]</t>
+          <t>[[ -10.88867485   83.39098664 -207.93425412  220.24430548  -83.81236315]
+ [   0.            0.            0.            0.            0.        ]
+ [   0.            0.            0.            0.            0.        ]]</t>
         </is>
       </c>
       <c r="E501" t="inlineStr"/>
@@ -12826,37 +12822,37 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>[[2.16476476e-04]
- [2.98786968e-04]
- [1.46304678e-04]
- [2.55541364e-03]
- [4.98259336e-03]
- [8.03467970e-03]
- [1.16948766e-02]
- [1.59704816e-02]
- [2.08605015e-02]
- [2.63469071e-02]
- [3.03294482e-02]
- [3.45675143e-02]
- [3.90556753e-02]
- [4.37818820e-02]
- [4.87374627e-02]
- [5.39172191e-02]
- [5.65962815e-02]
- [5.93373758e-02]
- [6.21397568e-02]
- [9.00999773e-02]
- [1.31390323e-01]
- [1.84691812e-01]
- [2.79044159e-01]
- [3.91323769e-01]
- [5.17643746e-01]
- [5.99593130e-01]
- [6.85886000e-01]
- [7.75428817e-01]
- [8.62208890e-01]
- [9.50503228e-01]
- [1.03704677e+00]]</t>
+          <t>[[1.76735018e-04]
+ [3.23847680e-04]
+ [1.84828821e-05]
+ [2.75467612e-03]
+ [5.80850587e-03]
+ [9.72629382e-03]
+ [1.44847614e-02]
+ [2.00046653e-02]
+ [2.62259572e-02]
+ [3.31279955e-02]
+ [3.81114946e-02]
+ [4.34036837e-02]
+ [4.89979846e-02]
+ [5.48963937e-02]
+ [6.10965410e-02]
+ [6.75915703e-02]
+ [7.09502467e-02]
+ [7.43832785e-02]
+ [7.78897695e-02]
+ [1.09578280e-01]
+ [1.51858701e-01]
+ [2.03684179e-01]
+ [2.96798089e-01]
+ [4.11486556e-01]
+ [5.43089233e-01]
+ [6.28933357e-01]
+ [7.19753565e-01]
+ [8.15106787e-01]
+ [9.07619650e-01]
+ [1.00169957e+00]
+ [1.09400508e+00]]</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
@@ -12879,7 +12875,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>[1.03704677]</t>
+          <t>[1.09400508]</t>
         </is>
       </c>
       <c r="E503" t="inlineStr"/>
@@ -12902,24 +12898,24 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>[[-50259018.61441711]
- [-46977830.26419896]
- [-43514465.89150829]
- [-41345858.80025245]
- [-39166578.23323569]
- [-36965270.05105241]
- [-34860867.26024969]
- [-32706641.56121019]
- [-30484184.36870564]
- [-28973135.59130349]
- [-27413061.65367224]
- [-25793403.58721435]
- [-24305887.63391743]
- [-23036635.22434129]
- [-21767382.8147653 ]
- [-21215467.25533009]
- [-20663551.69589502]
- [-20111636.13645869]]</t>
+          <t>[[-40712353.11316478]
+ [-38351814.98322316]
+ [-35809100.83080901]
+ [-34200752.72351147]
+ [-32581731.14045326]
+ [-30940681.94222826]
+ [-29073501.54566068]
+ [-27156498.24085671]
+ [-25171263.44258812]
+ [-23875471.32773583]
+ [-22530654.05265409]
+ [-21126252.64874621]
+ [-19950427.50213276]
+ [-18992865.8992408 ]
+ [-18035304.29634847]
+ [-17577495.3142112 ]
+ [-17119686.33207373]
+ [-16661877.34993597]]</t>
         </is>
       </c>
       <c r="E504" t="inlineStr"/>
@@ -12942,24 +12938,24 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>[[-4960965.24751493]
- [-9948375.60473385]
- [-8416483.49774286]
- [ 2428452.11393152]
- [ 2428590.42565697]
- [ 2428730.32199327]
- [ 2428823.38636952]
- [ 2428975.68812739]
- [ 2429139.71888602]
- [ 2428825.55043598]
- [ 2428913.78093093]
- [ 2429011.31009446]
- [ 2429032.62030743]
- [ 2428868.96072763]
- [ 2428911.63731962]
- [ 2428369.1052766 ]
- [ 2428379.37528822]
- [ 2428389.52189506]]</t>
+          <t>[[-4050221.48588416]
+ [-9455987.2593373 ]
+ [-9262196.08402229]
+ [ 2428416.98058016]
+ [ 2428559.53067922]
+ [ 2428705.22208622]
+ [ 2428953.74091511]
+ [ 2429114.00725635]
+ [ 2429289.28491073]
+ [ 2428890.8551603 ]
+ [ 2428988.71651703]
+ [ 2429098.28521498]
+ [ 2429031.44722835]
+ [ 2428816.03626743]
+ [ 2428858.38770188]
+ [ 2428386.80856958]
+ [ 2428397.01984373]
+ [ 2428407.10803034]]</t>
         </is>
       </c>
       <c r="E505" t="inlineStr"/>
@@ -12982,24 +12978,24 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>[[ -64209.29717355]
- [-129053.96150876]
- [-110169.67755855]
- [  29101.52654588]
- [  29103.32014411]
- [  29105.13770727]
- [  29106.35251625]
- [  29108.33841803]
- [  29110.48078282]
- [  29106.41680911]
- [  29107.57185877]
- [  29108.8496345 ]
- [  29109.13794055]
- [  29107.01773127]
- [  29107.58321465]
- [  29100.5165485 ]
- [  29100.65309398]
- [  29100.78815872]]</t>
+          <t>[[ -52414.36363723]
+ [-122612.41563136]
+ [-121017.141398  ]
+ [  29101.07380143]
+ [  29102.92230658]
+ [  29104.81503557]
+ [  29108.04336625]
+ [  29110.13266794]
+ [  29112.42115604]
+ [  29107.26370641]
+ [  29108.54415401]
+ [  29109.97880452]
+ [  29109.1206207 ]
+ [  29106.32749067]
+ [  29106.88868614]
+ [  29100.74744643]
+ [  29100.88321736]
+ [  29101.01751132]]</t>
         </is>
       </c>
       <c r="E506" t="inlineStr"/>
@@ -13022,24 +13018,24 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>[[ -949260.92967828]
- [-3193448.69508434]
- [-5355230.25343184]
- [-5922462.29354208]
- [-5775359.04489594]
- [-5628032.18873845]
- [-5480513.37062002]
- [-5332831.39225603]
- [-5185030.64327387]
- [-5086471.83785245]
- [-4987894.34229581]
- [-4889312.45738756]
- [-4790743.99109842]
- [-4692193.26089436]
- [-4593656.03904807]
- [-4544404.43181448]
- [-4495154.74106082]
- [-4445907.92572987]]</t>
+          <t>[[ -692713.09384914]
+ [-2781054.42111057]
+ [-5176155.77902887]
+ [-5911696.36111177]
+ [-5764492.14143563]
+ [-5617013.91596312]
+ [-5469329.56918711]
+ [-5321512.46419361]
+ [-5173607.97876291]
+ [-5074996.88318915]
+ [-4976373.2427324 ]
+ [-4877752.41401612]
+ [-4779148.97006022]
+ [-4680556.12238019]
+ [-4581966.40853969]
+ [-4532685.34676678]
+ [-4483407.08960671]
+ [-4434132.5912298 ]]</t>
         </is>
       </c>
       <c r="E507" t="inlineStr"/>
@@ -13062,24 +13058,24 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>[[7.36152918e+07]
- [2.47242454e+08]
- [4.13626027e+08]
- [4.56667511e+08]
- [4.44401702e+08]
- [4.32118727e+08]
- [4.19821064e+08]
- [4.07510979e+08]
- [3.95191925e+08]
- [3.86977407e+08]
- [3.78761543e+08]
- [3.70545434e+08]
- [3.62330452e+08]
- [3.54116925e+08]
- [3.45904525e+08]
- [3.41799661e+08]
- [3.37694970e+08]
- [3.33590525e+08]]</t>
+          <t>[[5.37074831e+07]
+ [2.15290000e+08]
+ [3.99788129e+08]
+ [4.55843476e+08]
+ [4.43569866e+08]
+ [4.31275212e+08]
+ [4.18964807e+08]
+ [4.06644320e+08]
+ [3.94317273e+08]
+ [3.86098719e+08]
+ [3.77879291e+08]
+ [3.69660173e+08]
+ [3.61442486e+08]
+ [3.53225712e+08]
+ [3.45009277e+08]
+ [3.40902155e+08]
+ [3.36795273e+08]
+ [3.32688706e+08]]</t>
         </is>
       </c>
       <c r="E508" t="inlineStr"/>
@@ -13102,24 +13098,24 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>[[ 238417.20387204]
- [ 508799.83417732]
- [ 847402.97550448]
- [1299598.5545965 ]
- [1299591.70235262]
- [1299584.81645607]
- [1299586.16624245]
- [1299579.04418661]
- [1299571.75359298]
- [1299565.83518042]
- [1299560.64194199]
- [1299555.2802553 ]
- [1299545.98384716]
- [1299541.08675091]
- [1299536.90823585]
- [1299543.46886301]
- [1299541.37959438]
- [1299539.29033246]]</t>
+          <t>[[ 214212.23088701]
+ [ 468147.23156491]
+ [ 808897.11942993]
+ [1299618.73909802]
+ [1299611.6568197 ]
+ [1299604.52761924]
+ [1299581.15914771]
+ [1299573.91171797]
+ [1299566.47098552]
+ [1299566.1863401 ]
+ [1299560.7748354 ]
+ [1299555.15863883]
+ [1299553.25802483]
+ [1299548.12697978]
+ [1299543.94841926]
+ [1299543.37511208]
+ [1299541.28584367]
+ [1299539.19658199]]</t>
         </is>
       </c>
       <c r="E509" t="inlineStr"/>
@@ -13142,9 +13138,9 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>[[ 2.42845211e+06]
- [ 2.91015265e+04]
- [-4.35144659e+07]]</t>
+          <t>[[ 2.42841698e+06]
+ [ 2.91010738e+04]
+ [-3.58091008e+07]]</t>
         </is>
       </c>
       <c r="E510" t="inlineStr"/>
@@ -13167,9 +13163,9 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>[[-6.06929837e+06]
- [ 4.68912748e+08]
- [ 1.29959855e+06]]</t>
+          <t>[[-6.05858076e+06]
+ [ 4.68092449e+08]
+ [ 1.29961874e+06]]</t>
         </is>
       </c>
       <c r="E511" t="inlineStr"/>
@@ -13224,9 +13220,9 @@
           <t>[12.         12.         12.         12.         12.         12.
  12.         12.         12.         12.         12.         12.
  12.         12.         12.         12.         12.         12.
- 10.         10.         10.         10.         10.         10.
- 10.          9.80072649  9.60145298  9.40217948  8.26778632  7.13339316
-  5.999     ]</t>
+ 12.         12.         12.         12.         12.         12.
+ 12.         11.08814635 10.1762927   9.26443906  8.17597637  7.08751369
+  5.99905101]</t>
         </is>
       </c>
       <c r="E513" t="inlineStr"/>
@@ -13249,11 +13245,11 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>[0.10730405 0.10730405 0.10730405 0.13       0.13       0.13
- 0.12128065 0.12128065 0.12128065 0.11940617 0.11940617 0.11940617
- 0.12470682 0.12470682 0.12470682 0.10830422 0.10830422 0.10830422
- 0.04       0.04       0.04       0.04       0.04       0.04
- 0.0275     0.0275     0.0275     0.015      0.015      0.015     ]</t>
+          <t>[0.077      0.077      0.077      0.09299594 0.09299594 0.09299594
+ 0.10560738 0.10560738 0.10560738 0.09809018 0.09809018 0.09809018
+ 0.09383859 0.09383859 0.09383859 0.08969702 0.08969702 0.08969702
+ 0.02891068 0.02891068 0.02891068 0.01907252 0.01907252 0.01907252
+ 0.01674678 0.01674678 0.01674678 0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -13352,11 +13348,11 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>[4.28973121 4.28973121 4.28973121 5.18713704 5.18713704 5.18713704
- 4.84278061 4.84278061 4.84278061 4.76868424 4.76868424 4.76868424
- 4.97815248 4.97815248 4.97815248 4.32935116 4.32935116 4.32935116
- 1.33922325 1.33922325 1.33922325 1.33922325 1.33922325 1.33922325
- 0.91266094 0.89423983 0.87581871 0.44472614 0.38752713 0.33032812]</t>
+          <t>[3.08609947 3.08609947 3.08609947 3.7222039  3.7222039  3.7222039
+ 4.22250525 4.22250525 4.22250525 3.92442313 3.92442313 3.92442313
+ 3.7556654  3.7556654  3.7556654  3.59115776 3.59115776 3.59115776
+ 1.16339087 1.16339087 1.16339087 0.76812547 0.76812547 0.76812547
+ 0.6489236  0.59759137 0.54625914 0.43893888 0.3840558  0.32917272]</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
@@ -13379,11 +13375,11 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>[2.44421374 2.44421374 2.44421374 2.95820274 2.95820274 2.95820274
- 2.76085775 2.76085775 2.76085775 2.71841315 2.71841315 2.71841315
- 2.83841993 2.83841993 2.83841993 2.46688566 2.46688566 2.46688566
- 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308
- 0.5185449  0.50809159 0.4976383  0.25255761 0.22009905 0.18764054]</t>
+          <t>[1.75633078 1.75633078 1.75633078 2.11965815 2.11965815 2.11965815
+ 2.40574895 2.40574895 2.40574895 2.23525917 2.23525917 2.23525917
+ 2.13878351 2.13878351 2.13878351 2.04476954 2.04476954 2.04476954
+ 0.66089274 0.66089274 0.66089274 0.4361934  0.4361934  0.4361934
+ 0.36847991 0.3393505  0.31022111 0.24927353 0.21812918 0.1869849 ]</t>
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
@@ -13406,11 +13402,11 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>[2.44421374 2.44421374 2.44421374 2.95820274 2.95820274 2.95820274
- 2.76085775 2.76085775 2.76085775 2.71841315 2.71841315 2.71841315
- 2.83841993 2.83841993 2.83841993 2.46688566 2.46688566 2.46688566
- 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308 0.76132308
- 0.5185449  0.50809159 0.4976383  0.25255761 0.22009905 0.18764054]</t>
+          <t>[1.75633078 1.75633078 1.75633078 2.11965815 2.11965815 2.11965815
+ 2.40574895 2.40574895 2.40574895 2.23525917 2.23525917 2.23525917
+ 2.13878351 2.13878351 2.13878351 2.04476954 2.04476954 2.04476954
+ 0.66089274 0.66089274 0.66089274 0.4361934  0.4361934  0.4361934
+ 0.36847991 0.3393505  0.31022111 0.24927353 0.21812918 0.1869849 ]</t>
         </is>
       </c>
       <c r="E520" t="inlineStr"/>
@@ -13433,12 +13429,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>[151.69318674 151.69318674 151.69318674 182.73479777 182.73479777
- 182.73479777 170.8517045  170.8517045  170.8517045  168.29016614
- 168.29016614 168.29016614 175.52734136 175.52734136 175.52734136
- 153.06871096 153.06871096 153.06871096  33.21380796  33.21380796
-  33.21380796  33.21380796  33.21380796  33.21380796  22.24022039
-  20.9205384   19.6541217    8.64906983   5.72266293   3.54428869]</t>
+          <t>[109.68295159 109.68295159 109.68295159 131.93853662 131.93853662
+ 131.93853662 149.35816931 149.35816931 149.35816931 138.98842842
+ 138.98842842 138.98842842 133.10593207 133.10593207 133.10593207
+ 127.36342897 127.36342897 127.36342897  41.68075089  41.68075089
+  41.68075089  27.5647561   27.5647561   27.5647561   21.55716632
+  16.83542502  12.859009     8.31579208   5.57025217   3.507228  ]</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -13461,11 +13457,11 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>[75.84659337 75.84659337 75.84659337 91.36739888 91.36739888 91.36739888
- 85.42585225 85.42585225 85.42585225 84.14508307 84.14508307 84.14508307
- 87.76367068 87.76367068 87.76367068 76.53435548 76.53435548 76.53435548
- 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398
- 11.1201102  10.4602692   9.82706085  4.32453491  2.86133146  1.77214435]</t>
+          <t>[54.84147579 54.84147579 54.84147579 65.96926831 65.96926831 65.96926831
+ 74.67908466 74.67908466 74.67908466 69.49421421 69.49421421 69.49421421
+ 66.55296603 66.55296603 66.55296603 63.68171449 63.68171449 63.68171449
+ 20.84037544 20.84037544 20.84037544 13.78237805 13.78237805 13.78237805
+ 10.77858316  8.41771251  6.4295045   4.15789604  2.78512608  1.753614  ]</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -13488,11 +13484,11 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>[75.84659337 75.84659337 75.84659337 91.36739888 91.36739888 91.36739888
- 85.42585225 85.42585225 85.42585225 84.14508307 84.14508307 84.14508307
- 87.76367068 87.76367068 87.76367068 76.53435548 76.53435548 76.53435548
- 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398 16.60690398
- 11.1201102  10.4602692   9.82706085  4.32453491  2.86133146  1.77214435]</t>
+          <t>[54.84147579 54.84147579 54.84147579 65.96926831 65.96926831 65.96926831
+ 74.67908466 74.67908466 74.67908466 69.49421421 69.49421421 69.49421421
+ 66.55296603 66.55296603 66.55296603 63.68171449 63.68171449 63.68171449
+ 20.84037544 20.84037544 20.84037544 13.78237805 13.78237805 13.78237805
+ 10.77858316  8.41771251  6.4295045   4.15789604  2.78512608  1.753614  ]</t>
         </is>
       </c>
       <c r="E523" t="inlineStr"/>
@@ -13617,36 +13613,36 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[[-5.02590186e+07]
- [-4.69778303e+07]
- [-4.35144659e+07]
- [-4.13458588e+07]
- [-3.91665782e+07]
- [-3.69652701e+07]
- [-3.48608673e+07]
- [-3.27066416e+07]
- [-3.04841844e+07]
- [-2.89731356e+07]
- [-2.74130617e+07]
- [-2.57934036e+07]
- [-2.43058876e+07]
- [-2.30366352e+07]
- [-2.17673828e+07]
- [-2.12154673e+07]
- [-2.06635517e+07]
- [-2.01116361e+07]
- [-1.78924469e+07]
- [-1.66515697e+07]
- [-1.54101713e+07]
- [-1.36362015e+07]
- [-1.18617185e+07]
- [-1.00867359e+07]
- [-9.35908742e+06]
- [-8.64589365e+06]
- [-7.94726799e+06]
- [-7.61365074e+06]
- [-7.32255195e+06]
- [ 3.76894604e-09]]</t>
+          <t>[[-4.07123531e+07]
+ [-3.83518150e+07]
+ [-3.58091008e+07]
+ [-3.42007527e+07]
+ [-3.25817311e+07]
+ [-3.09406819e+07]
+ [-2.90735015e+07]
+ [-2.71564982e+07]
+ [-2.51712634e+07]
+ [-2.38754713e+07]
+ [-2.25306541e+07]
+ [-2.11262526e+07]
+ [-1.99504275e+07]
+ [-1.89928659e+07]
+ [-1.80353043e+07]
+ [-1.75774953e+07]
+ [-1.71196863e+07]
+ [-1.66618773e+07]
+ [-1.46046405e+07]
+ [-1.35252641e+07]
+ [-1.24452758e+07]
+ [-1.14231649e+07]
+ [-1.04004459e+07]
+ [-9.37713238e+06]
+ [-8.85718423e+06]
+ [-8.37789437e+06]
+ [-7.93958650e+06]
+ [-7.61013285e+06]
+ [-7.32165974e+06]
+ [ 1.14232535e-08]]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -13669,36 +13665,36 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>[[-4.96096525e+06]
- [-9.94837560e+06]
- [-8.41648350e+06]
- [ 2.42845211e+06]
- [ 2.42859043e+06]
- [ 2.42873032e+06]
- [ 2.42882339e+06]
- [ 2.42897569e+06]
- [ 2.42913972e+06]
- [ 2.42882555e+06]
- [ 2.42891378e+06]
- [ 2.42901131e+06]
- [ 2.42903262e+06]
- [ 2.42886896e+06]
- [ 2.42891164e+06]
- [ 2.42836911e+06]
- [ 2.42837938e+06]
- [ 2.42838952e+06]
- [ 2.42935929e+06]
- [ 2.43004771e+06]
- [ 2.43066620e+06]
- [ 2.43277916e+06]
- [ 2.43370281e+06]
- [ 2.43442701e+06]
- [ 2.43080702e+06]
- [ 2.43089962e+06]
- [ 2.43094860e+06]
- [ 2.42942472e+06]
- [ 2.42925697e+06]
- [ 1.11305881e+03]]</t>
+          <t>[[-4.05022149e+06]
+ [-9.45598726e+06]
+ [-9.26219608e+06]
+ [ 2.42841698e+06]
+ [ 2.42855953e+06]
+ [ 2.42870522e+06]
+ [ 2.42895374e+06]
+ [ 2.42911401e+06]
+ [ 2.42928928e+06]
+ [ 2.42889086e+06]
+ [ 2.42898872e+06]
+ [ 2.42909829e+06]
+ [ 2.42903145e+06]
+ [ 2.42881604e+06]
+ [ 2.42885839e+06]
+ [ 2.42838681e+06]
+ [ 2.42839702e+06]
+ [ 2.42840711e+06]
+ [ 2.42933763e+06]
+ [ 2.42981566e+06]
+ [ 2.43024374e+06]
+ [ 2.43068531e+06]
+ [ 2.43132661e+06]
+ [ 2.43183048e+06]
+ [ 2.43008240e+06]
+ [ 2.43002946e+06]
+ [ 2.42994567e+06]
+ [ 2.42950411e+06]
+ [ 2.42933140e+06]
+ [ 1.18287928e+03]]</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
@@ -13721,36 +13717,36 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>[[-6.42092972e+04]
- [-1.29053962e+05]
- [-1.10169678e+05]
- [ 2.91015265e+04]
- [ 2.91033201e+04]
- [ 2.91051377e+04]
- [ 2.91063525e+04]
- [ 2.91083384e+04]
- [ 2.91104808e+04]
- [ 2.91064168e+04]
- [ 2.91075719e+04]
- [ 2.91088496e+04]
- [ 2.91091379e+04]
- [ 2.91070177e+04]
- [ 2.91075832e+04]
- [ 2.91005165e+04]
- [ 2.91006531e+04]
- [ 2.91007882e+04]
- [ 2.91135437e+04]
- [ 2.91228069e+04]
- [ 2.91312279e+04]
- [ 2.91598593e+04]
- [ 2.91729732e+04]
- [ 2.91836874e+04]
- [ 2.91345773e+04]
- [ 2.91363299e+04]
- [ 2.91375720e+04]
- [ 2.91164515e+04]
- [ 2.91148464e+04]
- [ 1.73350512e+01]]</t>
+          <t>[[-5.24143636e+04]
+ [-1.22612416e+05]
+ [-1.21017141e+05]
+ [ 2.91010738e+04]
+ [ 2.91029223e+04]
+ [ 2.91048150e+04]
+ [ 2.91080434e+04]
+ [ 2.91101327e+04]
+ [ 2.91124212e+04]
+ [ 2.91072637e+04]
+ [ 2.91085442e+04]
+ [ 2.91099788e+04]
+ [ 2.91091206e+04]
+ [ 2.91063275e+04]
+ [ 2.91068887e+04]
+ [ 2.91007474e+04]
+ [ 2.91008832e+04]
+ [ 2.91010175e+04]
+ [ 2.91132256e+04]
+ [ 2.91196577e+04]
+ [ 2.91254867e+04]
+ [ 2.91316602e+04]
+ [ 2.91407667e+04]
+ [ 2.91482216e+04]
+ [ 2.91246129e+04]
+ [ 2.91242383e+04]
+ [ 2.91235458e+04]
+ [ 2.91178148e+04]
+ [ 2.91161307e+04]
+ [ 1.85383327e+01]]</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -13773,36 +13769,36 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>[[-9.49260930e+05]
- [-3.19344870e+06]
- [-5.35523025e+06]
- [-5.92246229e+06]
- [-5.77535904e+06]
- [-5.62803219e+06]
- [-5.48051337e+06]
- [-5.33283139e+06]
- [-5.18503064e+06]
- [-5.08647184e+06]
- [-4.98789434e+06]
- [-4.88931246e+06]
- [-4.79074399e+06]
- [-4.69219326e+06]
- [-4.59365604e+06]
- [-4.54440443e+06]
- [-4.49515474e+06]
- [-4.44590793e+06]
- [-4.08768821e+06]
- [-3.72670294e+06]
- [-3.36367238e+06]
- [-2.84244499e+06]
- [-2.31997667e+06]
- [-1.79774225e+06]
- [-1.48526330e+06]
- [-1.17292935e+06]
- [-8.60920492e+05]
- [-5.69960272e+05]
- [-2.78836140e+05]
- [-4.33297010e-04]]</t>
+          <t>[[-6.92713094e+05]
+ [-2.78105442e+06]
+ [-5.17615578e+06]
+ [-5.91169636e+06]
+ [-5.76449214e+06]
+ [-5.61701392e+06]
+ [-5.46932957e+06]
+ [-5.32151246e+06]
+ [-5.17360798e+06]
+ [-5.07499688e+06]
+ [-4.97637324e+06]
+ [-4.87775241e+06]
+ [-4.77914897e+06]
+ [-4.68055612e+06]
+ [-4.58196641e+06]
+ [-4.53268535e+06]
+ [-4.48340709e+06]
+ [-4.43413259e+06]
+ [-4.07642026e+06]
+ [-3.71706572e+06]
+ [-3.35655502e+06]
+ [-2.83932763e+06]
+ [-2.31986282e+06]
+ [-1.79938209e+06]
+ [-1.48718504e+06]
+ [-1.17486619e+06]
+ [-8.62434347e+05]
+ [-5.70725365e+05]
+ [-2.78859389e+05]
+ [-4.66447587e-04]]</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -13825,36 +13821,36 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[[ 7.36152918e+07]
- [ 2.47242454e+08]
- [ 4.13626027e+08]
- [ 4.56667511e+08]
- [ 4.44401702e+08]
- [ 4.32118727e+08]
- [ 4.19821064e+08]
- [ 4.07510979e+08]
- [ 3.95191925e+08]
- [ 3.86977407e+08]
- [ 3.78761543e+08]
- [ 3.70545434e+08]
- [ 3.62330452e+08]
- [ 3.54116925e+08]
- [ 3.45904525e+08]
- [ 3.41799661e+08]
- [ 3.37694970e+08]
- [ 3.33590525e+08]
- [ 3.03748095e+08]
- [ 2.73701021e+08]
- [ 2.43505190e+08]
- [ 2.00183227e+08]
- [ 1.56783031e+08]
- [ 1.13415531e+08]
- [ 8.74668789e+07]
- [ 6.15379128e+07]
- [ 3.56423872e+07]
- [ 1.15061232e+07]
- [-1.26127096e+07]
- [ 2.78200863e-02]]</t>
+          <t>[[ 5.37074831e+07]
+ [ 2.15290000e+08]
+ [ 3.99788129e+08]
+ [ 4.55843476e+08]
+ [ 4.43569866e+08]
+ [ 4.31275212e+08]
+ [ 4.18964807e+08]
+ [ 4.06644320e+08]
+ [ 3.94317273e+08]
+ [ 3.86098719e+08]
+ [ 3.77879291e+08]
+ [ 3.69660173e+08]
+ [ 3.61442486e+08]
+ [ 3.53225712e+08]
+ [ 3.45009277e+08]
+ [ 3.40902155e+08]
+ [ 3.36795273e+08]
+ [ 3.32688706e+08]
+ [ 3.02884042e+08]
+ [ 2.72958272e+08]
+ [ 2.42949047e+08]
+ [ 1.99921948e+08]
+ [ 1.56742783e+08]
+ [ 1.13505004e+08]
+ [ 8.75782113e+07]
+ [ 6.16524763e+07]
+ [ 3.57322880e+07]
+ [ 1.15511847e+07]
+ [-1.26113615e+07]
+ [ 2.97631882e-02]]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr"/>
@@ -13877,35 +13873,35 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[[ 238417.20387204]
- [ 508799.83417732]
- [ 847402.97550448]
- [1299598.5545965 ]
- [1299591.70235262]
- [1299584.81645607]
- [1299586.16624245]
- [1299579.04418661]
- [1299571.75359298]
- [1299565.83518042]
- [1299560.64194199]
- [1299555.2802553 ]
- [1299545.98384716]
- [1299541.08675091]
- [1299536.90823585]
- [1299543.46886301]
- [1299541.37959438]
- [1299539.29033246]
- [1299695.20168161]
- [1299680.041506  ]
- [1299664.8532751 ]
- [1299649.6590212 ]
- [1299627.94690683]
- [1299606.22923817]
- [1299642.20442009]
- [1299632.59861211]
- [1299622.85940465]
- [1299753.96963218]
- [1299783.0980388 ]
+          <t>[[ 214212.23088701]
+ [ 468147.23156491]
+ [ 808897.11942993]
+ [1299618.73909802]
+ [1299611.6568197 ]
+ [1299604.52761924]
+ [1299581.15914771]
+ [1299573.91171797]
+ [1299566.47098552]
+ [1299566.1863401 ]
+ [1299560.7748354 ]
+ [1299555.15863883]
+ [1299553.25802483]
+ [1299548.12697978]
+ [1299543.94841926]
+ [1299543.37511208]
+ [1299541.28584367]
+ [1299539.19658199]
+ [1299681.98555276]
+ [1299666.81634361]
+ [1299651.6084258 ]
+ [1299726.62680633]
+ [1299704.81326907]
+ [1299682.98748433]
+ [1299697.90874421]
+ [1299703.99347618]
+ [1299712.44195894]
+ [1299757.5453607 ]
+ [1299785.85924873]
  [      0.        ]]</t>
         </is>
       </c>
@@ -13929,24 +13925,24 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[[-5892150.55916875]
- [ 8609022.39117726]
- [22579608.03041118]
- [22020548.31603738]
- [21635139.77097387]
- [21252850.56035487]
- [22290688.35906024]
- [21870843.66182778]
- [21464458.21291805]
- [21520259.29622939]
- [21261531.65087827]
- [21015281.49644778]
- [19890526.17804123]
- [19583929.47674436]
- [19277409.94315597]
- [21897770.72106403]
- [21703438.05786259]
- [21509124.72245763]]</t>
+          <t>[[-7315748.5518987 ]
+ [11128758.17352908]
+ [32139631.50759781]
+ [32274800.07579976]
+ [31593381.06356787]
+ [30915965.68269978]
+ [26778716.9256869 ]
+ [26242768.36796105]
+ [25722451.7953023 ]
+ [27254101.36138644]
+ [26887079.75778122]
+ [26535267.87168127]
+ [27276158.18272411]
+ [26790296.91023779]
+ [26304466.32492441]
+ [27227492.44730416]
+ [26968002.69826655]
+ [26708542.5490488 ]]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -13969,24 +13965,24 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[[2039277.58370932]
- [4090641.44762091]
- [3477244.64195734]
- [ 863652.03201261]
- [ 863698.56625464]
- [ 863745.63511707]
- [ 925437.33239749]
- [ 925492.25159497]
- [ 925551.41356547]
- [ 939869.0172048 ]
- [ 939901.29143024]
- [ 939936.98056918]
- [ 900252.74265265]
- [ 900194.91175386]
- [ 900209.8055628 ]
- [1035396.85853076]
- [1035400.94014842]
- [1035404.97173822]]</t>
+          <t>[[2317981.03250802]
+ [5410006.0929389 ]
+ [5318305.04552716]
+ [1204847.80586183]
+ [1204914.74086883]
+ [1204983.15587362]
+ [1061924.68676356]
+ [1061991.01930994]
+ [1062063.58440223]
+ [1142805.13110006]
+ [1142848.68197657]
+ [1142897.46204399]
+ [1194368.37312768]
+ [1194267.41683819]
+ [1194287.03185045]
+ [1248914.88008622]
+ [1248919.77595026]
+ [1248924.61161401]]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -14011,17 +14007,17 @@
         <is>
           <t>[[       -0.        ]
  [       -0.        ]
- [-11329638.67009527]
- [-17524846.39754569]
- [-15248424.14480737]
- [-12991137.43648216]
- [-11537006.26442331]
- [ -9165624.9097138 ]
- [ -6826967.3824348 ]
- [ -4983193.16428176]
- [ -3448557.66786621]
- [ -1940232.84945106]
- [  -570989.83367221]
+ [-15828752.07909323]
+ [-24574537.13943872]
+ [-21382382.30247571]
+ [-18217060.63347293]
+ [-13266703.43798155]
+ [-10539790.36796752]
+ [ -7850507.27785692]
+ [ -6076975.34815327]
+ [ -4205496.20362315]
+ [ -2366102.77929905]
+ [  -760789.53073945]
  [       -0.        ]
  [       -0.        ]
  [       -0.        ]
@@ -14085,24 +14081,24 @@
       <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[[0.03494609]
- [0.05671792]
- [0.15515567]
- [0.17475522]
- [0.1634753 ]
- [0.15250609]
- [0.15173415]
- [0.14073247]
- [0.1303331 ]
- [0.12438035]
- [0.11820112]
- [0.11247024]
- [0.10297132]
- [0.09993783]
- [0.09838359]
- [0.11176595]
- [0.11078071]
- [0.10979564]]</t>
+          <t>[[0.04245073]
+ [0.0740067 ]
+ [0.22039433]
+ [0.25143483]
+ [0.23506172]
+ [0.21910628]
+ [0.17997717]
+ [0.16715485]
+ [0.15501395]
+ [0.15672914]
+ [0.14896995]
+ [0.1417448 ]
+ [0.14112051]
+ [0.1366867 ]
+ [0.13422279]
+ [0.13894151]
+ [0.13762569]
+ [0.13631009]]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -14121,24 +14117,24 @@
       <c r="C538" t="inlineStr"/>
       <c r="D538" t="inlineStr">
         <is>
-          <t>[[0.05262979]
- [0.05818659]
- [0.13275182]
- [0.07930252]
- [0.06994294]
- [0.06075588]
- [0.05982463]
- [0.0498918 ]
- [0.04043822]
- [0.02798719]
- [0.02463382]
- [0.02211803]
- [0.01952249]
- [0.01880098]
- [0.01786735]
- [0.01947099]
- [0.01901316]
- [0.01855639]]</t>
+          <t>[[0.07055271]
+ [0.08553214]
+ [0.28580533]
+ [0.15257074]
+ [0.13413885]
+ [0.11598704]
+ [0.07577586]
+ [0.06227053]
+ [0.04942413]
+ [0.03624853]
+ [0.03056026]
+ [0.02589972]
+ [0.02474886]
+ [0.02335659]
+ [0.02234258]
+ [0.02129138]
+ [0.02080749]
+ [0.02032501]]</t>
         </is>
       </c>
       <c r="E538" t="inlineStr"/>
@@ -14157,24 +14153,24 @@
       <c r="C539" t="inlineStr"/>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[[0.08025929]
- [0.13473269]
- [0.18649755]
- [0.16432915]
- [0.1588934 ]
- [0.1534349 ]
- [0.15848683]
- [0.15268401]
- [0.14681319]
- [0.14506805]
- [0.14101573]
- [0.1369043 ]
- [0.12739903]
- [0.12380431]
- [0.120211  ]
- [0.13603531]
- [0.13406347]
- [0.13209201]]</t>
+          <t>[[0.09616076]
+ [0.17469323]
+ [0.26449312]
+ [0.24081246]
+ [0.23328067]
+ [0.22571229]
+ [0.19217645]
+ [0.18515712]
+ [0.17805299]
+ [0.18640275]
+ [0.18128031]
+ [0.17607907]
+ [0.17881488]
+ [0.17401859]
+ [0.169224  ]
+ [0.17443395]
+ [0.17195952]
+ [0.16948564]]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -14197,36 +14193,36 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[[-5.89215056e+06]
- [ 8.60902239e+06]
- [ 2.25796080e+07]
- [ 2.20205483e+07]
- [ 2.16351398e+07]
- [ 2.12528506e+07]
- [ 2.22906884e+07]
- [ 2.18708437e+07]
- [ 2.14644582e+07]
- [ 2.15202593e+07]
- [ 2.12615317e+07]
- [ 2.10152815e+07]
- [ 1.98905262e+07]
- [ 1.95839295e+07]
- [ 1.92774099e+07]
- [ 2.18977707e+07]
- [ 2.17034381e+07]
- [ 1.93295797e+07]
- [ 7.81003188e+07]
- [ 6.99796802e+07]
- [ 6.18146417e+07]
- [ 5.00949894e+07]
- [ 3.83521771e+07]
- [ 2.66196113e+07]
- [ 2.86872768e+07]
- [ 1.88725793e+07]
- [ 8.16229283e+06]
- [-5.35200320e+06]
- [-1.91939185e+06]
- [ 5.15461258e-02]]</t>
+          <t>[[-7.31574855e+06]
+ [ 1.11287582e+07]
+ [ 3.21396315e+07]
+ [ 3.22748001e+07]
+ [ 3.15933811e+07]
+ [ 3.09159657e+07]
+ [ 2.67787169e+07]
+ [ 2.62427684e+07]
+ [ 2.57224518e+07]
+ [ 2.72541014e+07]
+ [ 2.68870798e+07]
+ [ 2.65352679e+07]
+ [ 2.72761582e+07]
+ [ 2.67902969e+07]
+ [ 2.63044663e+07]
+ [ 2.72274924e+07]
+ [ 2.69680027e+07]
+ [ 2.67085425e+07]
+ [ 7.46555142e+07]
+ [ 6.69669786e+07]
+ [ 5.92549418e+07]
+ [ 7.21710178e+07]
+ [ 5.47036084e+07]
+ [ 3.72114954e+07]
+ [ 3.32567091e+07]
+ [ 2.49235464e+07]
+ [ 1.24841036e+07]
+ [-5.20984776e+06]
+ [-1.78113218e+06]
+ [ 5.55347359e-02]]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
@@ -14249,36 +14245,36 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>[[2.03927758e+06]
- [4.09064145e+06]
- [3.47724464e+06]
- [8.63652032e+05]
- [8.63698566e+05]
- [8.63745635e+05]
- [9.25437332e+05]
- [9.25492252e+05]
- [9.25551414e+05]
- [9.39869017e+05]
- [9.39901291e+05]
- [9.39936981e+05]
- [9.00252743e+05]
- [9.00194912e+05]
- [9.00209806e+05]
- [1.03539686e+06]
- [1.03540094e+06]
- [1.03116002e+06]
- [3.38685522e+06]
- [3.38775725e+06]
- [3.38856743e+06]
- [3.39134077e+06]
- [3.39255084e+06]
- [3.39349891e+06]
- [4.97735483e+06]
- [5.08604362e+06]
- [5.19947413e+06]
- [1.02838263e+07]
- [1.19124147e+07]
- [5.93258669e+03]]</t>
+          <t>[[2.31798103e+06]
+ [5.41000609e+06]
+ [5.31830505e+06]
+ [1.20484781e+06]
+ [1.20491474e+06]
+ [1.20498316e+06]
+ [1.06192469e+06]
+ [1.06199102e+06]
+ [1.06206358e+06]
+ [1.14280513e+06]
+ [1.14284868e+06]
+ [1.14289746e+06]
+ [1.19436837e+06]
+ [1.19426742e+06]
+ [1.19428703e+06]
+ [1.24891488e+06]
+ [1.24891978e+06]
+ [1.24892461e+06]
+ [3.86319745e+06]
+ [3.86391865e+06]
+ [3.86456425e+06]
+ [5.85580519e+06]
+ [5.85727080e+06]
+ [5.85842131e+06]
+ [6.94335851e+06]
+ [7.57174560e+06]
+ [8.32474850e+06]
+ [1.04285220e+07]
+ [1.20283338e+07]
+ [6.32684544e+03]]</t>
         </is>
       </c>
       <c r="E541" t="inlineStr"/>
@@ -14303,34 +14299,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.13296387e+07]
- [-1.75248464e+07]
- [-1.52484241e+07]
- [-1.29911374e+07]
- [-1.15370063e+07]
- [-9.16562491e+06]
- [-6.82696738e+06]
- [-4.98319316e+06]
- [-3.44855767e+06]
- [-1.94023285e+06]
- [-5.70989834e+05]
+ [-1.58287521e+07]
+ [-2.45745371e+07]
+ [-2.13823823e+07]
+ [-1.82170606e+07]
+ [-1.32667034e+07]
+ [-1.05397904e+07]
+ [-7.85050728e+06]
+ [-6.07697535e+06]
+ [-4.20549620e+06]
+ [-2.36610278e+06]
+ [-7.60789531e+05]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
- [-1.19673111e+03]
- [-6.37727477e+03]
- [-7.14427391e+03]
- [-7.70875864e+03]
- [-8.24432885e+03]
- [-8.76764569e+03]
- [-9.20646874e+03]
- [-1.37237647e+04]
- [-1.37454398e+04]
- [-1.37359294e+04]
- [-2.38687445e+04]
- [-2.11375650e+04]
- [-1.82924284e+04]]</t>
+ [-1.58012424e+03]
+ [-1.06050110e+04]
+ [-1.18804829e+04]
+ [-1.28191858e+04]
+ [-2.07988021e+04]
+ [-2.21190264e+04]
+ [-2.32260897e+04]
+ [-2.63123781e+04]
+ [-2.47691830e+04]
+ [-2.31017715e+04]
+ [-2.35581385e+04]
+ [-2.09482224e+04]
+ [-1.82284467e+04]]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -14401,36 +14397,36 @@
       <c r="C544" t="inlineStr"/>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[[3.49460945e-02]
- [5.67179248e-02]
- [1.55155668e-01]
- [1.74755223e-01]
- [1.63475300e-01]
- [1.52506090e-01]
- [1.51734151e-01]
- [1.40732474e-01]
- [1.30333102e-01]
- [1.24380346e-01]
- [1.18201118e-01]
- [1.12470244e-01]
- [1.02971324e-01]
- [9.99378339e-02]
- [9.83835891e-02]
- [1.11765946e-01]
- [1.10780715e-01]
- [9.87506091e-02]
- [3.98428227e-01]
- [3.57250924e-01]
- [3.15882128e-01]
- [2.56597736e-01]
- [1.97394498e-01]
- [1.38697375e-01]
- [1.52411527e-01]
- [1.05979432e-01]
- [6.18518111e-02]
- [9.45938702e-02]
- [1.05406945e-01]
- [1.06729226e-04]]</t>
+          <t>[[4.24507314e-02]
+ [7.40066960e-02]
+ [2.20394331e-01]
+ [2.51434828e-01]
+ [2.35061717e-01]
+ [2.19106278e-01]
+ [1.79977172e-01]
+ [1.67154854e-01]
+ [1.55013949e-01]
+ [1.56729137e-01]
+ [1.48969946e-01]
+ [1.41744801e-01]
+ [1.41120515e-01]
+ [1.36686705e-01]
+ [1.34222788e-01]
+ [1.38941509e-01]
+ [1.37625686e-01]
+ [1.36314099e-01]
+ [3.81318563e-01]
+ [3.42385111e-01]
+ [3.03376826e-01]
+ [3.70790933e-01]
+ [2.83075218e-01]
+ [1.96261844e-01]
+ [1.79960039e-01]
+ [1.43321794e-01]
+ [9.70590896e-02]
+ [9.56134784e-02]
+ [1.06362167e-01]
+ [1.08193742e-04]]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr"/>
@@ -14449,36 +14445,36 @@
       <c r="C545" t="inlineStr"/>
       <c r="D545" t="inlineStr">
         <is>
-          <t>[[0.05262979]
- [0.05818659]
- [0.13275182]
- [0.07930252]
- [0.06994294]
- [0.06075588]
- [0.05982463]
- [0.0498918 ]
- [0.04043822]
- [0.02798719]
- [0.02463382]
- [0.02211803]
- [0.01952249]
- [0.01880098]
- [0.01786735]
- [0.01947099]
- [0.01901316]
- [0.01981816]
- [0.11471291]
- [0.10925452]
- [0.10381947]
- [0.1023413 ]
- [0.0948013 ]
- [0.08738155]
- [0.16049779]
- [0.15503894]
- [0.1497814 ]
- [0.54323741]
- [0.54144315]
- [0.00245073]]</t>
+          <t>[[0.07055271]
+ [0.08553214]
+ [0.28580533]
+ [0.15257074]
+ [0.13413885]
+ [0.11598704]
+ [0.07577586]
+ [0.06227053]
+ [0.04942413]
+ [0.03624853]
+ [0.03056026]
+ [0.02589972]
+ [0.02474886]
+ [0.02335659]
+ [0.02234258]
+ [0.02129138]
+ [0.02080749]
+ [0.02032373]
+ [0.18657212]
+ [0.17819352]
+ [0.16981093]
+ [0.44075167]
+ [0.42141179]
+ [0.40203778]
+ [0.45855044]
+ [0.44707685]
+ [0.43812312]
+ [0.54365647]
+ [0.54198533]
+ [0.00244772]]</t>
         </is>
       </c>
       <c r="E545" t="inlineStr"/>
@@ -14497,36 +14493,36 @@
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
-          <t>[[1.56057621e-01]
- [2.21777434e-01]
- [2.83123216e-01]
- [2.43137336e-01]
- [2.33963185e-01]
- [2.24760918e-01]
- [2.31370075e-01]
- [2.21637012e-01]
- [2.11767365e-01]
- [2.08357366e-01]
- [2.01510111e-01]
- [1.94533220e-01]
- [1.79936566e-01]
- [1.74104953e-01]
- [1.68284552e-01]
- [1.90528565e-01]
- [1.87392358e-01]
- [1.77862964e-01]
- [7.26773923e-01]
- [6.56217700e-01]
- [5.86511920e-01]
- [4.88486074e-01]
- [3.92452480e-01]
- [2.98511242e-01]
- [3.75138850e-01]
- [3.14268610e-01]
- [2.48080753e-01]
- [4.07382298e-01]
- [6.05567796e-01]
- [2.57699132e-10]]</t>
+          <t>[[1.71421585e-01]
+ [2.57642687e-01]
+ [3.55441256e-01]
+ [3.14147922e-01]
+ [3.03057696e-01]
+ [2.91925566e-01]
+ [2.46248219e-01]
+ [2.35809169e-01]
+ [2.25212781e-01]
+ [2.35066047e-01]
+ [2.27406803e-01]
+ [2.19588454e-01]
+ [2.22137952e-01]
+ [2.15382061e-01]
+ [2.08640375e-01]
+ [2.14852409e-01]
+ [2.11397541e-01]
+ [2.07946464e-01]
+ [5.98947495e-01]
+ [5.40304156e-01]
+ [4.82165837e-01]
+ [6.30194202e-01]
+ [5.10375849e-01]
+ [3.92416460e-01]
+ [4.10391517e-01]
+ [4.04840672e-01]
+ [3.88821832e-01]
+ [4.22225254e-01]
+ [6.20122341e-01]
+ [2.72576153e-10]]</t>
         </is>
       </c>
       <c r="E546" t="inlineStr"/>
@@ -14568,7 +14564,7 @@
       <c r="C548" t="inlineStr"/>
       <c r="D548" t="inlineStr">
         <is>
-          <t>[0.83333333]</t>
+          <t>[1.]</t>
         </is>
       </c>
       <c r="E548" t="inlineStr"/>
@@ -14657,9 +14653,9 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[336.9560439  388.43785582 424.16473764 452.12457083 484.27449749
- 510.65946695 533.22010636 534.90944214 535.3275796  534.6296143
- 479.32439573 419.08646016 352.18249915]</t>
+          <t>[403.67324327 463.99223289 506.07689928 539.14849713 577.32846487
+ 608.78594237 635.77318933 602.40449388 566.17637828 527.04601147
+ 474.03639761 416.26233144 352.18591523]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14778,9 +14774,9 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>[336.9560439  388.43785582 424.16473764 452.12457083 484.27449749
- 510.65946695 533.22010636 534.90944214 535.3275796  534.6296143
- 479.32439573 419.08646016 352.18249915]</t>
+          <t>[403.67324327 463.99223289 506.07689928 539.14849713 577.32846487
+ 608.78594237 635.77318933 602.40449388 566.17637828 527.04601147
+ 474.03639761 416.26233144 352.18591523]</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -14968,9 +14964,9 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>[-336.9560439  -388.43785582 -424.16473764 -452.12457083 -484.27449749
- -510.65946695 -533.22010636 -534.90944214 -535.3275796  -534.6296143
- -479.32439573 -419.08646016 -352.18249915]</t>
+          <t>[-403.67324327 -463.99223289 -506.07689928 -539.14849713 -577.32846487
+ -608.78594237 -635.77318933 -602.40449388 -566.17637828 -527.04601147
+ -474.03639761 -416.26233144 -352.18591523]</t>
         </is>
       </c>
       <c r="E564" t="inlineStr"/>
@@ -15014,7 +15010,7 @@
       <c r="C566" t="inlineStr"/>
       <c r="D566" t="inlineStr">
         <is>
-          <t>[250.         250.         352.76689959 513.37264925]</t>
+          <t>[415.0715027  629.17748032 634.88140812 508.78300212]</t>
         </is>
       </c>
       <c r="E566" t="inlineStr"/>
@@ -15033,7 +15029,7 @@
       <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
-          <t>[1.         1.         0.94021795 0.63804355]</t>
+          <t>[1.         1.         0.77203659 0.64753527]</t>
         </is>
       </c>
       <c r="E567" t="inlineStr"/>
@@ -15052,7 +15048,7 @@
       <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
-          <t>[1.         1.         0.94021795 0.63804355]</t>
+          <t>[1.         1.         0.77203659 0.64753527]</t>
         </is>
       </c>
       <c r="E568" t="inlineStr"/>
@@ -15071,7 +15067,7 @@
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
-          <t>[1.         0.6875     0.54545455]</t>
+          <t>[0.65970496 0.87805809 0.89569455]</t>
         </is>
       </c>
       <c r="E569" t="inlineStr"/>
@@ -15114,9 +15110,9 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[5.         5.         5.         5.         5.         5.
- 5.         4.90036325 4.80072649 4.70108974 4.13389316 3.56669658
- 2.9995    ]</t>
+          <t>[6.         6.         6.         6.         6.         6.
+ 6.         5.54407318 5.08814635 4.63221953 4.08798819 3.54375685
+ 2.9995255 ]</t>
         </is>
       </c>
       <c r="E571" t="inlineStr"/>
@@ -15367,9 +15363,9 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[10.         10.         10.         10.         10.         10.
- 10.          9.80072649  9.60145298  9.40217948  8.26778632  7.13339316
-  5.999     ]</t>
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         11.08814635 10.1762927   9.26443906  8.17597637  7.08751369
+  5.99905101]</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -15622,7 +15618,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>[10445.94134309 10445.94134308  6975.07066306  3022.71158124]</t>
+          <t>[9074.44876583 5991.37866635 4661.21267241 2995.63523448]</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -15649,7 +15645,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[129533.85103079 129533.85103079  81590.09974992  22318.38540805]</t>
+          <t>[162554.92846024 107502.54878563  65658.15756139  21723.98345481]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -15676,7 +15672,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>[129533.85103079 129533.85103079  81590.09974992  22318.38540805]</t>
+          <t>[162554.92846024 107502.54878563  65658.15756139  21723.98345481]</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -15703,7 +15699,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>[3.10409420e+12 3.10409420e+12 1.95519050e+12 5.34828311e+11]</t>
+          <t>[3.89539728e+12 2.57614543e+12 1.57340421e+12 5.20584315e+11]</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -15730,7 +15726,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>[3.10409420e+12 3.10409420e+12 1.95519050e+12 5.34828311e+11]</t>
+          <t>[3.89539728e+12 2.57614543e+12 1.57340421e+12 5.20584315e+11]</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -15757,7 +15753,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>[2.46154670e+12 2.46154670e+12 1.55046607e+12 4.24118850e+11]</t>
+          <t>[3.08905004e+12 2.04288333e+12 1.24770954e+12 4.12823362e+11]</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -15784,7 +15780,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[2.50322103e+11 2.50322103e+11 1.67147632e+11 7.24349768e+10]</t>
+          <t>[2.17456237e+11 1.43574854e+11 1.11699321e+11 7.17861307e+10]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -15892,10 +15888,10 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.7989706  0.32215517 0.32215517 0.        ]
- [0.         0.         0.7989706  0.32215517 0.32215517 0.        ]
- [0.         0.         1.19654702 0.49617107 0.49617107 0.        ]
- [0.         0.         2.76109704 1.43982463 1.43982463 0.        ]]</t>
+          <t>[[0.         0.         0.91972529 0.30805587 0.30805587 0.        ]
+ [0.         0.         1.39300159 0.46581221 0.46581221 0.        ]
+ [0.         0.         1.79052118 0.67574622 0.67574622 0.        ]
+ [0.         0.         2.78605349 1.46599596 1.46599596 0.        ]]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15918,10 +15914,10 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[[1.3135028  1.3135028  0.         0.         0.         0.16107759]
- [1.3135028  1.3135028  0.         0.         0.         0.16107759]
- [1.96814907 1.96814907 0.         0.         0.         0.24808554]
- [4.54340907 4.54340907 0.         0.         0.         0.71991231]]</t>
+          <t>[[1.51310485 1.51310485 0.         0.         0.         0.15402794]
+ [2.29256104 2.29256104 0.         0.         0.         0.23290611]
+ [2.94680574 2.94680574 0.         0.         0.         0.33787311]
+ [4.5844393  4.5844393  0.         0.         0.         0.73299798]]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -15944,7 +15940,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>[614.59196173]</t>
+          <t>[539.87233643]</t>
         </is>
       </c>
       <c r="E605" t="inlineStr"/>
@@ -15967,7 +15963,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>[3308254.97274794]</t>
+          <t>[2620539.13736922]</t>
         </is>
       </c>
       <c r="E606" t="inlineStr"/>
@@ -15990,8 +15986,8 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>[10.         10.         10.         10.         10.         10.
-  9.90036325  9.70108974  9.50181623  8.8349829   7.70058974  6.56619658]</t>
+          <t>[12.         12.         12.         12.         12.         12.
+ 11.54407318 10.63221953  9.72036588  8.72020771  7.63174503  6.54328235]</t>
         </is>
       </c>
       <c r="E607" t="inlineStr"/>
@@ -16014,8 +16010,8 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>[0.0428   0.0428   0.0428   0.0428   0.0428   0.0428   0.029425 0.029425
- 0.029425 0.01605  0.01605  0.01605 ]</t>
+          <t>[0.03093443 0.03093443 0.03093443 0.0204076  0.0204076  0.0204076
+ 0.01791906 0.01791906 0.01791906 0.01605    0.01605    0.01605   ]</t>
         </is>
       </c>
       <c r="E608" t="inlineStr"/>
@@ -16062,18 +16058,18 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>[[84785528.45430747]
- [76767167.65663137]
- [68692275.48310992]
- [57083760.76750164]
- [45430774.36210819]
- [33768822.12537252]
- [39305291.0582834 ]
- [29973995.38354652]
- [19770093.53625778]
- [19215455.90324736]
- [-3457189.51209306]
- [ 1996120.93592525]]</t>
+          <t>[[80972469.52985813]
+ [73386790.78826767]
+ [65766873.64620399]
+ [82191219.5857497 ]
+ [64870743.12901903]
+ [47500968.86704838]
+ [45987756.41452037]
+ [40011697.99128424]
+ [30616344.34160274]
+ [20009556.97026516]
+ [-3314849.72847131]
+ [ 2085779.78468223]]</t>
         </is>
       </c>
       <c r="E610" t="inlineStr"/>
@@ -16096,18 +16092,18 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>[[ 3385516.91689541]
- [ 3386480.99962908]
- [ 3387357.52483876]
- [ 3389729.73027715]
- [ 3391080.23780544]
- [ 3392170.1449675 ]
- [ 4976636.97037427]
- [ 5085404.89257048]
- [ 5198921.0136402 ]
- [10283433.04669582]
- [11912235.95407424]
- [14150230.74250109]]</t>
+          <t>[[ 3861506.10179282]
+ [ 3862273.05587156]
+ [ 3862970.55702043]
+ [ 5853642.50123804]
+ [ 5855276.76165532]
+ [ 5856597.54450335]
+ [ 6942352.05248935]
+ [ 7570825.34776154]
+ [ 8323946.6016405 ]
+ [10427925.03061617]
+ [12027963.04831806]
+ [14204289.30686102]]</t>
         </is>
       </c>
       <c r="E611" t="inlineStr"/>
@@ -16130,18 +16126,18 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>[[ -6377.27477098]
- [ -7144.27390968]
- [ -7708.75864117]
- [ -8244.32885357]
- [ -8767.64569381]
- [ -9206.46874337]
- [-13723.76474916]
- [-13745.43977165]
- [-13735.92943175]
- [-23868.74448799]
- [-21137.56498899]
- [-18292.42841314]]</t>
+          <t>[[-10605.01103422]
+ [-11880.48286526]
+ [-12819.18584123]
+ [-20798.80211305]
+ [-22119.02642675]
+ [-23226.08971019]
+ [-26312.37814165]
+ [-24769.18302379]
+ [-23101.77146758]
+ [-23558.13849677]
+ [-20948.22239913]
+ [-18228.44667945]]</t>
         </is>
       </c>
       <c r="E612" t="inlineStr"/>
@@ -16194,18 +16190,18 @@
       <c r="C614" t="inlineStr"/>
       <c r="D614" t="inlineStr">
         <is>
-          <t>[[0.43234677]
- [0.39166762]
- [0.35072641]
- [0.29193534]
- [0.2330499 ]
- [0.17438431]
- [0.20473001]
- [0.15895715]
- [0.11054212]
- [0.13332679]
- [0.1064115 ]
- [0.12509243]]</t>
+          <t>[[0.41333309]
+ [0.37489332]
+ [0.33631256]
+ [0.42132476]
+ [0.3340586 ]
+ [0.24714155]
+ [0.24186717]
+ [0.21424965]
+ [0.17220175]
+ [0.13716676]
+ [0.10730162]
+ [0.12560502]]</t>
         </is>
       </c>
       <c r="E614" t="inlineStr"/>
@@ -16224,18 +16220,18 @@
       <c r="C615" t="inlineStr"/>
       <c r="D615" t="inlineStr">
         <is>
-          <t>[[0.11470367]
- [0.10924344]
- [0.10380723]
- [0.10231916]
- [0.0947785 ]
- [0.08735857]
- [0.16047418]
- [0.15501669]
- [0.14976069]
- [0.54319038]
- [0.54142047]
- [0.54630661]]</t>
+          <t>[[0.18654454]
+ [0.17816182]
+ [0.16977654]
+ [0.44064794]
+ [0.42130281]
+ [0.40192549]
+ [0.45845873]
+ [0.44700001]
+ [0.43806208]
+ [0.54360507]
+ [0.54195827]
+ [0.54662548]]</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -16254,18 +16250,18 @@
       <c r="C616" t="inlineStr"/>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[[1.16578828]
- [1.05960671]
- [0.95354575]
- [0.80249423]
- [0.65240012]
- [0.50360623]
- [0.62682431]
- [0.52288543]
- [0.4085355 ]
- [0.62409947]
- [0.46243931]
- [0.68992817]]</t>
+          <t>[[1.81989253]
+ [1.65451835]
+ [1.48929944]
+ [1.93325469]
+ [1.58496508]
+ [1.2381683 ]
+ [1.2716271 ]
+ [1.19323555]
+ [1.07035964]
+ [1.04448598]
+ [0.72969349]
+ [1.05667893]]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16381,7 +16377,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[0.2445569]</t>
+          <t>[0.25082976]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16404,7 +16400,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[0.24656386]</t>
+          <t>[0.25327442]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16427,7 +16423,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[0.2445569  0.24656386 0.89565182 1.03481553 1.21091789 2.51109356]</t>
+          <t>[0.25082976 0.25327442 0.86828226 1.05270269 1.24592788 3.0111551 ]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16446,12 +16442,12 @@
       <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[[ 1.48987146e+00 -5.67988357e-01 -2.01324936e-01  3.51785568e-01
-  -7.23437313e-02]
- [-3.71188552e+02  9.36427497e+00  1.49216466e+03 -2.19398460e+03
-   1.06464422e+03]
- [-6.43193397e+01  1.87085366e+02 -2.85517227e+02  2.79315852e+02
-  -1.15564652e+02]]</t>
+          <t>[[ 1.09100627e+00 -3.09759106e-03  3.99792750e-02 -3.75685514e-01
+   2.47797563e-01]
+ [ 4.94808647e+01  2.40106941e+01 -2.29840910e+02  3.13800379e+02
+  -1.56451029e+02]
+ [-8.21165880e+01  2.12159534e+02 -3.18015999e+02  3.37257314e+02
+  -1.48284261e+02]]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16470,12 +16466,12 @@
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr">
         <is>
-          <t>[[ 1.48206657e+00 -5.89595456e-01 -1.02737831e-01  2.22422399e-01
-  -1.21556817e-02]
- [ 4.77816560e+01  2.45657690e+01 -2.66490957e+02  3.72918534e+02
-  -1.77775002e+02]
- [-6.05918334e+01  1.70921710e+02 -2.54676549e+02  2.46678699e+02
-  -1.01332027e+02]]</t>
+          <t>[[ 1.08319380e+00 -2.36766127e-02  1.26970062e-01 -4.88936540e-01
+   3.02449293e-01]
+ [ 1.85150870e+01  1.73654775e+01 -1.08642762e+02  1.45186146e+02
+  -7.14239487e+01]
+ [-7.90777643e+01  2.00640191e+02 -2.97794218e+02  3.15228636e+02
+  -1.37996845e+02]]</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
@@ -16494,7 +16490,7 @@
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[[  8.06250893 -30.45867998  51.86256028 -41.49903082  13.0326416 ]
+          <t>[[  6.03888842 -20.0324305   33.17082274 -26.50639216   8.3291115 ]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -16519,7 +16515,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>[0.24656386 1.21091789 2.59375561]</t>
+          <t>[0.25327442 1.24592788 3.07317152]</t>
         </is>
       </c>
       <c r="E627" t="inlineStr"/>
@@ -16542,7 +16538,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>[0.2445569  1.03481553 2.51109356]</t>
+          <t>[0.25082976 1.05270269 3.0111551 ]</t>
         </is>
       </c>
       <c r="E628" t="inlineStr"/>
@@ -16565,7 +16561,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>[5.05832763 0.         0.        ]</t>
+          <t>[4.49423092 0.         0.        ]</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
@@ -16589,18 +16585,18 @@
       <c r="D630" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00807027]
- [0.03044537]
- [0.06582116]
- [0.13630738]
- [0.22679944]
- [0.33343702]
- [0.40478469]
- [0.48166042]
- [0.56305085]
- [0.64412638]
- [0.72997404]
- [0.8181007 ]]</t>
+ [0.00658276]
+ [0.02452508]
+ [0.05279253]
+ [0.11403874]
+ [0.19934321]
+ [0.30408177]
+ [0.37515722]
+ [0.45255511]
+ [0.53624044]
+ [0.62014042]
+ [0.70897097]
+ [0.80012662]]</t>
         </is>
       </c>
       <c r="E630" t="inlineStr"/>
@@ -16623,7 +16619,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>[0.8181007]</t>
+          <t>[0.80012662]</t>
         </is>
       </c>
       <c r="E631" t="inlineStr"/>
@@ -16646,17 +16642,17 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[[-17893484.9036034 ]
- [-16652086.55589887]
- [-15410307.66054134]
- [-13635824.70379636]
- [-11860842.08403933]
- [-10085441.65748331]
- [ -9357668.97912271]
- [ -8644464.41172472]
- [ -7945840.18245411]
- [ -7612490.6424134 ]
- [ -7321944.18411436]
+          <t>[[-14605075.37513749]
+ [-13525087.09306413]
+ [-12444649.72928914]
+ [-11421930.66732845]
+ [-10398617.16937478]
+ [ -9374804.77949715]
+ [ -8854889.31737686]
+ [ -8375955.90443268]
+ [ -7938033.99962081]
+ [ -7609020.79877034]
+ [ -7321077.26459546]
  [ -7074256.2758736 ]]</t>
         </is>
       </c>
@@ -16680,18 +16676,18 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[[2428340.49588803]
- [2429076.15016301]
- [2429745.150357  ]
- [2431552.74336647]
- [2432583.30649191]
- [2433415.48350294]
- [2430434.81124687]
- [2430575.11856734]
- [2430673.38284943]
- [2429325.40790102]
- [2429217.64005877]
- [2429056.55177362]]</t>
+          <t>[[2428219.91942317]
+ [2428728.19579798]
+ [2429190.57531753]
+ [2429742.04748937]
+ [2430456.90503978]
+ [2431035.03674099]
+ [2429711.57771473]
+ [2429717.20280247]
+ [2429696.937491  ]
+ [2429355.3195223 ]
+ [2429250.54170299]
+ [2429091.30244741]]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
@@ -16714,18 +16710,18 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>[[29100.21082235]
- [29110.03624615]
- [29119.06229751]
- [29143.55247813]
- [29157.95209706]
- [29169.96603069]
- [29129.46422283]
- [29131.80374907]
- [29133.65301517]
- [29114.96600434]
- [29114.11634867]
- [29112.79357358]]</t>
+          <t>[[29098.61020667]
+ [29105.3996609 ]
+ [29111.639109  ]
+ [29119.19718559]
+ [29129.18827378]
+ [29137.53696334]
+ [29119.58509734]
+ [29119.9571933 ]
+ [29120.07425233]
+ [29115.66448096]
+ [29114.84187689]
+ [29113.52864605]]</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
@@ -16748,18 +16744,18 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>[[-4353455.09897782]
- [-3996917.79067181]
- [-3637829.27863067]
- [-3121492.70759842]
- [-2603010.98202662]
- [-2083944.61032928]
- [-1772934.3694098 ]
- [-1461831.17164323]
- [-1150827.53818356]
- [ -860547.19776195]
- [ -569774.79627189]
- [ -278501.81987501]]</t>
+          <t>[[-4338969.4760101 ]
+ [-3984274.81581647]
+ [-3627953.34000302]
+ [-3115967.11199083]
+ [-2600972.16263724]
+ [-2084246.90629691]
+ [-1773928.74163685]
+ [-1463242.04144086]
+ [-1152176.55718597]
+ [ -861457.5135865 ]
+ [ -570230.80330738]
+ [ -278501.82831311]]</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
@@ -16782,17 +16778,17 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>[[ 3.25953229e+08]
- [ 2.96244541e+08]
- [ 2.66347158e+08]
- [ 2.23393035e+08]
- [ 1.80289949e+08]
- [ 1.37155989e+08]
- [ 1.11314234e+08]
- [ 8.54735057e+07]
- [ 5.96485756e+07]
- [ 3.55577560e+07]
- [ 1.14576593e+07]
+          <t>[[ 3.24825079e+08]
+ [ 2.95254720e+08]
+ [ 2.65564101e+08]
+ [ 2.22933678e+08]
+ [ 1.80090248e+08]
+ [ 1.37132036e+08]
+ [ 1.11343801e+08]
+ [ 8.55371210e+07]
+ [ 5.97148440e+07]
+ [ 3.56022473e+07]
+ [ 1.14797549e+07]
  [-1.26341967e+07]]</t>
         </is>
       </c>
@@ -16816,18 +16812,18 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[[1299695.24279712]
- [1299680.05421094]
- [1299664.85960162]
- [1299649.66068986]
- [1299627.94229549]
- [1299606.21851177]
- [1299642.18117576]
- [1299632.57261275]
- [1299622.83265684]
- [1299753.91699874]
- [1299783.0489597 ]
- [1299824.39641589]]</t>
+          <t>[[1299682.03074534]
+ [1299666.82247147]
+ [1299651.60593233]
+ [1299726.61344501]
+ [1299704.7869281 ]
+ [1299682.94845864]
+ [1299697.84994612]
+ [1299703.93052337]
+ [1299712.38378656]
+ [1299757.48737567]
+ [1299785.81177684]
+ [1299825.62880721]]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
@@ -16850,9 +16846,9 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>[[  2427925.55809688]
- [    29094.73368412]
- [-19134362.15263613]]</t>
+          <t>[[  2427925.55809672]
+ [    29094.73368413]
+ [-15684451.76406306]]</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
@@ -16875,8 +16871,8 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>[[-4.70669516e+06]
- [ 3.55415151e+08]
+          <t>[[-4.69153409e+06]
+ [ 3.54236071e+08]
  [ 1.29946107e+06]]</t>
         </is>
       </c>
@@ -16900,7 +16896,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[2189858.81257325]</t>
+          <t>[1837130.18986423]</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
@@ -16923,7 +16919,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[-2.92118612e+00 -4.31540744e-02  1.07926329e+02]</t>
+          <t>[-3.48205326e+00 -5.14396479e-02  1.16237311e+02]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16946,7 +16942,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[3.23478376e+10 3.22103506e+10 2.86562094e+08 7.86163621e+02
+          <t>[3.05856128e+10 3.04481258e+10 2.85707966e+08 7.86163621e+02
  1.35359722e+07 1.70976373e+05]</t>
         </is>
       </c>
@@ -19614,8 +19610,8 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[[0.0846081  0.13       0.13       0.1125613  0.12625104 0.1231626
-  0.09344583]]</t>
+          <t>[[0.077      0.077      0.10899189 0.10222288 0.09395748 0.0937197
+  0.08567434]]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -19831,7 +19827,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[10.         10.         10.          9.40217948  5.999     ]</t>
+          <t>[12.         12.         12.          9.26443906  5.99905101]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
@@ -19881,7 +19877,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>[[0.04  0.04  0.04  0.015 0.015]]</t>
+          <t>[[0.03816988 0.01965148 0.01849356 0.015      0.015     ]]</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
